--- a/formated_data.xlsx
+++ b/formated_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinayeo/Desktop/FE5209/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tong\Desktop\FE5209\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC6FF7B-519D-6242-A0B0-674FA53F8B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily New Cases" sheetId="1" r:id="rId1"/>
@@ -93,8 +92,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="m/yyyy"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -104,6 +106,23 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEA4335"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -126,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,11 +183,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -182,6 +216,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1343,32 +1392,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G520"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G656"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="E653" sqref="E653"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.296875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="12" width="8.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.296875" style="1" customWidth="1"/>
     <col min="14" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="19" width="8.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="8.796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.19921875" style="1" customWidth="1"/>
     <col min="21" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="26" width="8.83203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" style="1" customWidth="1"/>
+    <col min="24" max="26" width="8.796875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.296875" style="1" customWidth="1"/>
     <col min="28" max="30" width="9" style="1" customWidth="1"/>
-    <col min="31" max="32" width="8.83203125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.796875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.296875" style="1" customWidth="1"/>
     <col min="34" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.83203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.83203125" style="1"/>
+    <col min="37" max="37" width="8.796875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1385,7 +1436,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1">
+    <row r="2" spans="1:7" ht="16.05" customHeight="1">
       <c r="A2" s="5">
         <v>43831</v>
       </c>
@@ -1402,7 +1453,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1">
+    <row r="3" spans="1:7" ht="16.05" customHeight="1">
       <c r="A3" s="5">
         <v>43832</v>
       </c>
@@ -1419,7 +1470,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1">
+    <row r="4" spans="1:7" ht="16.05" customHeight="1">
       <c r="A4" s="5">
         <v>43833</v>
       </c>
@@ -1436,7 +1487,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1">
+    <row r="5" spans="1:7" ht="16.05" customHeight="1">
       <c r="A5" s="5">
         <v>43834</v>
       </c>
@@ -1453,7 +1504,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1">
+    <row r="6" spans="1:7" ht="16.05" customHeight="1">
       <c r="A6" s="5">
         <v>43835</v>
       </c>
@@ -1470,7 +1521,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1">
+    <row r="7" spans="1:7" ht="16.05" customHeight="1">
       <c r="A7" s="5">
         <v>43836</v>
       </c>
@@ -1487,7 +1538,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1">
+    <row r="8" spans="1:7" ht="16.05" customHeight="1">
       <c r="A8" s="5">
         <v>43837</v>
       </c>
@@ -1504,7 +1555,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1">
+    <row r="9" spans="1:7" ht="16.05" customHeight="1">
       <c r="A9" s="5">
         <v>43838</v>
       </c>
@@ -1521,7 +1572,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1">
+    <row r="10" spans="1:7" ht="16.05" customHeight="1">
       <c r="A10" s="5">
         <v>43839</v>
       </c>
@@ -1538,7 +1589,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1">
+    <row r="11" spans="1:7" ht="16.05" customHeight="1">
       <c r="A11" s="5">
         <v>43840</v>
       </c>
@@ -1555,7 +1606,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1">
+    <row r="12" spans="1:7" ht="16.05" customHeight="1">
       <c r="A12" s="5">
         <v>43841</v>
       </c>
@@ -1572,7 +1623,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1">
       <c r="A13" s="5">
         <v>43842</v>
       </c>
@@ -1589,7 +1640,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1">
       <c r="A14" s="5">
         <v>43843</v>
       </c>
@@ -1606,7 +1657,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1">
       <c r="A15" s="5">
         <v>43844</v>
       </c>
@@ -1623,7 +1674,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1">
+    <row r="16" spans="1:7" ht="16.05" customHeight="1">
       <c r="A16" s="5">
         <v>43845</v>
       </c>
@@ -1640,7 +1691,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1">
+    <row r="17" spans="1:7" ht="16.05" customHeight="1">
       <c r="A17" s="5">
         <v>43846</v>
       </c>
@@ -1657,7 +1708,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1">
       <c r="A18" s="5">
         <v>43847</v>
       </c>
@@ -1674,7 +1725,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1">
+    <row r="19" spans="1:7" ht="16.05" customHeight="1">
       <c r="A19" s="5">
         <v>43848</v>
       </c>
@@ -1691,7 +1742,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1">
       <c r="A20" s="5">
         <v>43849</v>
       </c>
@@ -1708,7 +1759,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1">
       <c r="A21" s="5">
         <v>43850</v>
       </c>
@@ -1725,7 +1776,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1">
       <c r="A22" s="5">
         <v>43851</v>
       </c>
@@ -1742,7 +1793,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1">
       <c r="A23" s="5">
         <v>43852</v>
       </c>
@@ -1759,7 +1810,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1">
       <c r="A24" s="5">
         <v>43853</v>
       </c>
@@ -1776,7 +1827,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1">
+    <row r="25" spans="1:7" ht="16.05" customHeight="1">
       <c r="A25" s="5">
         <v>43854</v>
       </c>
@@ -1793,7 +1844,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1">
+    <row r="26" spans="1:7" ht="16.05" customHeight="1">
       <c r="A26" s="5">
         <v>43855</v>
       </c>
@@ -1810,7 +1861,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1">
+    <row r="27" spans="1:7" ht="16.05" customHeight="1">
       <c r="A27" s="5">
         <v>43856</v>
       </c>
@@ -1827,7 +1878,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1">
+    <row r="28" spans="1:7" ht="16.05" customHeight="1">
       <c r="A28" s="5">
         <v>43857</v>
       </c>
@@ -1844,7 +1895,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1">
+    <row r="29" spans="1:7" ht="16.05" customHeight="1">
       <c r="A29" s="5">
         <v>43858</v>
       </c>
@@ -1861,7 +1912,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1">
+    <row r="30" spans="1:7" ht="16.05" customHeight="1">
       <c r="A30" s="5">
         <v>43859</v>
       </c>
@@ -1878,7 +1929,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1">
+    <row r="31" spans="1:7" ht="16.05" customHeight="1">
       <c r="A31" s="5">
         <v>43860</v>
       </c>
@@ -1895,7 +1946,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1">
+    <row r="32" spans="1:7" ht="16.05" customHeight="1">
       <c r="A32" s="5">
         <v>43861</v>
       </c>
@@ -1912,7 +1963,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1">
+    <row r="33" spans="1:7" ht="16.05" customHeight="1">
       <c r="A33" s="5">
         <v>43862</v>
       </c>
@@ -1929,7 +1980,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1">
+    <row r="34" spans="1:7" ht="16.05" customHeight="1">
       <c r="A34" s="5">
         <v>43863</v>
       </c>
@@ -1946,7 +1997,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1">
+    <row r="35" spans="1:7" ht="16.05" customHeight="1">
       <c r="A35" s="5">
         <v>43864</v>
       </c>
@@ -1963,7 +2014,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1">
+    <row r="36" spans="1:7" ht="16.05" customHeight="1">
       <c r="A36" s="5">
         <v>43865</v>
       </c>
@@ -1980,7 +2031,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1">
+    <row r="37" spans="1:7" ht="16.05" customHeight="1">
       <c r="A37" s="5">
         <v>43866</v>
       </c>
@@ -1997,7 +2048,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1">
+    <row r="38" spans="1:7" ht="16.05" customHeight="1">
       <c r="A38" s="5">
         <v>43867</v>
       </c>
@@ -2014,7 +2065,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1">
+    <row r="39" spans="1:7" ht="16.05" customHeight="1">
       <c r="A39" s="5">
         <v>43868</v>
       </c>
@@ -2031,7 +2082,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16" customHeight="1">
+    <row r="40" spans="1:7" ht="16.05" customHeight="1">
       <c r="A40" s="5">
         <v>43869</v>
       </c>
@@ -2048,7 +2099,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1">
+    <row r="41" spans="1:7" ht="16.05" customHeight="1">
       <c r="A41" s="5">
         <v>43870</v>
       </c>
@@ -2065,7 +2116,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="16" customHeight="1">
+    <row r="42" spans="1:7" ht="16.05" customHeight="1">
       <c r="A42" s="5">
         <v>43871</v>
       </c>
@@ -2082,7 +2133,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1">
+    <row r="43" spans="1:7" ht="16.05" customHeight="1">
       <c r="A43" s="5">
         <v>43872</v>
       </c>
@@ -2099,7 +2150,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="16" customHeight="1">
+    <row r="44" spans="1:7" ht="16.05" customHeight="1">
       <c r="A44" s="5">
         <v>43873</v>
       </c>
@@ -2116,7 +2167,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1">
+    <row r="45" spans="1:7" ht="16.05" customHeight="1">
       <c r="A45" s="5">
         <v>43874</v>
       </c>
@@ -2133,7 +2184,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="16" customHeight="1">
+    <row r="46" spans="1:7" ht="16.05" customHeight="1">
       <c r="A46" s="5">
         <v>43875</v>
       </c>
@@ -2150,7 +2201,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="16" customHeight="1">
+    <row r="47" spans="1:7" ht="16.05" customHeight="1">
       <c r="A47" s="5">
         <v>43876</v>
       </c>
@@ -2167,7 +2218,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="16" customHeight="1">
+    <row r="48" spans="1:7" ht="16.05" customHeight="1">
       <c r="A48" s="5">
         <v>43877</v>
       </c>
@@ -2184,7 +2235,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="16" customHeight="1">
+    <row r="49" spans="1:7" ht="16.05" customHeight="1">
       <c r="A49" s="5">
         <v>43878</v>
       </c>
@@ -2201,7 +2252,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="16" customHeight="1">
+    <row r="50" spans="1:7" ht="16.05" customHeight="1">
       <c r="A50" s="5">
         <v>43879</v>
       </c>
@@ -2218,7 +2269,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="16" customHeight="1">
+    <row r="51" spans="1:7" ht="16.05" customHeight="1">
       <c r="A51" s="5">
         <v>43880</v>
       </c>
@@ -2235,7 +2286,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="16" customHeight="1">
+    <row r="52" spans="1:7" ht="16.05" customHeight="1">
       <c r="A52" s="5">
         <v>43881</v>
       </c>
@@ -2252,7 +2303,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1">
+    <row r="53" spans="1:7" ht="16.05" customHeight="1">
       <c r="A53" s="5">
         <v>43882</v>
       </c>
@@ -2269,7 +2320,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="16" customHeight="1">
+    <row r="54" spans="1:7" ht="16.05" customHeight="1">
       <c r="A54" s="5">
         <v>43883</v>
       </c>
@@ -2286,7 +2337,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="16" customHeight="1">
+    <row r="55" spans="1:7" ht="16.05" customHeight="1">
       <c r="A55" s="5">
         <v>43884</v>
       </c>
@@ -2303,7 +2354,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="16" customHeight="1">
+    <row r="56" spans="1:7" ht="16.05" customHeight="1">
       <c r="A56" s="5">
         <v>43885</v>
       </c>
@@ -2320,7 +2371,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="16" customHeight="1">
+    <row r="57" spans="1:7" ht="16.05" customHeight="1">
       <c r="A57" s="5">
         <v>43886</v>
       </c>
@@ -2337,7 +2388,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="16" customHeight="1">
+    <row r="58" spans="1:7" ht="16.05" customHeight="1">
       <c r="A58" s="5">
         <v>43887</v>
       </c>
@@ -2354,7 +2405,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="16" customHeight="1">
+    <row r="59" spans="1:7" ht="16.05" customHeight="1">
       <c r="A59" s="5">
         <v>43888</v>
       </c>
@@ -2371,7 +2422,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="16" customHeight="1">
+    <row r="60" spans="1:7" ht="16.05" customHeight="1">
       <c r="A60" s="5">
         <v>43889</v>
       </c>
@@ -2388,7 +2439,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="16" customHeight="1">
+    <row r="61" spans="1:7" ht="16.05" customHeight="1">
       <c r="A61" s="5">
         <v>43890</v>
       </c>
@@ -2405,7 +2456,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" ht="16" customHeight="1">
+    <row r="62" spans="1:7" ht="16.05" customHeight="1">
       <c r="A62" s="5">
         <v>43891</v>
       </c>
@@ -2422,7 +2473,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" ht="16" customHeight="1">
+    <row r="63" spans="1:7" ht="16.05" customHeight="1">
       <c r="A63" s="5">
         <v>43892</v>
       </c>
@@ -2439,7 +2490,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" ht="16" customHeight="1">
+    <row r="64" spans="1:7" ht="16.05" customHeight="1">
       <c r="A64" s="5">
         <v>43893</v>
       </c>
@@ -2456,7 +2507,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="16" customHeight="1">
+    <row r="65" spans="1:7" ht="16.05" customHeight="1">
       <c r="A65" s="5">
         <v>43894</v>
       </c>
@@ -2473,7 +2524,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="16" customHeight="1">
+    <row r="66" spans="1:7" ht="16.05" customHeight="1">
       <c r="A66" s="5">
         <v>43895</v>
       </c>
@@ -2490,7 +2541,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" ht="16" customHeight="1">
+    <row r="67" spans="1:7" ht="16.05" customHeight="1">
       <c r="A67" s="5">
         <v>43896</v>
       </c>
@@ -2507,7 +2558,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="16" customHeight="1">
+    <row r="68" spans="1:7" ht="16.05" customHeight="1">
       <c r="A68" s="5">
         <v>43897</v>
       </c>
@@ -2524,7 +2575,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="16" customHeight="1">
+    <row r="69" spans="1:7" ht="16.05" customHeight="1">
       <c r="A69" s="5">
         <v>43898</v>
       </c>
@@ -2541,7 +2592,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="16" customHeight="1">
+    <row r="70" spans="1:7" ht="16.05" customHeight="1">
       <c r="A70" s="5">
         <v>43899</v>
       </c>
@@ -2558,7 +2609,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="16" customHeight="1">
+    <row r="71" spans="1:7" ht="16.05" customHeight="1">
       <c r="A71" s="5">
         <v>43900</v>
       </c>
@@ -2575,7 +2626,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="16" customHeight="1">
+    <row r="72" spans="1:7" ht="16.05" customHeight="1">
       <c r="A72" s="5">
         <v>43901</v>
       </c>
@@ -2592,7 +2643,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="16" customHeight="1">
+    <row r="73" spans="1:7" ht="16.05" customHeight="1">
       <c r="A73" s="5">
         <v>43902</v>
       </c>
@@ -2609,7 +2660,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="16" customHeight="1">
+    <row r="74" spans="1:7" ht="16.05" customHeight="1">
       <c r="A74" s="5">
         <v>43903</v>
       </c>
@@ -2626,7 +2677,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="16" customHeight="1">
+    <row r="75" spans="1:7" ht="16.05" customHeight="1">
       <c r="A75" s="5">
         <v>43904</v>
       </c>
@@ -2643,7 +2694,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="16" customHeight="1">
+    <row r="76" spans="1:7" ht="16.05" customHeight="1">
       <c r="A76" s="5">
         <v>43905</v>
       </c>
@@ -2660,7 +2711,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" ht="16" customHeight="1">
+    <row r="77" spans="1:7" ht="16.05" customHeight="1">
       <c r="A77" s="5">
         <v>43906</v>
       </c>
@@ -2677,7 +2728,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="16" customHeight="1">
+    <row r="78" spans="1:7" ht="16.05" customHeight="1">
       <c r="A78" s="5">
         <v>43907</v>
       </c>
@@ -2694,7 +2745,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="16" customHeight="1">
+    <row r="79" spans="1:7" ht="16.05" customHeight="1">
       <c r="A79" s="5">
         <v>43908</v>
       </c>
@@ -2711,7 +2762,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="16" customHeight="1">
+    <row r="80" spans="1:7" ht="16.05" customHeight="1">
       <c r="A80" s="5">
         <v>43909</v>
       </c>
@@ -2728,7 +2779,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="16" customHeight="1">
+    <row r="81" spans="1:7" ht="16.05" customHeight="1">
       <c r="A81" s="5">
         <v>43910</v>
       </c>
@@ -2745,7 +2796,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="16" customHeight="1">
+    <row r="82" spans="1:7" ht="16.05" customHeight="1">
       <c r="A82" s="5">
         <v>43911</v>
       </c>
@@ -2762,7 +2813,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="16" customHeight="1">
+    <row r="83" spans="1:7" ht="16.05" customHeight="1">
       <c r="A83" s="5">
         <v>43912</v>
       </c>
@@ -2779,7 +2830,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="16" customHeight="1">
+    <row r="84" spans="1:7" ht="16.05" customHeight="1">
       <c r="A84" s="5">
         <v>43913</v>
       </c>
@@ -2796,7 +2847,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="16" customHeight="1">
+    <row r="85" spans="1:7" ht="16.05" customHeight="1">
       <c r="A85" s="5">
         <v>43914</v>
       </c>
@@ -2813,7 +2864,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="16" customHeight="1">
+    <row r="86" spans="1:7" ht="16.05" customHeight="1">
       <c r="A86" s="5">
         <v>43915</v>
       </c>
@@ -2830,7 +2881,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="16" customHeight="1">
+    <row r="87" spans="1:7" ht="16.05" customHeight="1">
       <c r="A87" s="5">
         <v>43916</v>
       </c>
@@ -2847,7 +2898,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="16" customHeight="1">
+    <row r="88" spans="1:7" ht="16.05" customHeight="1">
       <c r="A88" s="5">
         <v>43917</v>
       </c>
@@ -2864,7 +2915,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="16" customHeight="1">
+    <row r="89" spans="1:7" ht="16.05" customHeight="1">
       <c r="A89" s="5">
         <v>43918</v>
       </c>
@@ -2881,7 +2932,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="16" customHeight="1">
+    <row r="90" spans="1:7" ht="16.05" customHeight="1">
       <c r="A90" s="5">
         <v>43919</v>
       </c>
@@ -2898,7 +2949,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="16" customHeight="1">
+    <row r="91" spans="1:7" ht="16.05" customHeight="1">
       <c r="A91" s="5">
         <v>43920</v>
       </c>
@@ -2915,7 +2966,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="16" customHeight="1">
+    <row r="92" spans="1:7" ht="16.05" customHeight="1">
       <c r="A92" s="5">
         <v>43921</v>
       </c>
@@ -2932,7 +2983,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="16" customHeight="1">
+    <row r="93" spans="1:7" ht="16.05" customHeight="1">
       <c r="A93" s="5">
         <v>43922</v>
       </c>
@@ -2949,7 +3000,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="16" customHeight="1">
+    <row r="94" spans="1:7" ht="16.05" customHeight="1">
       <c r="A94" s="5">
         <v>43923</v>
       </c>
@@ -2966,7 +3017,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="16" customHeight="1">
+    <row r="95" spans="1:7" ht="16.05" customHeight="1">
       <c r="A95" s="5">
         <v>43924</v>
       </c>
@@ -2983,7 +3034,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" ht="16" customHeight="1">
+    <row r="96" spans="1:7" ht="16.05" customHeight="1">
       <c r="A96" s="5">
         <v>43925</v>
       </c>
@@ -3000,7 +3051,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" ht="16" customHeight="1">
+    <row r="97" spans="1:7" ht="16.05" customHeight="1">
       <c r="A97" s="5">
         <v>43926</v>
       </c>
@@ -3017,7 +3068,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" ht="16" customHeight="1">
+    <row r="98" spans="1:7" ht="16.05" customHeight="1">
       <c r="A98" s="5">
         <v>43927</v>
       </c>
@@ -3034,7 +3085,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" ht="16" customHeight="1">
+    <row r="99" spans="1:7" ht="16.05" customHeight="1">
       <c r="A99" s="5">
         <v>43928</v>
       </c>
@@ -3051,7 +3102,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" ht="16" customHeight="1">
+    <row r="100" spans="1:7" ht="16.05" customHeight="1">
       <c r="A100" s="5">
         <v>43929</v>
       </c>
@@ -3068,7 +3119,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" ht="16" customHeight="1">
+    <row r="101" spans="1:7" ht="16.05" customHeight="1">
       <c r="A101" s="5">
         <v>43930</v>
       </c>
@@ -3085,7 +3136,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="16" customHeight="1">
+    <row r="102" spans="1:7" ht="16.05" customHeight="1">
       <c r="A102" s="5">
         <v>43931</v>
       </c>
@@ -3102,7 +3153,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" ht="16" customHeight="1">
+    <row r="103" spans="1:7" ht="16.05" customHeight="1">
       <c r="A103" s="5">
         <v>43932</v>
       </c>
@@ -3119,7 +3170,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" ht="16" customHeight="1">
+    <row r="104" spans="1:7" ht="16.05" customHeight="1">
       <c r="A104" s="5">
         <v>43933</v>
       </c>
@@ -3136,7 +3187,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" ht="16" customHeight="1">
+    <row r="105" spans="1:7" ht="16.05" customHeight="1">
       <c r="A105" s="5">
         <v>43934</v>
       </c>
@@ -3153,7 +3204,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" ht="16" customHeight="1">
+    <row r="106" spans="1:7" ht="16.05" customHeight="1">
       <c r="A106" s="5">
         <v>43935</v>
       </c>
@@ -3170,7 +3221,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" ht="16" customHeight="1">
+    <row r="107" spans="1:7" ht="16.05" customHeight="1">
       <c r="A107" s="5">
         <v>43936</v>
       </c>
@@ -3187,7 +3238,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" ht="16" customHeight="1">
+    <row r="108" spans="1:7" ht="16.05" customHeight="1">
       <c r="A108" s="5">
         <v>43937</v>
       </c>
@@ -3204,7 +3255,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" ht="16" customHeight="1">
+    <row r="109" spans="1:7" ht="16.05" customHeight="1">
       <c r="A109" s="5">
         <v>43938</v>
       </c>
@@ -3221,7 +3272,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" ht="16" customHeight="1">
+    <row r="110" spans="1:7" ht="16.05" customHeight="1">
       <c r="A110" s="5">
         <v>43939</v>
       </c>
@@ -3238,7 +3289,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" ht="16" customHeight="1">
+    <row r="111" spans="1:7" ht="16.05" customHeight="1">
       <c r="A111" s="5">
         <v>43940</v>
       </c>
@@ -3255,7 +3306,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" ht="16" customHeight="1">
+    <row r="112" spans="1:7" ht="16.05" customHeight="1">
       <c r="A112" s="5">
         <v>43941</v>
       </c>
@@ -3272,7 +3323,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" ht="16" customHeight="1">
+    <row r="113" spans="1:7" ht="16.05" customHeight="1">
       <c r="A113" s="5">
         <v>43942</v>
       </c>
@@ -3289,7 +3340,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" ht="16" customHeight="1">
+    <row r="114" spans="1:7" ht="16.05" customHeight="1">
       <c r="A114" s="5">
         <v>43943</v>
       </c>
@@ -3306,7 +3357,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" ht="16" customHeight="1">
+    <row r="115" spans="1:7" ht="16.05" customHeight="1">
       <c r="A115" s="5">
         <v>43944</v>
       </c>
@@ -3323,7 +3374,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" ht="16" customHeight="1">
+    <row r="116" spans="1:7" ht="16.05" customHeight="1">
       <c r="A116" s="5">
         <v>43945</v>
       </c>
@@ -3340,7 +3391,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" ht="16" customHeight="1">
+    <row r="117" spans="1:7" ht="16.05" customHeight="1">
       <c r="A117" s="5">
         <v>43946</v>
       </c>
@@ -3357,7 +3408,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" ht="16" customHeight="1">
+    <row r="118" spans="1:7" ht="16.05" customHeight="1">
       <c r="A118" s="5">
         <v>43947</v>
       </c>
@@ -3374,7 +3425,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" ht="16" customHeight="1">
+    <row r="119" spans="1:7" ht="16.05" customHeight="1">
       <c r="A119" s="5">
         <v>43948</v>
       </c>
@@ -3391,7 +3442,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" ht="16" customHeight="1">
+    <row r="120" spans="1:7" ht="16.05" customHeight="1">
       <c r="A120" s="5">
         <v>43949</v>
       </c>
@@ -3408,7 +3459,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" ht="16" customHeight="1">
+    <row r="121" spans="1:7" ht="16.05" customHeight="1">
       <c r="A121" s="5">
         <v>43950</v>
       </c>
@@ -3425,7 +3476,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" ht="16" customHeight="1">
+    <row r="122" spans="1:7" ht="16.05" customHeight="1">
       <c r="A122" s="5">
         <v>43951</v>
       </c>
@@ -3442,7 +3493,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" ht="16" customHeight="1">
+    <row r="123" spans="1:7" ht="16.05" customHeight="1">
       <c r="A123" s="5">
         <v>43952</v>
       </c>
@@ -3459,7 +3510,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" ht="16" customHeight="1">
+    <row r="124" spans="1:7" ht="16.05" customHeight="1">
       <c r="A124" s="5">
         <v>43953</v>
       </c>
@@ -3476,7 +3527,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" ht="16" customHeight="1">
+    <row r="125" spans="1:7" ht="16.05" customHeight="1">
       <c r="A125" s="5">
         <v>43954</v>
       </c>
@@ -3493,7 +3544,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" ht="16" customHeight="1">
+    <row r="126" spans="1:7" ht="16.05" customHeight="1">
       <c r="A126" s="5">
         <v>43955</v>
       </c>
@@ -3510,7 +3561,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" ht="16" customHeight="1">
+    <row r="127" spans="1:7" ht="16.05" customHeight="1">
       <c r="A127" s="5">
         <v>43956</v>
       </c>
@@ -3527,7 +3578,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" ht="16" customHeight="1">
+    <row r="128" spans="1:7" ht="16.05" customHeight="1">
       <c r="A128" s="5">
         <v>43957</v>
       </c>
@@ -3544,7 +3595,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" ht="16" customHeight="1">
+    <row r="129" spans="1:7" ht="16.05" customHeight="1">
       <c r="A129" s="5">
         <v>43958</v>
       </c>
@@ -3561,7 +3612,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" ht="16" customHeight="1">
+    <row r="130" spans="1:7" ht="16.05" customHeight="1">
       <c r="A130" s="5">
         <v>43959</v>
       </c>
@@ -3578,7 +3629,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" ht="16" customHeight="1">
+    <row r="131" spans="1:7" ht="16.05" customHeight="1">
       <c r="A131" s="5">
         <v>43960</v>
       </c>
@@ -3595,7 +3646,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" ht="16" customHeight="1">
+    <row r="132" spans="1:7" ht="16.05" customHeight="1">
       <c r="A132" s="5">
         <v>43961</v>
       </c>
@@ -3612,7 +3663,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" ht="16" customHeight="1">
+    <row r="133" spans="1:7" ht="16.05" customHeight="1">
       <c r="A133" s="5">
         <v>43962</v>
       </c>
@@ -3629,7 +3680,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" ht="16" customHeight="1">
+    <row r="134" spans="1:7" ht="16.05" customHeight="1">
       <c r="A134" s="5">
         <v>43963</v>
       </c>
@@ -3646,7 +3697,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" ht="16" customHeight="1">
+    <row r="135" spans="1:7" ht="16.05" customHeight="1">
       <c r="A135" s="5">
         <v>43964</v>
       </c>
@@ -3663,7 +3714,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" ht="16" customHeight="1">
+    <row r="136" spans="1:7" ht="16.05" customHeight="1">
       <c r="A136" s="5">
         <v>43965</v>
       </c>
@@ -3680,7 +3731,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" ht="16" customHeight="1">
+    <row r="137" spans="1:7" ht="16.05" customHeight="1">
       <c r="A137" s="5">
         <v>43966</v>
       </c>
@@ -3697,7 +3748,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" ht="16" customHeight="1">
+    <row r="138" spans="1:7" ht="16.05" customHeight="1">
       <c r="A138" s="5">
         <v>43967</v>
       </c>
@@ -3714,7 +3765,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" ht="16" customHeight="1">
+    <row r="139" spans="1:7" ht="16.05" customHeight="1">
       <c r="A139" s="5">
         <v>43968</v>
       </c>
@@ -3731,7 +3782,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" ht="16" customHeight="1">
+    <row r="140" spans="1:7" ht="16.05" customHeight="1">
       <c r="A140" s="5">
         <v>43969</v>
       </c>
@@ -3748,7 +3799,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" ht="16" customHeight="1">
+    <row r="141" spans="1:7" ht="16.05" customHeight="1">
       <c r="A141" s="5">
         <v>43970</v>
       </c>
@@ -3765,7 +3816,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" ht="16" customHeight="1">
+    <row r="142" spans="1:7" ht="16.05" customHeight="1">
       <c r="A142" s="5">
         <v>43971</v>
       </c>
@@ -3782,7 +3833,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" ht="16" customHeight="1">
+    <row r="143" spans="1:7" ht="16.05" customHeight="1">
       <c r="A143" s="5">
         <v>43972</v>
       </c>
@@ -3799,7 +3850,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" ht="16" customHeight="1">
+    <row r="144" spans="1:7" ht="16.05" customHeight="1">
       <c r="A144" s="5">
         <v>43973</v>
       </c>
@@ -3816,7 +3867,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" ht="16" customHeight="1">
+    <row r="145" spans="1:7" ht="16.05" customHeight="1">
       <c r="A145" s="5">
         <v>43974</v>
       </c>
@@ -3833,7 +3884,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" ht="16" customHeight="1">
+    <row r="146" spans="1:7" ht="16.05" customHeight="1">
       <c r="A146" s="5">
         <v>43975</v>
       </c>
@@ -3850,7 +3901,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" ht="16" customHeight="1">
+    <row r="147" spans="1:7" ht="16.05" customHeight="1">
       <c r="A147" s="5">
         <v>43976</v>
       </c>
@@ -3867,7 +3918,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" ht="16" customHeight="1">
+    <row r="148" spans="1:7" ht="16.05" customHeight="1">
       <c r="A148" s="5">
         <v>43977</v>
       </c>
@@ -3884,7 +3935,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" ht="16" customHeight="1">
+    <row r="149" spans="1:7" ht="16.05" customHeight="1">
       <c r="A149" s="5">
         <v>43978</v>
       </c>
@@ -3901,7 +3952,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" ht="16" customHeight="1">
+    <row r="150" spans="1:7" ht="16.05" customHeight="1">
       <c r="A150" s="5">
         <v>43979</v>
       </c>
@@ -3918,7 +3969,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" ht="16" customHeight="1">
+    <row r="151" spans="1:7" ht="16.05" customHeight="1">
       <c r="A151" s="5">
         <v>43980</v>
       </c>
@@ -3935,7 +3986,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" ht="16" customHeight="1">
+    <row r="152" spans="1:7" ht="16.05" customHeight="1">
       <c r="A152" s="5">
         <v>43981</v>
       </c>
@@ -3952,7 +4003,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" ht="16" customHeight="1">
+    <row r="153" spans="1:7" ht="16.05" customHeight="1">
       <c r="A153" s="5">
         <v>43982</v>
       </c>
@@ -3969,7 +4020,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" ht="16" customHeight="1">
+    <row r="154" spans="1:7" ht="16.05" customHeight="1">
       <c r="A154" s="5">
         <v>43983</v>
       </c>
@@ -3986,7 +4037,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" ht="16" customHeight="1">
+    <row r="155" spans="1:7" ht="16.05" customHeight="1">
       <c r="A155" s="5">
         <v>43984</v>
       </c>
@@ -4003,7 +4054,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" ht="16" customHeight="1">
+    <row r="156" spans="1:7" ht="16.05" customHeight="1">
       <c r="A156" s="5">
         <v>43985</v>
       </c>
@@ -4020,7 +4071,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" ht="16" customHeight="1">
+    <row r="157" spans="1:7" ht="16.05" customHeight="1">
       <c r="A157" s="5">
         <v>43986</v>
       </c>
@@ -4037,7 +4088,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" ht="16" customHeight="1">
+    <row r="158" spans="1:7" ht="16.05" customHeight="1">
       <c r="A158" s="5">
         <v>43987</v>
       </c>
@@ -4054,7 +4105,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" ht="16" customHeight="1">
+    <row r="159" spans="1:7" ht="16.05" customHeight="1">
       <c r="A159" s="5">
         <v>43988</v>
       </c>
@@ -4071,7 +4122,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" ht="16" customHeight="1">
+    <row r="160" spans="1:7" ht="16.05" customHeight="1">
       <c r="A160" s="5">
         <v>43989</v>
       </c>
@@ -4088,7 +4139,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" ht="16" customHeight="1">
+    <row r="161" spans="1:7" ht="16.05" customHeight="1">
       <c r="A161" s="5">
         <v>43990</v>
       </c>
@@ -4105,7 +4156,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" ht="16" customHeight="1">
+    <row r="162" spans="1:7" ht="16.05" customHeight="1">
       <c r="A162" s="5">
         <v>43991</v>
       </c>
@@ -4122,7 +4173,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" ht="16" customHeight="1">
+    <row r="163" spans="1:7" ht="16.05" customHeight="1">
       <c r="A163" s="5">
         <v>43992</v>
       </c>
@@ -4139,7 +4190,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" ht="16" customHeight="1">
+    <row r="164" spans="1:7" ht="16.05" customHeight="1">
       <c r="A164" s="5">
         <v>43993</v>
       </c>
@@ -4156,7 +4207,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" ht="16" customHeight="1">
+    <row r="165" spans="1:7" ht="16.05" customHeight="1">
       <c r="A165" s="5">
         <v>43994</v>
       </c>
@@ -4173,7 +4224,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" ht="16" customHeight="1">
+    <row r="166" spans="1:7" ht="16.05" customHeight="1">
       <c r="A166" s="5">
         <v>43995</v>
       </c>
@@ -4190,7 +4241,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" ht="16" customHeight="1">
+    <row r="167" spans="1:7" ht="16.05" customHeight="1">
       <c r="A167" s="5">
         <v>43996</v>
       </c>
@@ -4207,7 +4258,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" ht="16" customHeight="1">
+    <row r="168" spans="1:7" ht="16.05" customHeight="1">
       <c r="A168" s="5">
         <v>43997</v>
       </c>
@@ -4224,7 +4275,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" ht="16" customHeight="1">
+    <row r="169" spans="1:7" ht="16.05" customHeight="1">
       <c r="A169" s="5">
         <v>43998</v>
       </c>
@@ -4241,7 +4292,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" ht="16" customHeight="1">
+    <row r="170" spans="1:7" ht="16.05" customHeight="1">
       <c r="A170" s="5">
         <v>43999</v>
       </c>
@@ -4258,7 +4309,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" ht="16" customHeight="1">
+    <row r="171" spans="1:7" ht="16.05" customHeight="1">
       <c r="A171" s="5">
         <v>44000</v>
       </c>
@@ -4275,7 +4326,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" ht="16" customHeight="1">
+    <row r="172" spans="1:7" ht="16.05" customHeight="1">
       <c r="A172" s="5">
         <v>44001</v>
       </c>
@@ -4292,7 +4343,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" ht="16" customHeight="1">
+    <row r="173" spans="1:7" ht="16.05" customHeight="1">
       <c r="A173" s="5">
         <v>44002</v>
       </c>
@@ -4309,7 +4360,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" ht="16" customHeight="1">
+    <row r="174" spans="1:7" ht="16.05" customHeight="1">
       <c r="A174" s="5">
         <v>44003</v>
       </c>
@@ -4326,7 +4377,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" ht="16" customHeight="1">
+    <row r="175" spans="1:7" ht="16.05" customHeight="1">
       <c r="A175" s="5">
         <v>44004</v>
       </c>
@@ -4343,7 +4394,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" ht="16" customHeight="1">
+    <row r="176" spans="1:7" ht="16.05" customHeight="1">
       <c r="A176" s="5">
         <v>44005</v>
       </c>
@@ -4360,7 +4411,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" ht="16" customHeight="1">
+    <row r="177" spans="1:7" ht="16.05" customHeight="1">
       <c r="A177" s="5">
         <v>44006</v>
       </c>
@@ -4377,7 +4428,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" ht="16" customHeight="1">
+    <row r="178" spans="1:7" ht="16.05" customHeight="1">
       <c r="A178" s="5">
         <v>44007</v>
       </c>
@@ -4394,7 +4445,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" ht="16" customHeight="1">
+    <row r="179" spans="1:7" ht="16.05" customHeight="1">
       <c r="A179" s="5">
         <v>44008</v>
       </c>
@@ -4411,7 +4462,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" ht="16" customHeight="1">
+    <row r="180" spans="1:7" ht="16.05" customHeight="1">
       <c r="A180" s="5">
         <v>44009</v>
       </c>
@@ -4428,7 +4479,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" ht="16" customHeight="1">
+    <row r="181" spans="1:7" ht="16.05" customHeight="1">
       <c r="A181" s="5">
         <v>44010</v>
       </c>
@@ -4445,7 +4496,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" ht="16" customHeight="1">
+    <row r="182" spans="1:7" ht="16.05" customHeight="1">
       <c r="A182" s="5">
         <v>44011</v>
       </c>
@@ -4462,7 +4513,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" ht="16" customHeight="1">
+    <row r="183" spans="1:7" ht="16.05" customHeight="1">
       <c r="A183" s="5">
         <v>44012</v>
       </c>
@@ -4479,7 +4530,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" ht="16" customHeight="1">
+    <row r="184" spans="1:7" ht="16.05" customHeight="1">
       <c r="A184" s="5">
         <v>44013</v>
       </c>
@@ -4496,7 +4547,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" ht="16" customHeight="1">
+    <row r="185" spans="1:7" ht="16.05" customHeight="1">
       <c r="A185" s="5">
         <v>44014</v>
       </c>
@@ -4513,7 +4564,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" ht="16" customHeight="1">
+    <row r="186" spans="1:7" ht="16.05" customHeight="1">
       <c r="A186" s="5">
         <v>44015</v>
       </c>
@@ -4530,7 +4581,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" ht="16" customHeight="1">
+    <row r="187" spans="1:7" ht="16.05" customHeight="1">
       <c r="A187" s="5">
         <v>44016</v>
       </c>
@@ -4547,7 +4598,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" ht="16" customHeight="1">
+    <row r="188" spans="1:7" ht="16.05" customHeight="1">
       <c r="A188" s="5">
         <v>44017</v>
       </c>
@@ -4564,7 +4615,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" ht="16" customHeight="1">
+    <row r="189" spans="1:7" ht="16.05" customHeight="1">
       <c r="A189" s="5">
         <v>44018</v>
       </c>
@@ -4581,7 +4632,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" ht="16" customHeight="1">
+    <row r="190" spans="1:7" ht="16.05" customHeight="1">
       <c r="A190" s="5">
         <v>44019</v>
       </c>
@@ -4598,7 +4649,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" ht="16" customHeight="1">
+    <row r="191" spans="1:7" ht="16.05" customHeight="1">
       <c r="A191" s="5">
         <v>44020</v>
       </c>
@@ -4615,7 +4666,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" ht="16" customHeight="1">
+    <row r="192" spans="1:7" ht="16.05" customHeight="1">
       <c r="A192" s="5">
         <v>44021</v>
       </c>
@@ -4632,7 +4683,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" ht="16" customHeight="1">
+    <row r="193" spans="1:7" ht="16.05" customHeight="1">
       <c r="A193" s="5">
         <v>44022</v>
       </c>
@@ -4649,7 +4700,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" ht="16" customHeight="1">
+    <row r="194" spans="1:7" ht="16.05" customHeight="1">
       <c r="A194" s="5">
         <v>44023</v>
       </c>
@@ -4666,7 +4717,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" ht="16" customHeight="1">
+    <row r="195" spans="1:7" ht="16.05" customHeight="1">
       <c r="A195" s="5">
         <v>44024</v>
       </c>
@@ -4683,7 +4734,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" ht="16" customHeight="1">
+    <row r="196" spans="1:7" ht="16.05" customHeight="1">
       <c r="A196" s="5">
         <v>44025</v>
       </c>
@@ -4700,7 +4751,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" ht="16" customHeight="1">
+    <row r="197" spans="1:7" ht="16.05" customHeight="1">
       <c r="A197" s="5">
         <v>44026</v>
       </c>
@@ -4717,7 +4768,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" ht="16" customHeight="1">
+    <row r="198" spans="1:7" ht="16.05" customHeight="1">
       <c r="A198" s="5">
         <v>44027</v>
       </c>
@@ -4734,7 +4785,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" ht="16" customHeight="1">
+    <row r="199" spans="1:7" ht="16.05" customHeight="1">
       <c r="A199" s="5">
         <v>44028</v>
       </c>
@@ -4751,7 +4802,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" ht="16" customHeight="1">
+    <row r="200" spans="1:7" ht="16.05" customHeight="1">
       <c r="A200" s="5">
         <v>44029</v>
       </c>
@@ -4768,7 +4819,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" ht="16" customHeight="1">
+    <row r="201" spans="1:7" ht="16.05" customHeight="1">
       <c r="A201" s="5">
         <v>44030</v>
       </c>
@@ -4785,7 +4836,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" ht="16" customHeight="1">
+    <row r="202" spans="1:7" ht="16.05" customHeight="1">
       <c r="A202" s="5">
         <v>44031</v>
       </c>
@@ -4802,7 +4853,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" ht="16" customHeight="1">
+    <row r="203" spans="1:7" ht="16.05" customHeight="1">
       <c r="A203" s="5">
         <v>44032</v>
       </c>
@@ -4819,7 +4870,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" ht="16" customHeight="1">
+    <row r="204" spans="1:7" ht="16.05" customHeight="1">
       <c r="A204" s="5">
         <v>44033</v>
       </c>
@@ -4836,7 +4887,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" ht="16" customHeight="1">
+    <row r="205" spans="1:7" ht="16.05" customHeight="1">
       <c r="A205" s="5">
         <v>44034</v>
       </c>
@@ -4853,7 +4904,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7" ht="16" customHeight="1">
+    <row r="206" spans="1:7" ht="16.05" customHeight="1">
       <c r="A206" s="5">
         <v>44035</v>
       </c>
@@ -4870,7 +4921,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" ht="16" customHeight="1">
+    <row r="207" spans="1:7" ht="16.05" customHeight="1">
       <c r="A207" s="5">
         <v>44036</v>
       </c>
@@ -4887,7 +4938,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" ht="16" customHeight="1">
+    <row r="208" spans="1:7" ht="16.05" customHeight="1">
       <c r="A208" s="5">
         <v>44037</v>
       </c>
@@ -4904,7 +4955,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" ht="16" customHeight="1">
+    <row r="209" spans="1:7" ht="16.05" customHeight="1">
       <c r="A209" s="5">
         <v>44038</v>
       </c>
@@ -4921,7 +4972,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" ht="16" customHeight="1">
+    <row r="210" spans="1:7" ht="16.05" customHeight="1">
       <c r="A210" s="5">
         <v>44039</v>
       </c>
@@ -4938,7 +4989,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" ht="16" customHeight="1">
+    <row r="211" spans="1:7" ht="16.05" customHeight="1">
       <c r="A211" s="5">
         <v>44040</v>
       </c>
@@ -4955,7 +5006,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" ht="16" customHeight="1">
+    <row r="212" spans="1:7" ht="16.05" customHeight="1">
       <c r="A212" s="5">
         <v>44041</v>
       </c>
@@ -4972,7 +5023,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7" ht="16" customHeight="1">
+    <row r="213" spans="1:7" ht="16.05" customHeight="1">
       <c r="A213" s="5">
         <v>44042</v>
       </c>
@@ -4989,7 +5040,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" ht="16" customHeight="1">
+    <row r="214" spans="1:7" ht="16.05" customHeight="1">
       <c r="A214" s="5">
         <v>44043</v>
       </c>
@@ -5006,7 +5057,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" ht="16" customHeight="1">
+    <row r="215" spans="1:7" ht="16.05" customHeight="1">
       <c r="A215" s="5">
         <v>44044</v>
       </c>
@@ -5023,7 +5074,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" ht="16" customHeight="1">
+    <row r="216" spans="1:7" ht="16.05" customHeight="1">
       <c r="A216" s="5">
         <v>44045</v>
       </c>
@@ -5040,7 +5091,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" ht="16" customHeight="1">
+    <row r="217" spans="1:7" ht="16.05" customHeight="1">
       <c r="A217" s="5">
         <v>44046</v>
       </c>
@@ -5057,7 +5108,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" ht="16" customHeight="1">
+    <row r="218" spans="1:7" ht="16.05" customHeight="1">
       <c r="A218" s="5">
         <v>44047</v>
       </c>
@@ -5074,7 +5125,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" ht="16" customHeight="1">
+    <row r="219" spans="1:7" ht="16.05" customHeight="1">
       <c r="A219" s="5">
         <v>44048</v>
       </c>
@@ -5091,7 +5142,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" ht="16" customHeight="1">
+    <row r="220" spans="1:7" ht="16.05" customHeight="1">
       <c r="A220" s="5">
         <v>44049</v>
       </c>
@@ -5108,7 +5159,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7" ht="16" customHeight="1">
+    <row r="221" spans="1:7" ht="16.05" customHeight="1">
       <c r="A221" s="5">
         <v>44050</v>
       </c>
@@ -5125,7 +5176,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" ht="16" customHeight="1">
+    <row r="222" spans="1:7" ht="16.05" customHeight="1">
       <c r="A222" s="5">
         <v>44051</v>
       </c>
@@ -5142,7 +5193,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" ht="16" customHeight="1">
+    <row r="223" spans="1:7" ht="16.05" customHeight="1">
       <c r="A223" s="5">
         <v>44052</v>
       </c>
@@ -5159,7 +5210,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" ht="16" customHeight="1">
+    <row r="224" spans="1:7" ht="16.05" customHeight="1">
       <c r="A224" s="5">
         <v>44053</v>
       </c>
@@ -5176,7 +5227,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" ht="16" customHeight="1">
+    <row r="225" spans="1:7" ht="16.05" customHeight="1">
       <c r="A225" s="5">
         <v>44054</v>
       </c>
@@ -5193,7 +5244,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7" ht="16" customHeight="1">
+    <row r="226" spans="1:7" ht="16.05" customHeight="1">
       <c r="A226" s="5">
         <v>44055</v>
       </c>
@@ -5210,7 +5261,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" ht="16" customHeight="1">
+    <row r="227" spans="1:7" ht="16.05" customHeight="1">
       <c r="A227" s="5">
         <v>44056</v>
       </c>
@@ -5227,7 +5278,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7" ht="16" customHeight="1">
+    <row r="228" spans="1:7" ht="16.05" customHeight="1">
       <c r="A228" s="5">
         <v>44057</v>
       </c>
@@ -5244,7 +5295,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" ht="16" customHeight="1">
+    <row r="229" spans="1:7" ht="16.05" customHeight="1">
       <c r="A229" s="5">
         <v>44058</v>
       </c>
@@ -5261,7 +5312,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7" ht="16" customHeight="1">
+    <row r="230" spans="1:7" ht="16.05" customHeight="1">
       <c r="A230" s="5">
         <v>44059</v>
       </c>
@@ -5278,7 +5329,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" ht="16" customHeight="1">
+    <row r="231" spans="1:7" ht="16.05" customHeight="1">
       <c r="A231" s="5">
         <v>44060</v>
       </c>
@@ -5295,7 +5346,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7" ht="16" customHeight="1">
+    <row r="232" spans="1:7" ht="16.05" customHeight="1">
       <c r="A232" s="5">
         <v>44061</v>
       </c>
@@ -5312,7 +5363,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" ht="16" customHeight="1">
+    <row r="233" spans="1:7" ht="16.05" customHeight="1">
       <c r="A233" s="5">
         <v>44062</v>
       </c>
@@ -5329,7 +5380,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" ht="16" customHeight="1">
+    <row r="234" spans="1:7" ht="16.05" customHeight="1">
       <c r="A234" s="5">
         <v>44063</v>
       </c>
@@ -5346,7 +5397,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7" ht="16" customHeight="1">
+    <row r="235" spans="1:7" ht="16.05" customHeight="1">
       <c r="A235" s="5">
         <v>44064</v>
       </c>
@@ -5363,7 +5414,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7" ht="16" customHeight="1">
+    <row r="236" spans="1:7" ht="16.05" customHeight="1">
       <c r="A236" s="5">
         <v>44065</v>
       </c>
@@ -5380,7 +5431,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7" ht="16" customHeight="1">
+    <row r="237" spans="1:7" ht="16.05" customHeight="1">
       <c r="A237" s="5">
         <v>44066</v>
       </c>
@@ -5397,7 +5448,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" ht="16" customHeight="1">
+    <row r="238" spans="1:7" ht="16.05" customHeight="1">
       <c r="A238" s="5">
         <v>44067</v>
       </c>
@@ -5414,7 +5465,7 @@
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7" ht="16" customHeight="1">
+    <row r="239" spans="1:7" ht="16.05" customHeight="1">
       <c r="A239" s="5">
         <v>44068</v>
       </c>
@@ -5431,7 +5482,7 @@
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:7" ht="16" customHeight="1">
+    <row r="240" spans="1:7" ht="16.05" customHeight="1">
       <c r="A240" s="5">
         <v>44069</v>
       </c>
@@ -5448,7 +5499,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7" ht="16" customHeight="1">
+    <row r="241" spans="1:7" ht="16.05" customHeight="1">
       <c r="A241" s="5">
         <v>44070</v>
       </c>
@@ -5465,7 +5516,7 @@
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="1:7" ht="16" customHeight="1">
+    <row r="242" spans="1:7" ht="16.05" customHeight="1">
       <c r="A242" s="5">
         <v>44071</v>
       </c>
@@ -5482,7 +5533,7 @@
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="1:7" ht="16" customHeight="1">
+    <row r="243" spans="1:7" ht="16.05" customHeight="1">
       <c r="A243" s="5">
         <v>44072</v>
       </c>
@@ -5499,7 +5550,7 @@
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="1:7" ht="16" customHeight="1">
+    <row r="244" spans="1:7" ht="16.05" customHeight="1">
       <c r="A244" s="5">
         <v>44073</v>
       </c>
@@ -5516,7 +5567,7 @@
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="1:7" ht="16" customHeight="1">
+    <row r="245" spans="1:7" ht="16.05" customHeight="1">
       <c r="A245" s="5">
         <v>44074</v>
       </c>
@@ -5533,7 +5584,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7" ht="16" customHeight="1">
+    <row r="246" spans="1:7" ht="16.05" customHeight="1">
       <c r="A246" s="5">
         <v>44075</v>
       </c>
@@ -5550,7 +5601,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" ht="16" customHeight="1">
+    <row r="247" spans="1:7" ht="16.05" customHeight="1">
       <c r="A247" s="5">
         <v>44076</v>
       </c>
@@ -5567,7 +5618,7 @@
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7" ht="16" customHeight="1">
+    <row r="248" spans="1:7" ht="16.05" customHeight="1">
       <c r="A248" s="5">
         <v>44077</v>
       </c>
@@ -5584,7 +5635,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7" ht="16" customHeight="1">
+    <row r="249" spans="1:7" ht="16.05" customHeight="1">
       <c r="A249" s="5">
         <v>44078</v>
       </c>
@@ -5601,7 +5652,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7" ht="16" customHeight="1">
+    <row r="250" spans="1:7" ht="16.05" customHeight="1">
       <c r="A250" s="5">
         <v>44079</v>
       </c>
@@ -5618,7 +5669,7 @@
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="1:7" ht="16" customHeight="1">
+    <row r="251" spans="1:7" ht="16.05" customHeight="1">
       <c r="A251" s="5">
         <v>44080</v>
       </c>
@@ -5635,7 +5686,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="1:7" ht="16" customHeight="1">
+    <row r="252" spans="1:7" ht="16.05" customHeight="1">
       <c r="A252" s="5">
         <v>44081</v>
       </c>
@@ -5652,7 +5703,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="1:7" ht="16" customHeight="1">
+    <row r="253" spans="1:7" ht="16.05" customHeight="1">
       <c r="A253" s="5">
         <v>44082</v>
       </c>
@@ -5669,7 +5720,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="1:7" ht="16" customHeight="1">
+    <row r="254" spans="1:7" ht="16.05" customHeight="1">
       <c r="A254" s="5">
         <v>44083</v>
       </c>
@@ -5686,7 +5737,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="1:7" ht="16" customHeight="1">
+    <row r="255" spans="1:7" ht="16.05" customHeight="1">
       <c r="A255" s="5">
         <v>44084</v>
       </c>
@@ -5703,7 +5754,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7" ht="16" customHeight="1">
+    <row r="256" spans="1:7" ht="16.05" customHeight="1">
       <c r="A256" s="5">
         <v>44085</v>
       </c>
@@ -5720,7 +5771,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="16" customHeight="1">
+    <row r="257" spans="1:7" ht="16.05" customHeight="1">
       <c r="A257" s="5">
         <v>44086</v>
       </c>
@@ -5737,7 +5788,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" ht="16" customHeight="1">
+    <row r="258" spans="1:7" ht="16.05" customHeight="1">
       <c r="A258" s="5">
         <v>44087</v>
       </c>
@@ -5754,7 +5805,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7" ht="16" customHeight="1">
+    <row r="259" spans="1:7" ht="16.05" customHeight="1">
       <c r="A259" s="5">
         <v>44088</v>
       </c>
@@ -5771,7 +5822,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7" ht="16" customHeight="1">
+    <row r="260" spans="1:7" ht="16.05" customHeight="1">
       <c r="A260" s="5">
         <v>44089</v>
       </c>
@@ -5788,7 +5839,7 @@
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="1:7" ht="16" customHeight="1">
+    <row r="261" spans="1:7" ht="16.05" customHeight="1">
       <c r="A261" s="5">
         <v>44090</v>
       </c>
@@ -5805,7 +5856,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7" ht="16" customHeight="1">
+    <row r="262" spans="1:7" ht="16.05" customHeight="1">
       <c r="A262" s="5">
         <v>44091</v>
       </c>
@@ -5822,7 +5873,7 @@
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7" ht="16" customHeight="1">
+    <row r="263" spans="1:7" ht="16.05" customHeight="1">
       <c r="A263" s="5">
         <v>44092</v>
       </c>
@@ -5839,7 +5890,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7" ht="16" customHeight="1">
+    <row r="264" spans="1:7" ht="16.05" customHeight="1">
       <c r="A264" s="5">
         <v>44093</v>
       </c>
@@ -5856,7 +5907,7 @@
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7" ht="16" customHeight="1">
+    <row r="265" spans="1:7" ht="16.05" customHeight="1">
       <c r="A265" s="5">
         <v>44094</v>
       </c>
@@ -5873,7 +5924,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7" ht="16" customHeight="1">
+    <row r="266" spans="1:7" ht="16.05" customHeight="1">
       <c r="A266" s="5">
         <v>44095</v>
       </c>
@@ -5890,7 +5941,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7" ht="16" customHeight="1">
+    <row r="267" spans="1:7" ht="16.05" customHeight="1">
       <c r="A267" s="5">
         <v>44096</v>
       </c>
@@ -5907,7 +5958,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="1:7" ht="16" customHeight="1">
+    <row r="268" spans="1:7" ht="16.05" customHeight="1">
       <c r="A268" s="5">
         <v>44097</v>
       </c>
@@ -5924,7 +5975,7 @@
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
     </row>
-    <row r="269" spans="1:7" ht="16" customHeight="1">
+    <row r="269" spans="1:7" ht="16.05" customHeight="1">
       <c r="A269" s="5">
         <v>44098</v>
       </c>
@@ -5941,7 +5992,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" spans="1:7" ht="16" customHeight="1">
+    <row r="270" spans="1:7" ht="16.05" customHeight="1">
       <c r="A270" s="5">
         <v>44099</v>
       </c>
@@ -5958,7 +6009,7 @@
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7" ht="16" customHeight="1">
+    <row r="271" spans="1:7" ht="16.05" customHeight="1">
       <c r="A271" s="5">
         <v>44100</v>
       </c>
@@ -5975,7 +6026,7 @@
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" spans="1:7" ht="16" customHeight="1">
+    <row r="272" spans="1:7" ht="16.05" customHeight="1">
       <c r="A272" s="5">
         <v>44101</v>
       </c>
@@ -5992,7 +6043,7 @@
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7" ht="16" customHeight="1">
+    <row r="273" spans="1:7" ht="16.05" customHeight="1">
       <c r="A273" s="5">
         <v>44102</v>
       </c>
@@ -6009,7 +6060,7 @@
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" spans="1:7" ht="16" customHeight="1">
+    <row r="274" spans="1:7" ht="16.05" customHeight="1">
       <c r="A274" s="5">
         <v>44103</v>
       </c>
@@ -6026,7 +6077,7 @@
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" spans="1:7" ht="16" customHeight="1">
+    <row r="275" spans="1:7" ht="16.05" customHeight="1">
       <c r="A275" s="5">
         <v>44104</v>
       </c>
@@ -6043,7 +6094,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
     </row>
-    <row r="276" spans="1:7" ht="16" customHeight="1">
+    <row r="276" spans="1:7" ht="16.05" customHeight="1">
       <c r="A276" s="5">
         <v>44105</v>
       </c>
@@ -6060,7 +6111,7 @@
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" spans="1:7" ht="16" customHeight="1">
+    <row r="277" spans="1:7" ht="16.05" customHeight="1">
       <c r="A277" s="5">
         <v>44106</v>
       </c>
@@ -6077,7 +6128,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" spans="1:7" ht="16" customHeight="1">
+    <row r="278" spans="1:7" ht="16.05" customHeight="1">
       <c r="A278" s="5">
         <v>44107</v>
       </c>
@@ -6094,7 +6145,7 @@
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="1:7" ht="16" customHeight="1">
+    <row r="279" spans="1:7" ht="16.05" customHeight="1">
       <c r="A279" s="5">
         <v>44108</v>
       </c>
@@ -6111,7 +6162,7 @@
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" spans="1:7" ht="16" customHeight="1">
+    <row r="280" spans="1:7" ht="16.05" customHeight="1">
       <c r="A280" s="5">
         <v>44109</v>
       </c>
@@ -6128,7 +6179,7 @@
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" spans="1:7" ht="16" customHeight="1">
+    <row r="281" spans="1:7" ht="16.05" customHeight="1">
       <c r="A281" s="5">
         <v>44110</v>
       </c>
@@ -6145,7 +6196,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" spans="1:7" ht="16" customHeight="1">
+    <row r="282" spans="1:7" ht="16.05" customHeight="1">
       <c r="A282" s="5">
         <v>44111</v>
       </c>
@@ -6162,7 +6213,7 @@
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" spans="1:7" ht="16" customHeight="1">
+    <row r="283" spans="1:7" ht="16.05" customHeight="1">
       <c r="A283" s="5">
         <v>44112</v>
       </c>
@@ -6179,7 +6230,7 @@
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="1:7" ht="16" customHeight="1">
+    <row r="284" spans="1:7" ht="16.05" customHeight="1">
       <c r="A284" s="5">
         <v>44113</v>
       </c>
@@ -6196,7 +6247,7 @@
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" spans="1:7" ht="16" customHeight="1">
+    <row r="285" spans="1:7" ht="16.05" customHeight="1">
       <c r="A285" s="5">
         <v>44114</v>
       </c>
@@ -6213,7 +6264,7 @@
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" spans="1:7" ht="16" customHeight="1">
+    <row r="286" spans="1:7" ht="16.05" customHeight="1">
       <c r="A286" s="5">
         <v>44115</v>
       </c>
@@ -6230,7 +6281,7 @@
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" spans="1:7" ht="16" customHeight="1">
+    <row r="287" spans="1:7" ht="16.05" customHeight="1">
       <c r="A287" s="5">
         <v>44116</v>
       </c>
@@ -6247,7 +6298,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="1:7" ht="16" customHeight="1">
+    <row r="288" spans="1:7" ht="16.05" customHeight="1">
       <c r="A288" s="5">
         <v>44117</v>
       </c>
@@ -6264,7 +6315,7 @@
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7" ht="16" customHeight="1">
+    <row r="289" spans="1:7" ht="16.05" customHeight="1">
       <c r="A289" s="5">
         <v>44118</v>
       </c>
@@ -6281,7 +6332,7 @@
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" spans="1:7" ht="16" customHeight="1">
+    <row r="290" spans="1:7" ht="16.05" customHeight="1">
       <c r="A290" s="5">
         <v>44119</v>
       </c>
@@ -6298,7 +6349,7 @@
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
     </row>
-    <row r="291" spans="1:7" ht="16" customHeight="1">
+    <row r="291" spans="1:7" ht="16.05" customHeight="1">
       <c r="A291" s="5">
         <v>44120</v>
       </c>
@@ -6315,7 +6366,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
     </row>
-    <row r="292" spans="1:7" ht="16" customHeight="1">
+    <row r="292" spans="1:7" ht="16.05" customHeight="1">
       <c r="A292" s="5">
         <v>44121</v>
       </c>
@@ -6332,7 +6383,7 @@
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" spans="1:7" ht="16" customHeight="1">
+    <row r="293" spans="1:7" ht="16.05" customHeight="1">
       <c r="A293" s="5">
         <v>44122</v>
       </c>
@@ -6349,7 +6400,7 @@
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
     </row>
-    <row r="294" spans="1:7" ht="16" customHeight="1">
+    <row r="294" spans="1:7" ht="16.05" customHeight="1">
       <c r="A294" s="5">
         <v>44123</v>
       </c>
@@ -6366,7 +6417,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
     </row>
-    <row r="295" spans="1:7" ht="16" customHeight="1">
+    <row r="295" spans="1:7" ht="16.05" customHeight="1">
       <c r="A295" s="5">
         <v>44124</v>
       </c>
@@ -6383,7 +6434,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="1:7" ht="16" customHeight="1">
+    <row r="296" spans="1:7" ht="16.05" customHeight="1">
       <c r="A296" s="5">
         <v>44125</v>
       </c>
@@ -6400,7 +6451,7 @@
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
     </row>
-    <row r="297" spans="1:7" ht="16" customHeight="1">
+    <row r="297" spans="1:7" ht="16.05" customHeight="1">
       <c r="A297" s="5">
         <v>44126</v>
       </c>
@@ -6417,7 +6468,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
     </row>
-    <row r="298" spans="1:7" ht="16" customHeight="1">
+    <row r="298" spans="1:7" ht="16.05" customHeight="1">
       <c r="A298" s="5">
         <v>44127</v>
       </c>
@@ -6434,7 +6485,7 @@
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
     </row>
-    <row r="299" spans="1:7" ht="16" customHeight="1">
+    <row r="299" spans="1:7" ht="16.05" customHeight="1">
       <c r="A299" s="5">
         <v>44128</v>
       </c>
@@ -6451,7 +6502,7 @@
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
     </row>
-    <row r="300" spans="1:7" ht="16" customHeight="1">
+    <row r="300" spans="1:7" ht="16.05" customHeight="1">
       <c r="A300" s="5">
         <v>44129</v>
       </c>
@@ -6468,7 +6519,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
     </row>
-    <row r="301" spans="1:7" ht="16" customHeight="1">
+    <row r="301" spans="1:7" ht="16.05" customHeight="1">
       <c r="A301" s="5">
         <v>44130</v>
       </c>
@@ -6485,7 +6536,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
     </row>
-    <row r="302" spans="1:7" ht="16" customHeight="1">
+    <row r="302" spans="1:7" ht="16.05" customHeight="1">
       <c r="A302" s="5">
         <v>44131</v>
       </c>
@@ -6502,7 +6553,7 @@
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
     </row>
-    <row r="303" spans="1:7" ht="16" customHeight="1">
+    <row r="303" spans="1:7" ht="16.05" customHeight="1">
       <c r="A303" s="5">
         <v>44132</v>
       </c>
@@ -6519,7 +6570,7 @@
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7" ht="16" customHeight="1">
+    <row r="304" spans="1:7" ht="16.05" customHeight="1">
       <c r="A304" s="5">
         <v>44133</v>
       </c>
@@ -6536,7 +6587,7 @@
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
     </row>
-    <row r="305" spans="1:7" ht="16" customHeight="1">
+    <row r="305" spans="1:7" ht="16.05" customHeight="1">
       <c r="A305" s="5">
         <v>44134</v>
       </c>
@@ -6553,7 +6604,7 @@
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
     </row>
-    <row r="306" spans="1:7" ht="16" customHeight="1">
+    <row r="306" spans="1:7" ht="16.05" customHeight="1">
       <c r="A306" s="5">
         <v>44135</v>
       </c>
@@ -6570,7 +6621,7 @@
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
     </row>
-    <row r="307" spans="1:7" ht="16" customHeight="1">
+    <row r="307" spans="1:7" ht="16.05" customHeight="1">
       <c r="A307" s="5">
         <v>44136</v>
       </c>
@@ -6587,7 +6638,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="1:7" ht="16" customHeight="1">
+    <row r="308" spans="1:7" ht="16.05" customHeight="1">
       <c r="A308" s="5">
         <v>44137</v>
       </c>
@@ -6604,7 +6655,7 @@
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="1:7" ht="16" customHeight="1">
+    <row r="309" spans="1:7" ht="16.05" customHeight="1">
       <c r="A309" s="5">
         <v>44138</v>
       </c>
@@ -6621,7 +6672,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="1:7" ht="16" customHeight="1">
+    <row r="310" spans="1:7" ht="16.05" customHeight="1">
       <c r="A310" s="5">
         <v>44139</v>
       </c>
@@ -6638,7 +6689,7 @@
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7" ht="16" customHeight="1">
+    <row r="311" spans="1:7" ht="16.05" customHeight="1">
       <c r="A311" s="5">
         <v>44140</v>
       </c>
@@ -6655,7 +6706,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
     </row>
-    <row r="312" spans="1:7" ht="16" customHeight="1">
+    <row r="312" spans="1:7" ht="16.05" customHeight="1">
       <c r="A312" s="5">
         <v>44141</v>
       </c>
@@ -6672,7 +6723,7 @@
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7" ht="16" customHeight="1">
+    <row r="313" spans="1:7" ht="16.05" customHeight="1">
       <c r="A313" s="5">
         <v>44142</v>
       </c>
@@ -6689,7 +6740,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7" ht="16" customHeight="1">
+    <row r="314" spans="1:7" ht="16.05" customHeight="1">
       <c r="A314" s="5">
         <v>44143</v>
       </c>
@@ -6706,7 +6757,7 @@
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7" ht="16" customHeight="1">
+    <row r="315" spans="1:7" ht="16.05" customHeight="1">
       <c r="A315" s="5">
         <v>44144</v>
       </c>
@@ -6723,7 +6774,7 @@
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="1:7" ht="16" customHeight="1">
+    <row r="316" spans="1:7" ht="16.05" customHeight="1">
       <c r="A316" s="5">
         <v>44145</v>
       </c>
@@ -6740,7 +6791,7 @@
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
     </row>
-    <row r="317" spans="1:7" ht="16" customHeight="1">
+    <row r="317" spans="1:7" ht="16.05" customHeight="1">
       <c r="A317" s="5">
         <v>44146</v>
       </c>
@@ -6757,7 +6808,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
     </row>
-    <row r="318" spans="1:7" ht="16" customHeight="1">
+    <row r="318" spans="1:7" ht="16.05" customHeight="1">
       <c r="A318" s="5">
         <v>44147</v>
       </c>
@@ -6774,7 +6825,7 @@
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:7" ht="16" customHeight="1">
+    <row r="319" spans="1:7" ht="16.05" customHeight="1">
       <c r="A319" s="5">
         <v>44148</v>
       </c>
@@ -6791,7 +6842,7 @@
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7" ht="16" customHeight="1">
+    <row r="320" spans="1:7" ht="16.05" customHeight="1">
       <c r="A320" s="5">
         <v>44149</v>
       </c>
@@ -6808,7 +6859,7 @@
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7" ht="16" customHeight="1">
+    <row r="321" spans="1:7" ht="16.05" customHeight="1">
       <c r="A321" s="5">
         <v>44150</v>
       </c>
@@ -6825,7 +6876,7 @@
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="1:7" ht="16" customHeight="1">
+    <row r="322" spans="1:7" ht="16.05" customHeight="1">
       <c r="A322" s="5">
         <v>44151</v>
       </c>
@@ -6842,7 +6893,7 @@
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="1:7" ht="16" customHeight="1">
+    <row r="323" spans="1:7" ht="16.05" customHeight="1">
       <c r="A323" s="5">
         <v>44152</v>
       </c>
@@ -6859,7 +6910,7 @@
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="1:7" ht="16" customHeight="1">
+    <row r="324" spans="1:7" ht="16.05" customHeight="1">
       <c r="A324" s="5">
         <v>44153</v>
       </c>
@@ -6876,7 +6927,7 @@
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="1:7" ht="16" customHeight="1">
+    <row r="325" spans="1:7" ht="16.05" customHeight="1">
       <c r="A325" s="5">
         <v>44154</v>
       </c>
@@ -6893,7 +6944,7 @@
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="1:7" ht="16" customHeight="1">
+    <row r="326" spans="1:7" ht="16.05" customHeight="1">
       <c r="A326" s="5">
         <v>44155</v>
       </c>
@@ -6910,7 +6961,7 @@
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="1:7" ht="16" customHeight="1">
+    <row r="327" spans="1:7" ht="16.05" customHeight="1">
       <c r="A327" s="5">
         <v>44156</v>
       </c>
@@ -6927,7 +6978,7 @@
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="1:7" ht="16" customHeight="1">
+    <row r="328" spans="1:7" ht="16.05" customHeight="1">
       <c r="A328" s="5">
         <v>44157</v>
       </c>
@@ -6944,7 +6995,7 @@
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="1:7" ht="16" customHeight="1">
+    <row r="329" spans="1:7" ht="16.05" customHeight="1">
       <c r="A329" s="5">
         <v>44158</v>
       </c>
@@ -6961,7 +7012,7 @@
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="1:7" ht="16" customHeight="1">
+    <row r="330" spans="1:7" ht="16.05" customHeight="1">
       <c r="A330" s="5">
         <v>44159</v>
       </c>
@@ -6978,7 +7029,7 @@
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="1:7" ht="16" customHeight="1">
+    <row r="331" spans="1:7" ht="16.05" customHeight="1">
       <c r="A331" s="5">
         <v>44160</v>
       </c>
@@ -6995,7 +7046,7 @@
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="1:7" ht="16" customHeight="1">
+    <row r="332" spans="1:7" ht="16.05" customHeight="1">
       <c r="A332" s="5">
         <v>44161</v>
       </c>
@@ -7012,7 +7063,7 @@
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="1:7" ht="16" customHeight="1">
+    <row r="333" spans="1:7" ht="16.05" customHeight="1">
       <c r="A333" s="5">
         <v>44162</v>
       </c>
@@ -7029,7 +7080,7 @@
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="1:7" ht="16" customHeight="1">
+    <row r="334" spans="1:7" ht="16.05" customHeight="1">
       <c r="A334" s="5">
         <v>44163</v>
       </c>
@@ -7046,7 +7097,7 @@
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="1:7" ht="16" customHeight="1">
+    <row r="335" spans="1:7" ht="16.05" customHeight="1">
       <c r="A335" s="5">
         <v>44164</v>
       </c>
@@ -7063,7 +7114,7 @@
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="1:7" ht="16" customHeight="1">
+    <row r="336" spans="1:7" ht="16.05" customHeight="1">
       <c r="A336" s="5">
         <v>44165</v>
       </c>
@@ -7080,7 +7131,7 @@
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="1:7" ht="16" customHeight="1">
+    <row r="337" spans="1:7" ht="16.05" customHeight="1">
       <c r="A337" s="5">
         <v>44166</v>
       </c>
@@ -7097,7 +7148,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="1:7" ht="16" customHeight="1">
+    <row r="338" spans="1:7" ht="16.05" customHeight="1">
       <c r="A338" s="5">
         <v>44167</v>
       </c>
@@ -7114,7 +7165,7 @@
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="1:7" ht="16" customHeight="1">
+    <row r="339" spans="1:7" ht="16.05" customHeight="1">
       <c r="A339" s="5">
         <v>44168</v>
       </c>
@@ -7131,7 +7182,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="1:7" ht="16" customHeight="1">
+    <row r="340" spans="1:7" ht="16.05" customHeight="1">
       <c r="A340" s="5">
         <v>44169</v>
       </c>
@@ -7148,7 +7199,7 @@
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="1:7" ht="16" customHeight="1">
+    <row r="341" spans="1:7" ht="16.05" customHeight="1">
       <c r="A341" s="5">
         <v>44170</v>
       </c>
@@ -7165,7 +7216,7 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="1:7" ht="16" customHeight="1">
+    <row r="342" spans="1:7" ht="16.05" customHeight="1">
       <c r="A342" s="5">
         <v>44171</v>
       </c>
@@ -7182,7 +7233,7 @@
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="1:7" ht="16" customHeight="1">
+    <row r="343" spans="1:7" ht="16.05" customHeight="1">
       <c r="A343" s="5">
         <v>44172</v>
       </c>
@@ -7199,7 +7250,7 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="1:7" ht="16" customHeight="1">
+    <row r="344" spans="1:7" ht="16.05" customHeight="1">
       <c r="A344" s="5">
         <v>44173</v>
       </c>
@@ -7216,7 +7267,7 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="1:7" ht="16" customHeight="1">
+    <row r="345" spans="1:7" ht="16.05" customHeight="1">
       <c r="A345" s="5">
         <v>44174</v>
       </c>
@@ -7233,7 +7284,7 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="1:7" ht="16" customHeight="1">
+    <row r="346" spans="1:7" ht="16.05" customHeight="1">
       <c r="A346" s="5">
         <v>44175</v>
       </c>
@@ -7250,7 +7301,7 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="1:7" ht="16" customHeight="1">
+    <row r="347" spans="1:7" ht="16.05" customHeight="1">
       <c r="A347" s="5">
         <v>44176</v>
       </c>
@@ -7267,7 +7318,7 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="1:7" ht="16" customHeight="1">
+    <row r="348" spans="1:7" ht="16.05" customHeight="1">
       <c r="A348" s="5">
         <v>44177</v>
       </c>
@@ -7284,7 +7335,7 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="1:7" ht="16" customHeight="1">
+    <row r="349" spans="1:7" ht="16.05" customHeight="1">
       <c r="A349" s="5">
         <v>44178</v>
       </c>
@@ -7301,7 +7352,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="1:7" ht="16" customHeight="1">
+    <row r="350" spans="1:7" ht="16.05" customHeight="1">
       <c r="A350" s="5">
         <v>44179</v>
       </c>
@@ -7318,7 +7369,7 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="1:7" ht="16" customHeight="1">
+    <row r="351" spans="1:7" ht="16.05" customHeight="1">
       <c r="A351" s="5">
         <v>44180</v>
       </c>
@@ -7335,7 +7386,7 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="1:7" ht="16" customHeight="1">
+    <row r="352" spans="1:7" ht="16.05" customHeight="1">
       <c r="A352" s="5">
         <v>44181</v>
       </c>
@@ -7352,7 +7403,7 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="1:7" ht="16" customHeight="1">
+    <row r="353" spans="1:7" ht="16.05" customHeight="1">
       <c r="A353" s="5">
         <v>44182</v>
       </c>
@@ -7369,7 +7420,7 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="1:7" ht="16" customHeight="1">
+    <row r="354" spans="1:7" ht="16.05" customHeight="1">
       <c r="A354" s="5">
         <v>44183</v>
       </c>
@@ -7386,7 +7437,7 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="1:7" ht="16" customHeight="1">
+    <row r="355" spans="1:7" ht="16.05" customHeight="1">
       <c r="A355" s="5">
         <v>44184</v>
       </c>
@@ -7403,7 +7454,7 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="1:7" ht="16" customHeight="1">
+    <row r="356" spans="1:7" ht="16.05" customHeight="1">
       <c r="A356" s="5">
         <v>44185</v>
       </c>
@@ -7420,7 +7471,7 @@
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="1:7" ht="16" customHeight="1">
+    <row r="357" spans="1:7" ht="16.05" customHeight="1">
       <c r="A357" s="5">
         <v>44186</v>
       </c>
@@ -7437,7 +7488,7 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="1:7" ht="16" customHeight="1">
+    <row r="358" spans="1:7" ht="16.05" customHeight="1">
       <c r="A358" s="5">
         <v>44187</v>
       </c>
@@ -7454,7 +7505,7 @@
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="1:7" ht="16" customHeight="1">
+    <row r="359" spans="1:7" ht="16.05" customHeight="1">
       <c r="A359" s="5">
         <v>44188</v>
       </c>
@@ -7471,7 +7522,7 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="1:7" ht="16" customHeight="1">
+    <row r="360" spans="1:7" ht="16.05" customHeight="1">
       <c r="A360" s="5">
         <v>44189</v>
       </c>
@@ -7488,7 +7539,7 @@
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="1:7" ht="16" customHeight="1">
+    <row r="361" spans="1:7" ht="16.05" customHeight="1">
       <c r="A361" s="5">
         <v>44190</v>
       </c>
@@ -7505,7 +7556,7 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="1:7" ht="16" customHeight="1">
+    <row r="362" spans="1:7" ht="16.05" customHeight="1">
       <c r="A362" s="5">
         <v>44191</v>
       </c>
@@ -7522,7 +7573,7 @@
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="1:7" ht="16" customHeight="1">
+    <row r="363" spans="1:7" ht="16.05" customHeight="1">
       <c r="A363" s="5">
         <v>44192</v>
       </c>
@@ -7539,7 +7590,7 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="1:7" ht="16" customHeight="1">
+    <row r="364" spans="1:7" ht="16.05" customHeight="1">
       <c r="A364" s="5">
         <v>44193</v>
       </c>
@@ -7556,7 +7607,7 @@
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="1:7" ht="16" customHeight="1">
+    <row r="365" spans="1:7" ht="16.05" customHeight="1">
       <c r="A365" s="5">
         <v>44194</v>
       </c>
@@ -7573,7 +7624,7 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="1:7" ht="16" customHeight="1">
+    <row r="366" spans="1:7" ht="16.05" customHeight="1">
       <c r="A366" s="5">
         <v>44195</v>
       </c>
@@ -7590,7 +7641,7 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="1:7" ht="16" customHeight="1">
+    <row r="367" spans="1:7" ht="16.05" customHeight="1">
       <c r="A367" s="5">
         <v>44196</v>
       </c>
@@ -7607,7 +7658,7 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="1:7" ht="16" customHeight="1">
+    <row r="368" spans="1:7" ht="16.05" customHeight="1">
       <c r="A368" s="5">
         <v>44197</v>
       </c>
@@ -7624,7 +7675,7 @@
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="1:7" ht="16" customHeight="1">
+    <row r="369" spans="1:7" ht="16.05" customHeight="1">
       <c r="A369" s="5">
         <v>44198</v>
       </c>
@@ -7641,7 +7692,7 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="1:7" ht="16" customHeight="1">
+    <row r="370" spans="1:7" ht="16.05" customHeight="1">
       <c r="A370" s="5">
         <v>44199</v>
       </c>
@@ -7658,7 +7709,7 @@
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="1:7" ht="16" customHeight="1">
+    <row r="371" spans="1:7" ht="16.05" customHeight="1">
       <c r="A371" s="5">
         <v>44200</v>
       </c>
@@ -7675,7 +7726,7 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="1:7" ht="16" customHeight="1">
+    <row r="372" spans="1:7" ht="16.05" customHeight="1">
       <c r="A372" s="5">
         <v>44201</v>
       </c>
@@ -7692,7 +7743,7 @@
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
     </row>
-    <row r="373" spans="1:7" ht="16" customHeight="1">
+    <row r="373" spans="1:7" ht="16.05" customHeight="1">
       <c r="A373" s="5">
         <v>44202</v>
       </c>
@@ -7709,7 +7760,7 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="1:7" ht="16" customHeight="1">
+    <row r="374" spans="1:7" ht="16.05" customHeight="1">
       <c r="A374" s="5">
         <v>44203</v>
       </c>
@@ -7726,7 +7777,7 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="1:7" ht="16" customHeight="1">
+    <row r="375" spans="1:7" ht="16.05" customHeight="1">
       <c r="A375" s="5">
         <v>44204</v>
       </c>
@@ -7743,7 +7794,7 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="1:7" ht="16" customHeight="1">
+    <row r="376" spans="1:7" ht="16.05" customHeight="1">
       <c r="A376" s="5">
         <v>44205</v>
       </c>
@@ -7760,7 +7811,7 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="1:7" ht="16" customHeight="1">
+    <row r="377" spans="1:7" ht="16.05" customHeight="1">
       <c r="A377" s="5">
         <v>44206</v>
       </c>
@@ -7777,7 +7828,7 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="1:7" ht="16" customHeight="1">
+    <row r="378" spans="1:7" ht="16.05" customHeight="1">
       <c r="A378" s="5">
         <v>44207</v>
       </c>
@@ -7794,7 +7845,7 @@
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="1:7" ht="16" customHeight="1">
+    <row r="379" spans="1:7" ht="16.05" customHeight="1">
       <c r="A379" s="5">
         <v>44208</v>
       </c>
@@ -7811,7 +7862,7 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="1:7" ht="16" customHeight="1">
+    <row r="380" spans="1:7" ht="16.05" customHeight="1">
       <c r="A380" s="5">
         <v>44209</v>
       </c>
@@ -7828,7 +7879,7 @@
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="1:7" ht="16" customHeight="1">
+    <row r="381" spans="1:7" ht="16.05" customHeight="1">
       <c r="A381" s="5">
         <v>44210</v>
       </c>
@@ -7845,7 +7896,7 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="1:7" ht="16" customHeight="1">
+    <row r="382" spans="1:7" ht="16.05" customHeight="1">
       <c r="A382" s="5">
         <v>44211</v>
       </c>
@@ -7862,7 +7913,7 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="1:7" ht="16" customHeight="1">
+    <row r="383" spans="1:7" ht="16.05" customHeight="1">
       <c r="A383" s="5">
         <v>44212</v>
       </c>
@@ -7879,7 +7930,7 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="1:7" ht="16" customHeight="1">
+    <row r="384" spans="1:7" ht="16.05" customHeight="1">
       <c r="A384" s="5">
         <v>44213</v>
       </c>
@@ -7896,7 +7947,7 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="1:7" ht="16" customHeight="1">
+    <row r="385" spans="1:7" ht="16.05" customHeight="1">
       <c r="A385" s="5">
         <v>44214</v>
       </c>
@@ -7913,7 +7964,7 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="1:7" ht="16" customHeight="1">
+    <row r="386" spans="1:7" ht="16.05" customHeight="1">
       <c r="A386" s="5">
         <v>44215</v>
       </c>
@@ -7930,7 +7981,7 @@
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="1:7" ht="16" customHeight="1">
+    <row r="387" spans="1:7" ht="16.05" customHeight="1">
       <c r="A387" s="5">
         <v>44216</v>
       </c>
@@ -7947,7 +7998,7 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="1:7" ht="16" customHeight="1">
+    <row r="388" spans="1:7" ht="16.05" customHeight="1">
       <c r="A388" s="5">
         <v>44217</v>
       </c>
@@ -7964,7 +8015,7 @@
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="1:7" ht="16" customHeight="1">
+    <row r="389" spans="1:7" ht="16.05" customHeight="1">
       <c r="A389" s="5">
         <v>44218</v>
       </c>
@@ -7981,7 +8032,7 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="1:7" ht="16" customHeight="1">
+    <row r="390" spans="1:7" ht="16.05" customHeight="1">
       <c r="A390" s="5">
         <v>44219</v>
       </c>
@@ -7998,7 +8049,7 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="1:7" ht="16" customHeight="1">
+    <row r="391" spans="1:7" ht="16.05" customHeight="1">
       <c r="A391" s="5">
         <v>44220</v>
       </c>
@@ -8015,7 +8066,7 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="1:7" ht="16" customHeight="1">
+    <row r="392" spans="1:7" ht="16.05" customHeight="1">
       <c r="A392" s="5">
         <v>44221</v>
       </c>
@@ -8032,7 +8083,7 @@
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="1:7" ht="16" customHeight="1">
+    <row r="393" spans="1:7" ht="16.05" customHeight="1">
       <c r="A393" s="5">
         <v>44222</v>
       </c>
@@ -8049,7 +8100,7 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="1:7" ht="16" customHeight="1">
+    <row r="394" spans="1:7" ht="16.05" customHeight="1">
       <c r="A394" s="5">
         <v>44223</v>
       </c>
@@ -8066,7 +8117,7 @@
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="1:7" ht="16" customHeight="1">
+    <row r="395" spans="1:7" ht="16.05" customHeight="1">
       <c r="A395" s="5">
         <v>44224</v>
       </c>
@@ -8083,7 +8134,7 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="1:7" ht="16" customHeight="1">
+    <row r="396" spans="1:7" ht="16.05" customHeight="1">
       <c r="A396" s="5">
         <v>44225</v>
       </c>
@@ -8100,7 +8151,7 @@
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="1:7" ht="16" customHeight="1">
+    <row r="397" spans="1:7" ht="16.05" customHeight="1">
       <c r="A397" s="5">
         <v>44226</v>
       </c>
@@ -8117,7 +8168,7 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="1:7" ht="16" customHeight="1">
+    <row r="398" spans="1:7" ht="16.05" customHeight="1">
       <c r="A398" s="5">
         <v>44227</v>
       </c>
@@ -8134,7 +8185,7 @@
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="1:7" ht="16" customHeight="1">
+    <row r="399" spans="1:7" ht="16.05" customHeight="1">
       <c r="A399" s="5">
         <v>44228</v>
       </c>
@@ -8151,7 +8202,7 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="1:7" ht="16" customHeight="1">
+    <row r="400" spans="1:7" ht="16.05" customHeight="1">
       <c r="A400" s="5">
         <v>44229</v>
       </c>
@@ -8168,7 +8219,7 @@
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="1:7" ht="16" customHeight="1">
+    <row r="401" spans="1:7" ht="16.05" customHeight="1">
       <c r="A401" s="5">
         <v>44230</v>
       </c>
@@ -8185,7 +8236,7 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="1:7" ht="16" customHeight="1">
+    <row r="402" spans="1:7" ht="16.05" customHeight="1">
       <c r="A402" s="5">
         <v>44231</v>
       </c>
@@ -8202,7 +8253,7 @@
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="1:7" ht="16" customHeight="1">
+    <row r="403" spans="1:7" ht="16.05" customHeight="1">
       <c r="A403" s="5">
         <v>44232</v>
       </c>
@@ -8219,7 +8270,7 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="1:7" ht="16" customHeight="1">
+    <row r="404" spans="1:7" ht="16.05" customHeight="1">
       <c r="A404" s="5">
         <v>44233</v>
       </c>
@@ -8236,7 +8287,7 @@
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="1:7" ht="16" customHeight="1">
+    <row r="405" spans="1:7" ht="16.05" customHeight="1">
       <c r="A405" s="5">
         <v>44234</v>
       </c>
@@ -8253,7 +8304,7 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="1:7" ht="16" customHeight="1">
+    <row r="406" spans="1:7" ht="16.05" customHeight="1">
       <c r="A406" s="5">
         <v>44235</v>
       </c>
@@ -8270,7 +8321,7 @@
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="1:7" ht="16" customHeight="1">
+    <row r="407" spans="1:7" ht="16.05" customHeight="1">
       <c r="A407" s="5">
         <v>44236</v>
       </c>
@@ -8287,7 +8338,7 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="1:7" ht="16" customHeight="1">
+    <row r="408" spans="1:7" ht="16.05" customHeight="1">
       <c r="A408" s="5">
         <v>44237</v>
       </c>
@@ -8304,7 +8355,7 @@
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="1:7" ht="16" customHeight="1">
+    <row r="409" spans="1:7" ht="16.05" customHeight="1">
       <c r="A409" s="5">
         <v>44238</v>
       </c>
@@ -8321,7 +8372,7 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="1:7" ht="16" customHeight="1">
+    <row r="410" spans="1:7" ht="16.05" customHeight="1">
       <c r="A410" s="5">
         <v>44239</v>
       </c>
@@ -8338,7 +8389,7 @@
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="1:7" ht="16" customHeight="1">
+    <row r="411" spans="1:7" ht="16.05" customHeight="1">
       <c r="A411" s="5">
         <v>44240</v>
       </c>
@@ -8355,7 +8406,7 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="1:7" ht="16" customHeight="1">
+    <row r="412" spans="1:7" ht="16.05" customHeight="1">
       <c r="A412" s="5">
         <v>44241</v>
       </c>
@@ -8372,7 +8423,7 @@
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
     </row>
-    <row r="413" spans="1:7" ht="16" customHeight="1">
+    <row r="413" spans="1:7" ht="16.05" customHeight="1">
       <c r="A413" s="5">
         <v>44242</v>
       </c>
@@ -8389,7 +8440,7 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
     </row>
-    <row r="414" spans="1:7" ht="16" customHeight="1">
+    <row r="414" spans="1:7" ht="16.05" customHeight="1">
       <c r="A414" s="5">
         <v>44243</v>
       </c>
@@ -8406,7 +8457,7 @@
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
     </row>
-    <row r="415" spans="1:7" ht="16" customHeight="1">
+    <row r="415" spans="1:7" ht="16.05" customHeight="1">
       <c r="A415" s="5">
         <v>44244</v>
       </c>
@@ -8423,7 +8474,7 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="1:7" ht="16" customHeight="1">
+    <row r="416" spans="1:7" ht="16.05" customHeight="1">
       <c r="A416" s="5">
         <v>44245</v>
       </c>
@@ -8440,7 +8491,7 @@
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="1:7" ht="16" customHeight="1">
+    <row r="417" spans="1:7" ht="16.05" customHeight="1">
       <c r="A417" s="5">
         <v>44246</v>
       </c>
@@ -8457,7 +8508,7 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="1:7" ht="16" customHeight="1">
+    <row r="418" spans="1:7" ht="16.05" customHeight="1">
       <c r="A418" s="5">
         <v>44247</v>
       </c>
@@ -8474,7 +8525,7 @@
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="1:7" ht="16" customHeight="1">
+    <row r="419" spans="1:7" ht="16.05" customHeight="1">
       <c r="A419" s="5">
         <v>44248</v>
       </c>
@@ -8491,7 +8542,7 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="1:7" ht="16" customHeight="1">
+    <row r="420" spans="1:7" ht="16.05" customHeight="1">
       <c r="A420" s="5">
         <v>44249</v>
       </c>
@@ -8508,7 +8559,7 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="1:7" ht="16" customHeight="1">
+    <row r="421" spans="1:7" ht="16.05" customHeight="1">
       <c r="A421" s="5">
         <v>44250</v>
       </c>
@@ -8525,7 +8576,7 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="1:7" ht="16" customHeight="1">
+    <row r="422" spans="1:7" ht="16.05" customHeight="1">
       <c r="A422" s="5">
         <v>44251</v>
       </c>
@@ -8542,7 +8593,7 @@
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="1:7" ht="16" customHeight="1">
+    <row r="423" spans="1:7" ht="16.05" customHeight="1">
       <c r="A423" s="5">
         <v>44252</v>
       </c>
@@ -8559,7 +8610,7 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="1:7" ht="16" customHeight="1">
+    <row r="424" spans="1:7" ht="16.05" customHeight="1">
       <c r="A424" s="5">
         <v>44253</v>
       </c>
@@ -8576,7 +8627,7 @@
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="1:7" ht="16" customHeight="1">
+    <row r="425" spans="1:7" ht="16.05" customHeight="1">
       <c r="A425" s="5">
         <v>44254</v>
       </c>
@@ -8593,7 +8644,7 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="1:7" ht="16" customHeight="1">
+    <row r="426" spans="1:7" ht="16.05" customHeight="1">
       <c r="A426" s="5">
         <v>44255</v>
       </c>
@@ -8610,7 +8661,7 @@
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="1:7" ht="16" customHeight="1">
+    <row r="427" spans="1:7" ht="16.05" customHeight="1">
       <c r="A427" s="5">
         <v>44256</v>
       </c>
@@ -8627,7 +8678,7 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="1:7" ht="16" customHeight="1">
+    <row r="428" spans="1:7" ht="16.05" customHeight="1">
       <c r="A428" s="5">
         <v>44257</v>
       </c>
@@ -8644,7 +8695,7 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="1:7" ht="16" customHeight="1">
+    <row r="429" spans="1:7" ht="16.05" customHeight="1">
       <c r="A429" s="5">
         <v>44258</v>
       </c>
@@ -8661,7 +8712,7 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="1:7" ht="16" customHeight="1">
+    <row r="430" spans="1:7" ht="16.05" customHeight="1">
       <c r="A430" s="5">
         <v>44259</v>
       </c>
@@ -8678,7 +8729,7 @@
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="1:7" ht="16" customHeight="1">
+    <row r="431" spans="1:7" ht="16.05" customHeight="1">
       <c r="A431" s="5">
         <v>44260</v>
       </c>
@@ -8695,7 +8746,7 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="1:7" ht="16" customHeight="1">
+    <row r="432" spans="1:7" ht="16.05" customHeight="1">
       <c r="A432" s="5">
         <v>44261</v>
       </c>
@@ -8712,7 +8763,7 @@
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="1:7" ht="16" customHeight="1">
+    <row r="433" spans="1:7" ht="16.05" customHeight="1">
       <c r="A433" s="5">
         <v>44262</v>
       </c>
@@ -8729,7 +8780,7 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="1:7" ht="16" customHeight="1">
+    <row r="434" spans="1:7" ht="16.05" customHeight="1">
       <c r="A434" s="5">
         <v>44263</v>
       </c>
@@ -8746,7 +8797,7 @@
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="1:7" ht="16" customHeight="1">
+    <row r="435" spans="1:7" ht="16.05" customHeight="1">
       <c r="A435" s="5">
         <v>44264</v>
       </c>
@@ -8763,7 +8814,7 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="1:7" ht="16" customHeight="1">
+    <row r="436" spans="1:7" ht="16.05" customHeight="1">
       <c r="A436" s="5">
         <v>44265</v>
       </c>
@@ -8780,7 +8831,7 @@
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="1:7" ht="16" customHeight="1">
+    <row r="437" spans="1:7" ht="16.05" customHeight="1">
       <c r="A437" s="5">
         <v>44266</v>
       </c>
@@ -8797,7 +8848,7 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="1:7" ht="16" customHeight="1">
+    <row r="438" spans="1:7" ht="16.05" customHeight="1">
       <c r="A438" s="5">
         <v>44267</v>
       </c>
@@ -8814,7 +8865,7 @@
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="1:7" ht="16" customHeight="1">
+    <row r="439" spans="1:7" ht="16.05" customHeight="1">
       <c r="A439" s="5">
         <v>44268</v>
       </c>
@@ -8831,7 +8882,7 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="1:7" ht="16" customHeight="1">
+    <row r="440" spans="1:7" ht="16.05" customHeight="1">
       <c r="A440" s="5">
         <v>44269</v>
       </c>
@@ -8848,7 +8899,7 @@
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="1:7" ht="16" customHeight="1">
+    <row r="441" spans="1:7" ht="16.05" customHeight="1">
       <c r="A441" s="5">
         <v>44270</v>
       </c>
@@ -8865,7 +8916,7 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="1:7" ht="16" customHeight="1">
+    <row r="442" spans="1:7" ht="16.05" customHeight="1">
       <c r="A442" s="5">
         <v>44271</v>
       </c>
@@ -8882,7 +8933,7 @@
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="1:7" ht="16" customHeight="1">
+    <row r="443" spans="1:7" ht="16.05" customHeight="1">
       <c r="A443" s="5">
         <v>44272</v>
       </c>
@@ -8899,7 +8950,7 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="1:7" ht="16" customHeight="1">
+    <row r="444" spans="1:7" ht="16.05" customHeight="1">
       <c r="A444" s="5">
         <v>44273</v>
       </c>
@@ -8916,7 +8967,7 @@
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
     </row>
-    <row r="445" spans="1:7" ht="16" customHeight="1">
+    <row r="445" spans="1:7" ht="16.05" customHeight="1">
       <c r="A445" s="5">
         <v>44274</v>
       </c>
@@ -8933,7 +8984,7 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="1:7" ht="16" customHeight="1">
+    <row r="446" spans="1:7" ht="16.05" customHeight="1">
       <c r="A446" s="5">
         <v>44275</v>
       </c>
@@ -8950,7 +9001,7 @@
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="1:7" ht="16" customHeight="1">
+    <row r="447" spans="1:7" ht="16.05" customHeight="1">
       <c r="A447" s="5">
         <v>44276</v>
       </c>
@@ -8967,7 +9018,7 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="1:7" ht="16" customHeight="1">
+    <row r="448" spans="1:7" ht="16.05" customHeight="1">
       <c r="A448" s="5">
         <v>44277</v>
       </c>
@@ -8984,7 +9035,7 @@
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="1:7" ht="16" customHeight="1">
+    <row r="449" spans="1:7" ht="16.05" customHeight="1">
       <c r="A449" s="5">
         <v>44278</v>
       </c>
@@ -9001,7 +9052,7 @@
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="1:7" ht="16" customHeight="1">
+    <row r="450" spans="1:7" ht="16.05" customHeight="1">
       <c r="A450" s="5">
         <v>44279</v>
       </c>
@@ -9018,7 +9069,7 @@
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="1:7" ht="16" customHeight="1">
+    <row r="451" spans="1:7" ht="16.05" customHeight="1">
       <c r="A451" s="5">
         <v>44280</v>
       </c>
@@ -9035,7 +9086,7 @@
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="1:7" ht="16" customHeight="1">
+    <row r="452" spans="1:7" ht="16.05" customHeight="1">
       <c r="A452" s="5">
         <v>44281</v>
       </c>
@@ -9052,7 +9103,7 @@
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
     </row>
-    <row r="453" spans="1:7" ht="16" customHeight="1">
+    <row r="453" spans="1:7" ht="16.05" customHeight="1">
       <c r="A453" s="5">
         <v>44282</v>
       </c>
@@ -9069,7 +9120,7 @@
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="1:7" ht="16" customHeight="1">
+    <row r="454" spans="1:7" ht="16.05" customHeight="1">
       <c r="A454" s="5">
         <v>44283</v>
       </c>
@@ -9086,7 +9137,7 @@
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="1:7" ht="16" customHeight="1">
+    <row r="455" spans="1:7" ht="16.05" customHeight="1">
       <c r="A455" s="5">
         <v>44284</v>
       </c>
@@ -9103,7 +9154,7 @@
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="1:7" ht="16" customHeight="1">
+    <row r="456" spans="1:7" ht="16.05" customHeight="1">
       <c r="A456" s="5">
         <v>44285</v>
       </c>
@@ -9120,7 +9171,7 @@
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="1:7" ht="16" customHeight="1">
+    <row r="457" spans="1:7" ht="16.05" customHeight="1">
       <c r="A457" s="5">
         <v>44286</v>
       </c>
@@ -9137,7 +9188,7 @@
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="1:7" ht="16" customHeight="1">
+    <row r="458" spans="1:7" ht="16.05" customHeight="1">
       <c r="A458" s="5">
         <v>44287</v>
       </c>
@@ -9154,7 +9205,7 @@
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="1:7" ht="16" customHeight="1">
+    <row r="459" spans="1:7" ht="16.05" customHeight="1">
       <c r="A459" s="5">
         <v>44288</v>
       </c>
@@ -9171,7 +9222,7 @@
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="1:7" ht="16" customHeight="1">
+    <row r="460" spans="1:7" ht="16.05" customHeight="1">
       <c r="A460" s="5">
         <v>44289</v>
       </c>
@@ -9188,7 +9239,7 @@
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="1:7" ht="16" customHeight="1">
+    <row r="461" spans="1:7" ht="16.05" customHeight="1">
       <c r="A461" s="5">
         <v>44290</v>
       </c>
@@ -9205,7 +9256,7 @@
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="1:7" ht="16" customHeight="1">
+    <row r="462" spans="1:7" ht="16.05" customHeight="1">
       <c r="A462" s="5">
         <v>44291</v>
       </c>
@@ -9222,7 +9273,7 @@
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="1:7" ht="16" customHeight="1">
+    <row r="463" spans="1:7" ht="16.05" customHeight="1">
       <c r="A463" s="5">
         <v>44292</v>
       </c>
@@ -9239,7 +9290,7 @@
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="1:7" ht="16" customHeight="1">
+    <row r="464" spans="1:7" ht="16.05" customHeight="1">
       <c r="A464" s="5">
         <v>44293</v>
       </c>
@@ -9256,7 +9307,7 @@
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="1:7" ht="16" customHeight="1">
+    <row r="465" spans="1:7" ht="16.05" customHeight="1">
       <c r="A465" s="5">
         <v>44294</v>
       </c>
@@ -9273,7 +9324,7 @@
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="1:7" ht="16" customHeight="1">
+    <row r="466" spans="1:7" ht="16.05" customHeight="1">
       <c r="A466" s="5">
         <v>44295</v>
       </c>
@@ -9290,7 +9341,7 @@
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="1:7" ht="16" customHeight="1">
+    <row r="467" spans="1:7" ht="16.05" customHeight="1">
       <c r="A467" s="5">
         <v>44296</v>
       </c>
@@ -9307,7 +9358,7 @@
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="1:7" ht="16" customHeight="1">
+    <row r="468" spans="1:7" ht="16.05" customHeight="1">
       <c r="A468" s="5">
         <v>44297</v>
       </c>
@@ -9324,7 +9375,7 @@
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="1:7" ht="16" customHeight="1">
+    <row r="469" spans="1:7" ht="16.05" customHeight="1">
       <c r="A469" s="5">
         <v>44298</v>
       </c>
@@ -9341,7 +9392,7 @@
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="1:7" ht="16" customHeight="1">
+    <row r="470" spans="1:7" ht="16.05" customHeight="1">
       <c r="A470" s="5">
         <v>44299</v>
       </c>
@@ -9358,7 +9409,7 @@
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="1:7" ht="16" customHeight="1">
+    <row r="471" spans="1:7" ht="16.05" customHeight="1">
       <c r="A471" s="5">
         <v>44300</v>
       </c>
@@ -9375,7 +9426,7 @@
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="1:7" ht="16" customHeight="1">
+    <row r="472" spans="1:7" ht="16.05" customHeight="1">
       <c r="A472" s="5">
         <v>44301</v>
       </c>
@@ -9392,7 +9443,7 @@
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="1:7" ht="16" customHeight="1">
+    <row r="473" spans="1:7" ht="16.05" customHeight="1">
       <c r="A473" s="5">
         <v>44302</v>
       </c>
@@ -9409,7 +9460,7 @@
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="1:7" ht="16" customHeight="1">
+    <row r="474" spans="1:7" ht="16.05" customHeight="1">
       <c r="A474" s="5">
         <v>44303</v>
       </c>
@@ -9426,7 +9477,7 @@
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="1:7" ht="16" customHeight="1">
+    <row r="475" spans="1:7" ht="16.05" customHeight="1">
       <c r="A475" s="5">
         <v>44304</v>
       </c>
@@ -9443,7 +9494,7 @@
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="1:7" ht="16" customHeight="1">
+    <row r="476" spans="1:7" ht="16.05" customHeight="1">
       <c r="A476" s="5">
         <v>44305</v>
       </c>
@@ -9460,7 +9511,7 @@
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
     </row>
-    <row r="477" spans="1:7" ht="16" customHeight="1">
+    <row r="477" spans="1:7" ht="16.05" customHeight="1">
       <c r="A477" s="5">
         <v>44306</v>
       </c>
@@ -9477,7 +9528,7 @@
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
     </row>
-    <row r="478" spans="1:7" ht="16" customHeight="1">
+    <row r="478" spans="1:7" ht="16.05" customHeight="1">
       <c r="A478" s="5">
         <v>44307</v>
       </c>
@@ -9494,7 +9545,7 @@
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="1:7" ht="16" customHeight="1">
+    <row r="479" spans="1:7" ht="16.05" customHeight="1">
       <c r="A479" s="5">
         <v>44308</v>
       </c>
@@ -9511,7 +9562,7 @@
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="1:7" ht="16" customHeight="1">
+    <row r="480" spans="1:7" ht="16.05" customHeight="1">
       <c r="A480" s="5">
         <v>44309</v>
       </c>
@@ -9528,7 +9579,7 @@
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="1:7" ht="16" customHeight="1">
+    <row r="481" spans="1:7" ht="16.05" customHeight="1">
       <c r="A481" s="5">
         <v>44310</v>
       </c>
@@ -9545,7 +9596,7 @@
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="1:7" ht="16" customHeight="1">
+    <row r="482" spans="1:7" ht="16.05" customHeight="1">
       <c r="A482" s="5">
         <v>44311</v>
       </c>
@@ -9562,7 +9613,7 @@
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="1:7" ht="16" customHeight="1">
+    <row r="483" spans="1:7" ht="16.05" customHeight="1">
       <c r="A483" s="5">
         <v>44312</v>
       </c>
@@ -9579,7 +9630,7 @@
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="1:7" ht="16" customHeight="1">
+    <row r="484" spans="1:7" ht="16.05" customHeight="1">
       <c r="A484" s="5">
         <v>44313</v>
       </c>
@@ -9596,7 +9647,7 @@
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="1:7" ht="16" customHeight="1">
+    <row r="485" spans="1:7" ht="16.05" customHeight="1">
       <c r="A485" s="5">
         <v>44314</v>
       </c>
@@ -9613,7 +9664,7 @@
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="16" customHeight="1">
+    <row r="486" spans="1:7" ht="16.05" customHeight="1">
       <c r="A486" s="5">
         <v>44315</v>
       </c>
@@ -9630,7 +9681,7 @@
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="1:7" ht="16" customHeight="1">
+    <row r="487" spans="1:7" ht="16.05" customHeight="1">
       <c r="A487" s="5">
         <v>44316</v>
       </c>
@@ -9647,7 +9698,7 @@
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="1:7" ht="16" customHeight="1">
+    <row r="488" spans="1:7" ht="16.05" customHeight="1">
       <c r="A488" s="5">
         <v>44317</v>
       </c>
@@ -9664,7 +9715,7 @@
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="1:7" ht="16" customHeight="1">
+    <row r="489" spans="1:7" ht="16.05" customHeight="1">
       <c r="A489" s="5">
         <v>44318</v>
       </c>
@@ -9681,7 +9732,7 @@
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
     </row>
-    <row r="490" spans="1:7" ht="16" customHeight="1">
+    <row r="490" spans="1:7" ht="16.05" customHeight="1">
       <c r="A490" s="5">
         <v>44319</v>
       </c>
@@ -9698,7 +9749,7 @@
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="1:7" ht="16" customHeight="1">
+    <row r="491" spans="1:7" ht="16.05" customHeight="1">
       <c r="A491" s="5">
         <v>44320</v>
       </c>
@@ -9715,7 +9766,7 @@
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="1:7" ht="16" customHeight="1">
+    <row r="492" spans="1:7" ht="16.05" customHeight="1">
       <c r="A492" s="5">
         <v>44321</v>
       </c>
@@ -9732,7 +9783,7 @@
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="1:7" ht="16" customHeight="1">
+    <row r="493" spans="1:7" ht="16.05" customHeight="1">
       <c r="A493" s="5">
         <v>44322</v>
       </c>
@@ -9749,7 +9800,7 @@
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="1:7" ht="16" customHeight="1">
+    <row r="494" spans="1:7" ht="16.05" customHeight="1">
       <c r="A494" s="5">
         <v>44323</v>
       </c>
@@ -9766,7 +9817,7 @@
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="1:7" ht="16" customHeight="1">
+    <row r="495" spans="1:7" ht="16.05" customHeight="1">
       <c r="A495" s="5">
         <v>44324</v>
       </c>
@@ -9783,7 +9834,7 @@
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="1:7" ht="16" customHeight="1">
+    <row r="496" spans="1:7" ht="16.05" customHeight="1">
       <c r="A496" s="5">
         <v>44325</v>
       </c>
@@ -9800,7 +9851,7 @@
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="1:7" ht="16" customHeight="1">
+    <row r="497" spans="1:7" ht="16.05" customHeight="1">
       <c r="A497" s="5">
         <v>44326</v>
       </c>
@@ -9817,7 +9868,7 @@
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="1:7" ht="16" customHeight="1">
+    <row r="498" spans="1:7" ht="16.05" customHeight="1">
       <c r="A498" s="5">
         <v>44327</v>
       </c>
@@ -9834,7 +9885,7 @@
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="1:7" ht="16" customHeight="1">
+    <row r="499" spans="1:7" ht="16.05" customHeight="1">
       <c r="A499" s="5">
         <v>44328</v>
       </c>
@@ -9851,7 +9902,7 @@
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="1:7" ht="16" customHeight="1">
+    <row r="500" spans="1:7" ht="16.05" customHeight="1">
       <c r="A500" s="5">
         <v>44329</v>
       </c>
@@ -9868,7 +9919,7 @@
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="1:7" ht="16" customHeight="1">
+    <row r="501" spans="1:7" ht="16.05" customHeight="1">
       <c r="A501" s="5">
         <v>44330</v>
       </c>
@@ -9885,7 +9936,7 @@
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="1:7" ht="16" customHeight="1">
+    <row r="502" spans="1:7" ht="16.05" customHeight="1">
       <c r="A502" s="5">
         <v>44331</v>
       </c>
@@ -9902,7 +9953,7 @@
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="1:7" ht="16" customHeight="1">
+    <row r="503" spans="1:7" ht="16.05" customHeight="1">
       <c r="A503" s="5">
         <v>44332</v>
       </c>
@@ -9919,7 +9970,7 @@
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="1:7" ht="16" customHeight="1">
+    <row r="504" spans="1:7" ht="16.05" customHeight="1">
       <c r="A504" s="5">
         <v>44333</v>
       </c>
@@ -9936,7 +9987,7 @@
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="1:7" ht="16" customHeight="1">
+    <row r="505" spans="1:7" ht="16.05" customHeight="1">
       <c r="A505" s="5">
         <v>44334</v>
       </c>
@@ -9953,7 +10004,7 @@
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="1:7" ht="16" customHeight="1">
+    <row r="506" spans="1:7" ht="16.05" customHeight="1">
       <c r="A506" s="5">
         <v>44335</v>
       </c>
@@ -9970,7 +10021,7 @@
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="1:7" ht="16" customHeight="1">
+    <row r="507" spans="1:7" ht="16.05" customHeight="1">
       <c r="A507" s="5">
         <v>44336</v>
       </c>
@@ -9987,7 +10038,7 @@
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="1:7" ht="16" customHeight="1">
+    <row r="508" spans="1:7" ht="16.05" customHeight="1">
       <c r="A508" s="5">
         <v>44337</v>
       </c>
@@ -10004,7 +10055,7 @@
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="1:7" ht="16" customHeight="1">
+    <row r="509" spans="1:7" ht="16.05" customHeight="1">
       <c r="A509" s="5">
         <v>44338</v>
       </c>
@@ -10021,7 +10072,7 @@
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="1:7" ht="16" customHeight="1">
+    <row r="510" spans="1:7" ht="16.05" customHeight="1">
       <c r="A510" s="5">
         <v>44339</v>
       </c>
@@ -10038,7 +10089,7 @@
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="1:7" ht="16" customHeight="1">
+    <row r="511" spans="1:7" ht="16.05" customHeight="1">
       <c r="A511" s="5">
         <v>44340</v>
       </c>
@@ -10055,7 +10106,7 @@
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="1:7" ht="16" customHeight="1">
+    <row r="512" spans="1:7" ht="16.05" customHeight="1">
       <c r="A512" s="5">
         <v>44341</v>
       </c>
@@ -10072,7 +10123,7 @@
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="1:7" ht="16" customHeight="1">
+    <row r="513" spans="1:7" ht="16.05" customHeight="1">
       <c r="A513" s="5">
         <v>44342</v>
       </c>
@@ -10089,7 +10140,7 @@
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="1:7" ht="16" customHeight="1">
+    <row r="514" spans="1:7" ht="16.05" customHeight="1">
       <c r="A514" s="5">
         <v>44343</v>
       </c>
@@ -10106,7 +10157,7 @@
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="1:7" ht="16" customHeight="1">
+    <row r="515" spans="1:7" ht="16.05" customHeight="1">
       <c r="A515" s="5">
         <v>44344</v>
       </c>
@@ -10123,7 +10174,7 @@
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="1:7" ht="16" customHeight="1">
+    <row r="516" spans="1:7" ht="16.05" customHeight="1">
       <c r="A516" s="5">
         <v>44345</v>
       </c>
@@ -10140,7 +10191,7 @@
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="1:7" ht="16" customHeight="1">
+    <row r="517" spans="1:7" ht="16.05" customHeight="1">
       <c r="A517" s="5">
         <v>44346</v>
       </c>
@@ -10157,7 +10208,7 @@
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="1:7" ht="16" customHeight="1">
+    <row r="518" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
       <c r="A518" s="5">
         <v>44347</v>
       </c>
@@ -10174,11 +10225,2355 @@
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="1:7" ht="16" customHeight="1"/>
-    <row r="520" spans="1:7" ht="16" customHeight="1"/>
+    <row r="519" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+      <c r="A519" s="9">
+        <v>44348</v>
+      </c>
+      <c r="B519" s="8">
+        <v>18</v>
+      </c>
+      <c r="C519" s="8">
+        <v>3102</v>
+      </c>
+      <c r="D519" s="8">
+        <v>22119</v>
+      </c>
+      <c r="E519" s="3"/>
+      <c r="F519" s="3"/>
+      <c r="G519" s="3"/>
+    </row>
+    <row r="520" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+      <c r="A520" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B520" s="8">
+        <v>31</v>
+      </c>
+      <c r="C520" s="8">
+        <v>4264</v>
+      </c>
+      <c r="D520" s="8">
+        <v>16925</v>
+      </c>
+      <c r="E520" s="3"/>
+      <c r="F520" s="3"/>
+      <c r="G520" s="3"/>
+    </row>
+    <row r="521" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A521" s="9">
+        <v>44350</v>
+      </c>
+      <c r="B521" s="8">
+        <v>45</v>
+      </c>
+      <c r="C521" s="8">
+        <v>5181</v>
+      </c>
+      <c r="D521" s="8">
+        <v>19191</v>
+      </c>
+      <c r="E521" s="3"/>
+      <c r="F521" s="3"/>
+      <c r="G521" s="3"/>
+    </row>
+    <row r="522" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A522" s="9">
+        <v>44351</v>
+      </c>
+      <c r="B522" s="8">
+        <v>13</v>
+      </c>
+      <c r="C522" s="8">
+        <v>6144</v>
+      </c>
+      <c r="D522" s="8">
+        <v>16911</v>
+      </c>
+      <c r="E522" s="3"/>
+      <c r="F522" s="3"/>
+      <c r="G522" s="3"/>
+    </row>
+    <row r="523" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A523" s="9">
+        <v>44352</v>
+      </c>
+      <c r="B523" s="8">
+        <v>18</v>
+      </c>
+      <c r="C523" s="8">
+        <v>5655</v>
+      </c>
+      <c r="D523" s="8">
+        <v>14335</v>
+      </c>
+      <c r="E523" s="3"/>
+      <c r="F523" s="3"/>
+      <c r="G523" s="3"/>
+    </row>
+    <row r="524" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A524" s="7">
+        <v>44353</v>
+      </c>
+      <c r="B524" s="8">
+        <v>20</v>
+      </c>
+      <c r="C524" s="8">
+        <v>5225</v>
+      </c>
+      <c r="D524" s="8">
+        <v>5674</v>
+      </c>
+      <c r="E524" s="3"/>
+      <c r="F524" s="3"/>
+      <c r="G524" s="3"/>
+    </row>
+    <row r="525" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A525" s="7">
+        <v>44354</v>
+      </c>
+      <c r="B525" s="8">
+        <v>14</v>
+      </c>
+      <c r="C525" s="8">
+        <v>5597</v>
+      </c>
+      <c r="D525" s="8">
+        <v>15109</v>
+      </c>
+      <c r="E525" s="3"/>
+      <c r="F525" s="3"/>
+      <c r="G525" s="3"/>
+    </row>
+    <row r="526" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A526" s="7">
+        <v>44355</v>
+      </c>
+      <c r="B526" s="8">
+        <v>9</v>
+      </c>
+      <c r="C526" s="8">
+        <v>5973</v>
+      </c>
+      <c r="D526" s="8">
+        <v>12832</v>
+      </c>
+      <c r="E526" s="3"/>
+      <c r="F526" s="3"/>
+      <c r="G526" s="3"/>
+    </row>
+    <row r="527" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A527" s="7">
+        <v>44356</v>
+      </c>
+      <c r="B527" s="8">
+        <v>4</v>
+      </c>
+      <c r="C527" s="8">
+        <v>7322</v>
+      </c>
+      <c r="D527" s="8">
+        <v>18904</v>
+      </c>
+      <c r="E527" s="3"/>
+      <c r="F527" s="3"/>
+      <c r="G527" s="3"/>
+    </row>
+    <row r="528" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A528" s="7">
+        <v>44357</v>
+      </c>
+      <c r="B528" s="8">
+        <v>13</v>
+      </c>
+      <c r="C528" s="8">
+        <v>7239</v>
+      </c>
+      <c r="D528" s="8">
+        <v>14424</v>
+      </c>
+      <c r="E528" s="3"/>
+      <c r="F528" s="3"/>
+      <c r="G528" s="3"/>
+    </row>
+    <row r="529" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A529" s="7">
+        <v>44358</v>
+      </c>
+      <c r="B529" s="8">
+        <v>9</v>
+      </c>
+      <c r="C529" s="8">
+        <v>7960</v>
+      </c>
+      <c r="D529" s="8">
+        <v>24730</v>
+      </c>
+      <c r="E529" s="3"/>
+      <c r="F529" s="3"/>
+      <c r="G529" s="3"/>
+    </row>
+    <row r="530" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A530" s="7">
+        <v>44359</v>
+      </c>
+      <c r="B530" s="8">
+        <v>18</v>
+      </c>
+      <c r="C530" s="8">
+        <v>7552</v>
+      </c>
+      <c r="D530" s="8">
+        <v>8688</v>
+      </c>
+      <c r="E530" s="3"/>
+      <c r="F530" s="3"/>
+      <c r="G530" s="3"/>
+    </row>
+    <row r="531" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A531" s="7">
+        <v>44360</v>
+      </c>
+      <c r="B531" s="8">
+        <v>13</v>
+      </c>
+      <c r="C531" s="8">
+        <v>7334</v>
+      </c>
+      <c r="D531" s="8">
+        <v>5157</v>
+      </c>
+      <c r="E531" s="3"/>
+      <c r="F531" s="3"/>
+      <c r="G531" s="3"/>
+    </row>
+    <row r="532" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A532" s="7">
+        <v>44361</v>
+      </c>
+      <c r="B532" s="8">
+        <v>25</v>
+      </c>
+      <c r="C532" s="8">
+        <v>7621</v>
+      </c>
+      <c r="D532" s="8">
+        <v>12364</v>
+      </c>
+      <c r="E532" s="3"/>
+      <c r="F532" s="3"/>
+      <c r="G532" s="3"/>
+    </row>
+    <row r="533" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A533" s="7">
+        <v>44362</v>
+      </c>
+      <c r="B533" s="8">
+        <v>14</v>
+      </c>
+      <c r="C533" s="8">
+        <v>7594</v>
+      </c>
+      <c r="D533" s="8">
+        <v>10830</v>
+      </c>
+      <c r="E533" s="3"/>
+      <c r="F533" s="3"/>
+      <c r="G533" s="3"/>
+    </row>
+    <row r="534" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A534" s="7">
+        <v>44363</v>
+      </c>
+      <c r="B534" s="8">
+        <v>24</v>
+      </c>
+      <c r="C534" s="8">
+        <v>8811</v>
+      </c>
+      <c r="D534" s="8">
+        <v>12555</v>
+      </c>
+      <c r="E534" s="3"/>
+      <c r="F534" s="3"/>
+      <c r="G534" s="3"/>
+    </row>
+    <row r="535" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A535" s="7">
+        <v>44364</v>
+      </c>
+      <c r="B535" s="8">
+        <v>27</v>
+      </c>
+      <c r="C535" s="8">
+        <v>10823</v>
+      </c>
+      <c r="D535" s="8">
+        <v>10621</v>
+      </c>
+      <c r="E535" s="3"/>
+      <c r="F535" s="3"/>
+      <c r="G535" s="3"/>
+    </row>
+    <row r="536" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A536" s="7">
+        <v>44365</v>
+      </c>
+      <c r="B536" s="8">
+        <v>16</v>
+      </c>
+      <c r="C536" s="8">
+        <v>10287</v>
+      </c>
+      <c r="D536" s="8">
+        <v>21201</v>
+      </c>
+      <c r="E536" s="3"/>
+      <c r="F536" s="3"/>
+      <c r="G536" s="3"/>
+    </row>
+    <row r="537" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A537" s="7">
+        <v>44366</v>
+      </c>
+      <c r="B537" s="8">
+        <v>21</v>
+      </c>
+      <c r="C537" s="8">
+        <v>10076</v>
+      </c>
+      <c r="D537" s="8">
+        <v>8489</v>
+      </c>
+      <c r="E537" s="3"/>
+      <c r="F537" s="3"/>
+      <c r="G537" s="3"/>
+    </row>
+    <row r="538" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A538" s="7">
+        <v>44367</v>
+      </c>
+      <c r="B538" s="8">
+        <v>11</v>
+      </c>
+      <c r="C538" s="8">
+        <v>9077</v>
+      </c>
+      <c r="D538" s="8">
+        <v>4456</v>
+      </c>
+      <c r="E538" s="3"/>
+      <c r="F538" s="3"/>
+      <c r="G538" s="3"/>
+    </row>
+    <row r="539" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A539" s="7">
+        <v>44368</v>
+      </c>
+      <c r="B539" s="8">
+        <v>16</v>
+      </c>
+      <c r="C539" s="8">
+        <v>10468</v>
+      </c>
+      <c r="D539" s="8">
+        <v>11673</v>
+      </c>
+      <c r="E539" s="3"/>
+      <c r="F539" s="3"/>
+      <c r="G539" s="3"/>
+    </row>
+    <row r="540" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A540" s="7">
+        <v>44369</v>
+      </c>
+      <c r="B540" s="8">
+        <v>18</v>
+      </c>
+      <c r="C540" s="8">
+        <v>11507</v>
+      </c>
+      <c r="D540" s="8">
+        <v>10725</v>
+      </c>
+      <c r="E540" s="3"/>
+      <c r="F540" s="3"/>
+      <c r="G540" s="3"/>
+    </row>
+    <row r="541" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A541" s="7">
+        <v>44370</v>
+      </c>
+      <c r="B541" s="8">
+        <v>22</v>
+      </c>
+      <c r="C541" s="8">
+        <v>15943</v>
+      </c>
+      <c r="D541" s="8">
+        <v>13001</v>
+      </c>
+      <c r="E541" s="3"/>
+      <c r="F541" s="3"/>
+      <c r="G541" s="3"/>
+    </row>
+    <row r="542" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A542" s="7">
+        <v>44371</v>
+      </c>
+      <c r="B542" s="8">
+        <v>23</v>
+      </c>
+      <c r="C542" s="8">
+        <v>16705</v>
+      </c>
+      <c r="D542" s="8">
+        <v>13777</v>
+      </c>
+      <c r="E542" s="3"/>
+      <c r="F542" s="3"/>
+      <c r="G542" s="3"/>
+    </row>
+    <row r="543" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A543" s="7">
+        <v>44372</v>
+      </c>
+      <c r="B543" s="8">
+        <v>20</v>
+      </c>
+      <c r="C543" s="8">
+        <v>15374</v>
+      </c>
+      <c r="D543" s="8">
+        <v>24265</v>
+      </c>
+      <c r="E543" s="3"/>
+      <c r="F543" s="3"/>
+      <c r="G543" s="3"/>
+    </row>
+    <row r="544" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A544" s="7">
+        <v>44373</v>
+      </c>
+      <c r="B544" s="8">
+        <v>17</v>
+      </c>
+      <c r="C544" s="8">
+        <v>17946</v>
+      </c>
+      <c r="D544" s="8">
+        <v>8644</v>
+      </c>
+      <c r="E544" s="3"/>
+      <c r="F544" s="3"/>
+      <c r="G544" s="3"/>
+    </row>
+    <row r="545" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A545" s="7">
+        <v>44374</v>
+      </c>
+      <c r="B545" s="8">
+        <v>14</v>
+      </c>
+      <c r="C545" s="8">
+        <v>14633</v>
+      </c>
+      <c r="D545" s="8">
+        <v>4251</v>
+      </c>
+      <c r="E545" s="3"/>
+      <c r="F545" s="3"/>
+      <c r="G545" s="3"/>
+    </row>
+    <row r="546" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A546" s="7">
+        <v>44375</v>
+      </c>
+      <c r="B546" s="8">
+        <v>9</v>
+      </c>
+      <c r="C546" s="8">
+        <v>22723</v>
+      </c>
+      <c r="D546" s="8">
+        <v>14576</v>
+      </c>
+      <c r="E546" s="3"/>
+      <c r="F546" s="3"/>
+      <c r="G546" s="3"/>
+    </row>
+    <row r="547" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A547" s="7">
+        <v>44376</v>
+      </c>
+      <c r="B547" s="8">
+        <v>10</v>
+      </c>
+      <c r="C547" s="8">
+        <v>20261</v>
+      </c>
+      <c r="D547" s="8">
+        <v>6690</v>
+      </c>
+      <c r="E547" s="3"/>
+      <c r="F547" s="3"/>
+      <c r="G547" s="3"/>
+    </row>
+    <row r="548" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A548" s="7">
+        <v>44377</v>
+      </c>
+      <c r="B548" s="8">
+        <v>16</v>
+      </c>
+      <c r="C548" s="8">
+        <v>25670</v>
+      </c>
+      <c r="D548" s="8">
+        <v>16254</v>
+      </c>
+      <c r="E548" s="3"/>
+      <c r="F548" s="3"/>
+      <c r="G548" s="3"/>
+    </row>
+    <row r="549" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A549" s="7">
+        <v>44378</v>
+      </c>
+      <c r="B549" s="8">
+        <v>10</v>
+      </c>
+      <c r="C549" s="8">
+        <v>27646</v>
+      </c>
+      <c r="D549" s="8">
+        <v>14439</v>
+      </c>
+      <c r="E549" s="3"/>
+      <c r="F549" s="3"/>
+      <c r="G549" s="3"/>
+    </row>
+    <row r="550" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A550" s="7">
+        <v>44379</v>
+      </c>
+      <c r="B550" s="8">
+        <v>10</v>
+      </c>
+      <c r="C550" s="8">
+        <v>26863</v>
+      </c>
+      <c r="D550" s="8">
+        <v>29422</v>
+      </c>
+      <c r="E550" s="3"/>
+      <c r="F550" s="3"/>
+      <c r="G550" s="3"/>
+    </row>
+    <row r="551" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A551" s="7">
+        <v>44380</v>
+      </c>
+      <c r="B551" s="8">
+        <v>7</v>
+      </c>
+      <c r="C551" s="8">
+        <v>24465</v>
+      </c>
+      <c r="D551" s="8">
+        <v>4626</v>
+      </c>
+      <c r="E551" s="3"/>
+      <c r="F551" s="3"/>
+      <c r="G551" s="3"/>
+    </row>
+    <row r="552" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A552" s="7">
+        <v>44381</v>
+      </c>
+      <c r="B552" s="8">
+        <v>11</v>
+      </c>
+      <c r="C552" s="8">
+        <v>23896</v>
+      </c>
+      <c r="D552" s="8">
+        <v>3757</v>
+      </c>
+      <c r="E552" s="3"/>
+      <c r="F552" s="3"/>
+      <c r="G552" s="3"/>
+    </row>
+    <row r="553" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A553" s="7">
+        <v>44382</v>
+      </c>
+      <c r="B553" s="8">
+        <v>13</v>
+      </c>
+      <c r="C553" s="8">
+        <v>27106</v>
+      </c>
+      <c r="D553" s="8">
+        <v>8628</v>
+      </c>
+      <c r="E553" s="3"/>
+      <c r="F553" s="3"/>
+      <c r="G553" s="3"/>
+    </row>
+    <row r="554" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A554" s="7">
+        <v>44383</v>
+      </c>
+      <c r="B554" s="8">
+        <v>10</v>
+      </c>
+      <c r="C554" s="8">
+        <v>28629</v>
+      </c>
+      <c r="D554" s="8">
+        <v>23041</v>
+      </c>
+      <c r="E554" s="3"/>
+      <c r="F554" s="3"/>
+      <c r="G554" s="3"/>
+    </row>
+    <row r="555" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A555" s="7">
+        <v>44384</v>
+      </c>
+      <c r="B555" s="8">
+        <v>12</v>
+      </c>
+      <c r="C555" s="8">
+        <v>32061</v>
+      </c>
+      <c r="D555" s="8">
+        <v>22953</v>
+      </c>
+      <c r="E555" s="3"/>
+      <c r="F555" s="3"/>
+      <c r="G555" s="3"/>
+    </row>
+    <row r="556" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A556" s="7">
+        <v>44385</v>
+      </c>
+      <c r="B556" s="8">
+        <v>16</v>
+      </c>
+      <c r="C556" s="8">
+        <v>32096</v>
+      </c>
+      <c r="D556" s="8">
+        <v>19122</v>
+      </c>
+      <c r="E556" s="3"/>
+      <c r="F556" s="3"/>
+      <c r="G556" s="3"/>
+    </row>
+    <row r="557" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A557" s="7">
+        <v>44386</v>
+      </c>
+      <c r="B557" s="8">
+        <v>10</v>
+      </c>
+      <c r="C557" s="8">
+        <v>35885</v>
+      </c>
+      <c r="D557" s="8">
+        <v>47630</v>
+      </c>
+      <c r="E557" s="3"/>
+      <c r="F557" s="3"/>
+      <c r="G557" s="3"/>
+    </row>
+    <row r="558" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A558" s="7">
+        <v>44387</v>
+      </c>
+      <c r="B558" s="8">
+        <v>6</v>
+      </c>
+      <c r="C558" s="8">
+        <v>31835</v>
+      </c>
+      <c r="D558" s="8">
+        <v>8299</v>
+      </c>
+      <c r="E558" s="3"/>
+      <c r="F558" s="3"/>
+      <c r="G558" s="3"/>
+    </row>
+    <row r="559" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A559" s="7">
+        <v>44388</v>
+      </c>
+      <c r="B559" s="8">
+        <v>8</v>
+      </c>
+      <c r="C559" s="8">
+        <v>31382</v>
+      </c>
+      <c r="D559" s="8">
+        <v>10796</v>
+      </c>
+      <c r="E559" s="3"/>
+      <c r="F559" s="3"/>
+      <c r="G559" s="3"/>
+    </row>
+    <row r="560" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A560" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B560" s="8">
+        <v>26</v>
+      </c>
+      <c r="C560" s="8">
+        <v>34810</v>
+      </c>
+      <c r="D560" s="8">
+        <v>33648</v>
+      </c>
+      <c r="E560" s="3"/>
+      <c r="F560" s="3"/>
+      <c r="G560" s="3"/>
+    </row>
+    <row r="561" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A561" s="7">
+        <v>44390</v>
+      </c>
+      <c r="B561" s="8">
+        <v>26</v>
+      </c>
+      <c r="C561" s="8">
+        <v>36500</v>
+      </c>
+      <c r="D561" s="8">
+        <v>26234</v>
+      </c>
+      <c r="E561" s="3"/>
+      <c r="F561" s="3"/>
+      <c r="G561" s="3"/>
+    </row>
+    <row r="562" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A562" s="7">
+        <v>44391</v>
+      </c>
+      <c r="B562" s="8">
+        <v>60</v>
+      </c>
+      <c r="C562" s="8">
+        <v>42183</v>
+      </c>
+      <c r="D562" s="8">
+        <v>32742</v>
+      </c>
+      <c r="E562" s="3"/>
+      <c r="F562" s="3"/>
+      <c r="G562" s="3"/>
+    </row>
+    <row r="563" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A563" s="7">
+        <v>44392</v>
+      </c>
+      <c r="B563" s="8">
+        <v>48</v>
+      </c>
+      <c r="C563" s="8">
+        <v>48641</v>
+      </c>
+      <c r="D563" s="8">
+        <v>29983</v>
+      </c>
+      <c r="E563" s="3"/>
+      <c r="F563" s="3"/>
+      <c r="G563" s="3"/>
+    </row>
+    <row r="564" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A564" s="7">
+        <v>44393</v>
+      </c>
+      <c r="B564" s="8">
+        <v>61</v>
+      </c>
+      <c r="C564" s="8">
+        <v>51949</v>
+      </c>
+      <c r="D564" s="8">
+        <v>77891</v>
+      </c>
+      <c r="E564" s="3"/>
+      <c r="F564" s="3"/>
+      <c r="G564" s="3"/>
+    </row>
+    <row r="565" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A565" s="7">
+        <v>44394</v>
+      </c>
+      <c r="B565" s="8">
+        <v>68</v>
+      </c>
+      <c r="C565" s="8">
+        <v>54183</v>
+      </c>
+      <c r="D565" s="8">
+        <v>11718</v>
+      </c>
+      <c r="E565" s="3"/>
+      <c r="F565" s="3"/>
+      <c r="G565" s="3"/>
+    </row>
+    <row r="566" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A566" s="7">
+        <v>44395</v>
+      </c>
+      <c r="B566" s="8">
+        <v>92</v>
+      </c>
+      <c r="C566" s="8">
+        <v>47848</v>
+      </c>
+      <c r="D566" s="8">
+        <v>19245</v>
+      </c>
+      <c r="E566" s="3"/>
+      <c r="F566" s="3"/>
+      <c r="G566" s="3"/>
+    </row>
+    <row r="567" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A567" s="7">
+        <v>44396</v>
+      </c>
+      <c r="B567" s="8">
+        <v>172</v>
+      </c>
+      <c r="C567" s="8">
+        <v>40671</v>
+      </c>
+      <c r="D567" s="8">
+        <v>51080</v>
+      </c>
+      <c r="E567" s="3"/>
+      <c r="F567" s="3"/>
+      <c r="G567" s="3"/>
+    </row>
+    <row r="568" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A568" s="7">
+        <v>44397</v>
+      </c>
+      <c r="B568" s="8">
+        <v>195</v>
+      </c>
+      <c r="C568" s="8">
+        <v>46688</v>
+      </c>
+      <c r="D568" s="8">
+        <v>41761</v>
+      </c>
+      <c r="E568" s="3"/>
+      <c r="F568" s="3"/>
+      <c r="G568" s="3"/>
+    </row>
+    <row r="569" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A569" s="7">
+        <v>44398</v>
+      </c>
+      <c r="B569" s="8">
+        <v>181</v>
+      </c>
+      <c r="C569" s="8">
+        <v>44081</v>
+      </c>
+      <c r="D569" s="8">
+        <v>50391</v>
+      </c>
+      <c r="E569" s="3"/>
+      <c r="F569" s="3"/>
+      <c r="G569" s="3"/>
+    </row>
+    <row r="570" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A570" s="7">
+        <v>44399</v>
+      </c>
+      <c r="B570" s="8">
+        <v>170</v>
+      </c>
+      <c r="C570" s="8">
+        <v>40029</v>
+      </c>
+      <c r="D570" s="8">
+        <v>54734</v>
+      </c>
+      <c r="E570" s="3"/>
+      <c r="F570" s="3"/>
+      <c r="G570" s="3"/>
+    </row>
+    <row r="571" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A571" s="7">
+        <v>44400</v>
+      </c>
+      <c r="B571" s="8">
+        <v>133</v>
+      </c>
+      <c r="C571" s="8">
+        <v>36093</v>
+      </c>
+      <c r="D571" s="8">
+        <v>120387</v>
+      </c>
+      <c r="E571" s="3"/>
+      <c r="F571" s="3"/>
+      <c r="G571" s="3"/>
+    </row>
+    <row r="572" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A572" s="7">
+        <v>44401</v>
+      </c>
+      <c r="B572" s="8">
+        <v>130</v>
+      </c>
+      <c r="C572" s="8">
+        <v>31624</v>
+      </c>
+      <c r="D572" s="8">
+        <v>25014</v>
+      </c>
+      <c r="E572" s="3"/>
+      <c r="F572" s="3"/>
+      <c r="G572" s="3"/>
+    </row>
+    <row r="573" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A573" s="7">
+        <v>44402</v>
+      </c>
+      <c r="B573" s="8">
+        <v>125</v>
+      </c>
+      <c r="C573" s="8">
+        <v>28937</v>
+      </c>
+      <c r="D573" s="8">
+        <v>24114</v>
+      </c>
+      <c r="E573" s="3"/>
+      <c r="F573" s="3"/>
+      <c r="G573" s="3"/>
+    </row>
+    <row r="574" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A574" s="7">
+        <v>44403</v>
+      </c>
+      <c r="B574" s="8">
+        <v>135</v>
+      </c>
+      <c r="C574" s="8">
+        <v>24932</v>
+      </c>
+      <c r="D574" s="8">
+        <v>86955</v>
+      </c>
+      <c r="E574" s="3"/>
+      <c r="F574" s="3"/>
+      <c r="G574" s="3"/>
+    </row>
+    <row r="575" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A575" s="7">
+        <v>44404</v>
+      </c>
+      <c r="B575" s="8">
+        <v>139</v>
+      </c>
+      <c r="C575" s="8">
+        <v>23401</v>
+      </c>
+      <c r="D575" s="8">
+        <v>68414</v>
+      </c>
+      <c r="E575" s="3"/>
+      <c r="F575" s="3"/>
+      <c r="G575" s="3"/>
+    </row>
+    <row r="576" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A576" s="7">
+        <v>44405</v>
+      </c>
+      <c r="B576" s="8">
+        <v>136</v>
+      </c>
+      <c r="C576" s="8">
+        <v>25713</v>
+      </c>
+      <c r="D576" s="8">
+        <v>69088</v>
+      </c>
+      <c r="E576" s="3"/>
+      <c r="F576" s="3"/>
+      <c r="G576" s="3"/>
+    </row>
+    <row r="577" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A577" s="7">
+        <v>44406</v>
+      </c>
+      <c r="B577" s="8">
+        <v>133</v>
+      </c>
+      <c r="C577" s="8">
+        <v>30871</v>
+      </c>
+      <c r="D577" s="8">
+        <v>79524</v>
+      </c>
+      <c r="E577" s="3"/>
+      <c r="F577" s="3"/>
+      <c r="G577" s="3"/>
+    </row>
+    <row r="578" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A578" s="7">
+        <v>44407</v>
+      </c>
+      <c r="B578" s="8">
+        <v>139</v>
+      </c>
+      <c r="C578" s="8">
+        <v>29323</v>
+      </c>
+      <c r="D578" s="8">
+        <v>189136</v>
+      </c>
+      <c r="E578" s="3"/>
+      <c r="F578" s="3"/>
+      <c r="G578" s="3"/>
+    </row>
+    <row r="579" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A579" s="7">
+        <v>44408</v>
+      </c>
+      <c r="B579" s="8">
+        <v>120</v>
+      </c>
+      <c r="C579" s="8">
+        <v>25782</v>
+      </c>
+      <c r="D579" s="8">
+        <v>32294</v>
+      </c>
+      <c r="E579" s="3"/>
+      <c r="F579" s="3"/>
+      <c r="G579" s="3"/>
+    </row>
+    <row r="580" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A580" s="7">
+        <v>44409</v>
+      </c>
+      <c r="B580" s="8">
+        <v>121</v>
+      </c>
+      <c r="C580" s="8">
+        <v>24173</v>
+      </c>
+      <c r="D580" s="8">
+        <v>41453</v>
+      </c>
+      <c r="E580" s="3"/>
+      <c r="F580" s="3"/>
+      <c r="G580" s="3"/>
+    </row>
+    <row r="581" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A581" s="7">
+        <v>44410</v>
+      </c>
+      <c r="B581" s="8">
+        <v>111</v>
+      </c>
+      <c r="C581" s="8">
+        <v>22287</v>
+      </c>
+      <c r="D581" s="8">
+        <v>120722</v>
+      </c>
+      <c r="E581" s="3"/>
+      <c r="F581" s="3"/>
+      <c r="G581" s="3"/>
+    </row>
+    <row r="582" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A582" s="7">
+        <v>44411</v>
+      </c>
+      <c r="B582" s="8">
+        <v>102</v>
+      </c>
+      <c r="C582" s="8">
+        <v>21855</v>
+      </c>
+      <c r="D582" s="8">
+        <v>102751</v>
+      </c>
+      <c r="E582" s="3"/>
+      <c r="F582" s="3"/>
+      <c r="G582" s="3"/>
+    </row>
+    <row r="583" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A583" s="7">
+        <v>44412</v>
+      </c>
+      <c r="B583" s="8">
+        <v>95</v>
+      </c>
+      <c r="C583" s="8">
+        <v>29151</v>
+      </c>
+      <c r="D583" s="8">
+        <v>96845</v>
+      </c>
+      <c r="E583" s="3"/>
+      <c r="F583" s="3"/>
+      <c r="G583" s="3"/>
+    </row>
+    <row r="584" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A584" s="7">
+        <v>44413</v>
+      </c>
+      <c r="B584" s="8">
+        <v>98</v>
+      </c>
+      <c r="C584" s="8">
+        <v>30009</v>
+      </c>
+      <c r="D584" s="8">
+        <v>110664</v>
+      </c>
+      <c r="E584" s="3"/>
+      <c r="F584" s="3"/>
+      <c r="G584" s="3"/>
+    </row>
+    <row r="585" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A585" s="7">
+        <v>44414</v>
+      </c>
+      <c r="B585" s="8">
+        <v>97</v>
+      </c>
+      <c r="C585" s="8">
+        <v>31633</v>
+      </c>
+      <c r="D585" s="8">
+        <v>255081</v>
+      </c>
+      <c r="E585" s="3"/>
+      <c r="F585" s="3"/>
+      <c r="G585" s="3"/>
+    </row>
+    <row r="586" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A586" s="7">
+        <v>44415</v>
+      </c>
+      <c r="B586" s="8">
+        <v>81</v>
+      </c>
+      <c r="C586" s="8">
+        <v>28344</v>
+      </c>
+      <c r="D586" s="8">
+        <v>48748</v>
+      </c>
+      <c r="E586" s="3"/>
+      <c r="F586" s="3"/>
+      <c r="G586" s="3"/>
+    </row>
+    <row r="587" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A587" s="7">
+        <v>44416</v>
+      </c>
+      <c r="B587" s="8">
+        <v>78</v>
+      </c>
+      <c r="C587" s="8">
+        <v>27244</v>
+      </c>
+      <c r="D587" s="8">
+        <v>26563</v>
+      </c>
+      <c r="E587" s="3"/>
+      <c r="F587" s="3"/>
+      <c r="G587" s="3"/>
+    </row>
+    <row r="588" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A588" s="7">
+        <v>44417</v>
+      </c>
+      <c r="B588" s="8">
+        <v>72</v>
+      </c>
+      <c r="C588" s="8">
+        <v>25056</v>
+      </c>
+      <c r="D588" s="8">
+        <v>181218</v>
+      </c>
+      <c r="E588" s="3"/>
+      <c r="F588" s="3"/>
+      <c r="G588" s="3"/>
+    </row>
+    <row r="589" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A589" s="7">
+        <v>44418</v>
+      </c>
+      <c r="B589" s="8">
+        <v>0</v>
+      </c>
+      <c r="C589" s="8">
+        <v>23469</v>
+      </c>
+      <c r="D589" s="8">
+        <v>120969</v>
+      </c>
+      <c r="E589" s="3"/>
+      <c r="F589" s="3"/>
+      <c r="G589" s="3"/>
+    </row>
+    <row r="590" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A590" s="7">
+        <v>44419</v>
+      </c>
+      <c r="B590" s="8">
+        <v>117</v>
+      </c>
+      <c r="C590" s="8">
+        <v>29381</v>
+      </c>
+      <c r="D590" s="8">
+        <v>156039</v>
+      </c>
+      <c r="E590" s="3"/>
+      <c r="F590" s="3"/>
+      <c r="G590" s="3"/>
+    </row>
+    <row r="591" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A591" s="7">
+        <v>44420</v>
+      </c>
+      <c r="B591" s="8">
+        <v>59</v>
+      </c>
+      <c r="C591" s="8">
+        <v>32885</v>
+      </c>
+      <c r="D591" s="8">
+        <v>141976</v>
+      </c>
+      <c r="E591" s="3"/>
+      <c r="F591" s="3"/>
+      <c r="G591" s="3"/>
+    </row>
+    <row r="592" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A592" s="7">
+        <v>44421</v>
+      </c>
+      <c r="B592" s="8">
+        <v>49</v>
+      </c>
+      <c r="C592" s="8">
+        <v>32539</v>
+      </c>
+      <c r="D592" s="8">
+        <v>229752</v>
+      </c>
+      <c r="E592" s="3"/>
+      <c r="F592" s="3"/>
+      <c r="G592" s="3"/>
+    </row>
+    <row r="593" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A593" s="7">
+        <v>44422</v>
+      </c>
+      <c r="B593" s="8">
+        <v>58</v>
+      </c>
+      <c r="C593" s="8">
+        <v>29226</v>
+      </c>
+      <c r="D593" s="8">
+        <v>48899</v>
+      </c>
+      <c r="E593" s="3"/>
+      <c r="F593" s="3"/>
+      <c r="G593" s="3"/>
+    </row>
+    <row r="594" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A594" s="7">
+        <v>44423</v>
+      </c>
+      <c r="B594" s="8">
+        <v>53</v>
+      </c>
+      <c r="C594" s="8">
+        <v>26484</v>
+      </c>
+      <c r="D594" s="8">
+        <v>41727</v>
+      </c>
+      <c r="E594" s="3"/>
+      <c r="F594" s="3"/>
+      <c r="G594" s="3"/>
+    </row>
+    <row r="595" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A595" s="7">
+        <v>44424</v>
+      </c>
+      <c r="B595" s="8">
+        <v>53</v>
+      </c>
+      <c r="C595" s="8">
+        <v>28358</v>
+      </c>
+      <c r="D595" s="8">
+        <v>220065</v>
+      </c>
+      <c r="E595" s="3"/>
+      <c r="F595" s="3"/>
+      <c r="G595" s="3"/>
+    </row>
+    <row r="596" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A596" s="7">
+        <v>44425</v>
+      </c>
+      <c r="B596" s="8">
+        <v>56</v>
+      </c>
+      <c r="C596" s="8">
+        <v>26709</v>
+      </c>
+      <c r="D596" s="8">
+        <v>152131</v>
+      </c>
+      <c r="E596" s="3"/>
+      <c r="F596" s="3"/>
+      <c r="G596" s="3"/>
+    </row>
+    <row r="597" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A597" s="7">
+        <v>44426</v>
+      </c>
+      <c r="B597" s="8">
+        <v>53</v>
+      </c>
+      <c r="C597" s="8">
+        <v>33758</v>
+      </c>
+      <c r="D597" s="8">
+        <v>158638</v>
+      </c>
+      <c r="E597" s="3"/>
+      <c r="F597" s="3"/>
+      <c r="G597" s="3"/>
+    </row>
+    <row r="598" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A598" s="7">
+        <v>44427</v>
+      </c>
+      <c r="B598" s="8">
+        <v>32</v>
+      </c>
+      <c r="C598" s="8">
+        <v>36533</v>
+      </c>
+      <c r="D598" s="8">
+        <v>157071</v>
+      </c>
+      <c r="E598" s="3"/>
+      <c r="F598" s="3"/>
+      <c r="G598" s="3"/>
+    </row>
+    <row r="599" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A599" s="7">
+        <v>44428</v>
+      </c>
+      <c r="B599" s="8">
+        <v>40</v>
+      </c>
+      <c r="C599" s="8">
+        <v>37128</v>
+      </c>
+      <c r="D599" s="8">
+        <v>245623</v>
+      </c>
+      <c r="E599" s="3"/>
+      <c r="F599" s="3"/>
+      <c r="G599" s="3"/>
+    </row>
+    <row r="600" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A600" s="7">
+        <v>44429</v>
+      </c>
+      <c r="B600" s="8">
+        <v>37</v>
+      </c>
+      <c r="C600" s="8">
+        <v>31886</v>
+      </c>
+      <c r="D600" s="8">
+        <v>65934</v>
+      </c>
+      <c r="E600" s="3"/>
+      <c r="F600" s="3"/>
+      <c r="G600" s="3"/>
+    </row>
+    <row r="601" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A601" s="7">
+        <v>44430</v>
+      </c>
+      <c r="B601" s="8">
+        <v>35</v>
+      </c>
+      <c r="C601" s="8">
+        <v>32034</v>
+      </c>
+      <c r="D601" s="8">
+        <v>35971</v>
+      </c>
+      <c r="E601" s="3"/>
+      <c r="F601" s="3"/>
+      <c r="G601" s="3"/>
+    </row>
+    <row r="602" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A602" s="7">
+        <v>44431</v>
+      </c>
+      <c r="B602" s="8">
+        <v>98</v>
+      </c>
+      <c r="C602" s="8">
+        <v>31856</v>
+      </c>
+      <c r="D602" s="8">
+        <v>238019</v>
+      </c>
+      <c r="E602" s="3"/>
+      <c r="F602" s="3"/>
+      <c r="G602" s="3"/>
+    </row>
+    <row r="603" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A603" s="7">
+        <v>44432</v>
+      </c>
+      <c r="B603" s="8">
+        <v>116</v>
+      </c>
+      <c r="C603" s="8">
+        <v>30762</v>
+      </c>
+      <c r="D603" s="8">
+        <v>156692</v>
+      </c>
+      <c r="E603" s="3"/>
+      <c r="F603" s="3"/>
+      <c r="G603" s="3"/>
+    </row>
+    <row r="604" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A604" s="7">
+        <v>44433</v>
+      </c>
+      <c r="B604" s="8">
+        <v>120</v>
+      </c>
+      <c r="C604" s="8">
+        <v>35618</v>
+      </c>
+      <c r="D604" s="8">
+        <v>169696</v>
+      </c>
+      <c r="E604" s="3"/>
+      <c r="F604" s="3"/>
+      <c r="G604" s="3"/>
+    </row>
+    <row r="605" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A605" s="7">
+        <v>44434</v>
+      </c>
+      <c r="B605" s="8">
+        <v>116</v>
+      </c>
+      <c r="C605" s="8">
+        <v>38117</v>
+      </c>
+      <c r="D605" s="8">
+        <v>184441</v>
+      </c>
+      <c r="E605" s="3"/>
+      <c r="F605" s="3"/>
+      <c r="G605" s="3"/>
+    </row>
+    <row r="606" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A606" s="7">
+        <v>44435</v>
+      </c>
+      <c r="B606" s="8">
+        <v>0</v>
+      </c>
+      <c r="C606" s="8">
+        <v>37854</v>
+      </c>
+      <c r="D606" s="8">
+        <v>243011</v>
+      </c>
+      <c r="E606" s="3"/>
+      <c r="F606" s="3"/>
+      <c r="G606" s="3"/>
+    </row>
+    <row r="607" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A607" s="7">
+        <v>44436</v>
+      </c>
+      <c r="B607" s="8">
+        <v>243</v>
+      </c>
+      <c r="C607" s="8">
+        <v>32142</v>
+      </c>
+      <c r="D607" s="8">
+        <v>60613</v>
+      </c>
+      <c r="E607" s="3"/>
+      <c r="F607" s="3"/>
+      <c r="G607" s="3"/>
+    </row>
+    <row r="608" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A608" s="7">
+        <v>44437</v>
+      </c>
+      <c r="B608" s="8">
+        <v>0</v>
+      </c>
+      <c r="C608" s="8">
+        <v>32992</v>
+      </c>
+      <c r="D608" s="8">
+        <v>42120</v>
+      </c>
+      <c r="E608" s="3"/>
+      <c r="F608" s="3"/>
+      <c r="G608" s="3"/>
+    </row>
+    <row r="609" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A609" s="7">
+        <v>44438</v>
+      </c>
+      <c r="B609" s="8">
+        <v>288</v>
+      </c>
+      <c r="C609" s="8">
+        <v>26285</v>
+      </c>
+      <c r="D609" s="8">
+        <v>259960</v>
+      </c>
+      <c r="E609" s="3"/>
+      <c r="F609" s="3"/>
+      <c r="G609" s="3"/>
+    </row>
+    <row r="610" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A610" s="7">
+        <v>44439</v>
+      </c>
+      <c r="B610" s="8">
+        <v>161</v>
+      </c>
+      <c r="C610" s="8">
+        <v>32167</v>
+      </c>
+      <c r="D610" s="8">
+        <v>170852</v>
+      </c>
+      <c r="E610" s="3"/>
+      <c r="F610" s="3"/>
+      <c r="G610" s="3"/>
+    </row>
+    <row r="611" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A611" s="7">
+        <v>44440</v>
+      </c>
+      <c r="B611" s="8">
+        <v>180</v>
+      </c>
+      <c r="C611" s="8">
+        <v>35577</v>
+      </c>
+      <c r="D611" s="8">
+        <v>201952</v>
+      </c>
+      <c r="E611" s="3"/>
+      <c r="F611" s="3"/>
+      <c r="G611" s="3"/>
+    </row>
+    <row r="612" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A612" s="7">
+        <v>44441</v>
+      </c>
+      <c r="B612" s="8">
+        <v>191</v>
+      </c>
+      <c r="C612" s="8">
+        <v>37982</v>
+      </c>
+      <c r="D612" s="8">
+        <v>175825</v>
+      </c>
+      <c r="E612" s="3"/>
+      <c r="F612" s="3"/>
+      <c r="G612" s="3"/>
+    </row>
+    <row r="613" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A613" s="7">
+        <v>44442</v>
+      </c>
+      <c r="B613" s="8">
+        <v>219</v>
+      </c>
+      <c r="C613" s="8">
+        <v>42355</v>
+      </c>
+      <c r="D613" s="8">
+        <v>234848</v>
+      </c>
+      <c r="E613" s="3"/>
+      <c r="F613" s="3"/>
+      <c r="G613" s="3"/>
+    </row>
+    <row r="614" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A614" s="7">
+        <v>44443</v>
+      </c>
+      <c r="B614" s="8">
+        <v>259</v>
+      </c>
+      <c r="C614" s="8">
+        <v>36725</v>
+      </c>
+      <c r="D614" s="8">
+        <v>64444</v>
+      </c>
+      <c r="E614" s="3"/>
+      <c r="F614" s="3"/>
+      <c r="G614" s="3"/>
+    </row>
+    <row r="615" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A615" s="7">
+        <v>44444</v>
+      </c>
+      <c r="B615" s="8">
+        <v>191</v>
+      </c>
+      <c r="C615" s="8">
+        <v>36545</v>
+      </c>
+      <c r="D615" s="8">
+        <v>40288</v>
+      </c>
+      <c r="E615" s="3"/>
+      <c r="F615" s="3"/>
+      <c r="G615" s="3"/>
+    </row>
+    <row r="616" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A616" s="7">
+        <v>44445</v>
+      </c>
+      <c r="B616" s="8">
+        <v>241</v>
+      </c>
+      <c r="C616" s="8">
+        <v>40976</v>
+      </c>
+      <c r="D616" s="8">
+        <v>75182</v>
+      </c>
+      <c r="E616" s="3"/>
+      <c r="F616" s="3"/>
+      <c r="G616" s="3"/>
+    </row>
+    <row r="617" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A617" s="7">
+        <v>44446</v>
+      </c>
+      <c r="B617" s="8">
+        <v>332</v>
+      </c>
+      <c r="C617" s="8">
+        <v>37535</v>
+      </c>
+      <c r="D617" s="8">
+        <v>277028</v>
+      </c>
+      <c r="E617" s="3"/>
+      <c r="F617" s="3"/>
+      <c r="G617" s="3"/>
+    </row>
+    <row r="618" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A618" s="7">
+        <v>44447</v>
+      </c>
+      <c r="B618" s="8">
+        <v>349</v>
+      </c>
+      <c r="C618" s="8">
+        <v>38579</v>
+      </c>
+      <c r="D618" s="8">
+        <v>182223</v>
+      </c>
+      <c r="E618" s="3"/>
+      <c r="F618" s="3"/>
+      <c r="G618" s="3"/>
+    </row>
+    <row r="619" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A619" s="7">
+        <v>44448</v>
+      </c>
+      <c r="B619" s="8">
+        <v>457</v>
+      </c>
+      <c r="C619" s="8">
+        <v>37570</v>
+      </c>
+      <c r="D619" s="8">
+        <v>159804</v>
+      </c>
+      <c r="E619" s="3"/>
+      <c r="F619" s="3"/>
+      <c r="G619" s="3"/>
+    </row>
+    <row r="620" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A620" s="7">
+        <v>44449</v>
+      </c>
+      <c r="B620" s="8">
+        <v>573</v>
+      </c>
+      <c r="C620" s="8">
+        <v>37012</v>
+      </c>
+      <c r="D620" s="8">
+        <v>227797</v>
+      </c>
+      <c r="E620" s="3"/>
+      <c r="F620" s="3"/>
+      <c r="G620" s="3"/>
+    </row>
+    <row r="621" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A621" s="7">
+        <v>44450</v>
+      </c>
+      <c r="B621" s="8">
+        <v>555</v>
+      </c>
+      <c r="C621" s="8">
+        <v>28899</v>
+      </c>
+      <c r="D621" s="8">
+        <v>64255</v>
+      </c>
+      <c r="E621" s="3"/>
+      <c r="F621" s="3"/>
+      <c r="G621" s="3"/>
+    </row>
+    <row r="622" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A622" s="7">
+        <v>44451</v>
+      </c>
+      <c r="B622" s="8">
+        <v>520</v>
+      </c>
+      <c r="C622" s="8">
+        <v>28641</v>
+      </c>
+      <c r="D622" s="8">
+        <v>35859</v>
+      </c>
+      <c r="E622" s="3"/>
+      <c r="F622" s="3"/>
+      <c r="G622" s="3"/>
+    </row>
+    <row r="623" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A623" s="7">
+        <v>44452</v>
+      </c>
+      <c r="B623" s="8">
+        <v>607</v>
+      </c>
+      <c r="C623" s="8">
+        <v>30416</v>
+      </c>
+      <c r="D623" s="8">
+        <v>260755</v>
+      </c>
+      <c r="E623" s="3"/>
+      <c r="F623" s="3"/>
+      <c r="G623" s="3"/>
+    </row>
+    <row r="624" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A624" s="7">
+        <v>44453</v>
+      </c>
+      <c r="B624" s="8">
+        <v>837</v>
+      </c>
+      <c r="C624" s="8">
+        <v>26763</v>
+      </c>
+      <c r="D624" s="8">
+        <v>145028</v>
+      </c>
+      <c r="E624" s="3"/>
+      <c r="F624" s="3"/>
+      <c r="G624" s="3"/>
+    </row>
+    <row r="625" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A625" s="7">
+        <v>44454</v>
+      </c>
+      <c r="B625" s="8">
+        <v>807</v>
+      </c>
+      <c r="C625" s="8">
+        <v>29901</v>
+      </c>
+      <c r="D625" s="8">
+        <v>171267</v>
+      </c>
+      <c r="E625" s="3"/>
+      <c r="F625" s="3"/>
+      <c r="G625" s="3"/>
+    </row>
+    <row r="626" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A626" s="7">
+        <v>44455</v>
+      </c>
+      <c r="B626" s="8">
+        <v>910</v>
+      </c>
+      <c r="C626" s="8">
+        <v>26619</v>
+      </c>
+      <c r="D626" s="8">
+        <v>154930</v>
+      </c>
+      <c r="E626" s="3"/>
+      <c r="F626" s="3"/>
+      <c r="G626" s="3"/>
+    </row>
+    <row r="627" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A627" s="7">
+        <v>44456</v>
+      </c>
+      <c r="B627" s="8">
+        <v>935</v>
+      </c>
+      <c r="C627" s="8">
+        <v>32566</v>
+      </c>
+      <c r="D627" s="8">
+        <v>208072</v>
+      </c>
+      <c r="E627" s="3"/>
+      <c r="F627" s="3"/>
+      <c r="G627" s="3"/>
+    </row>
+    <row r="628" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A628" s="7">
+        <v>44457</v>
+      </c>
+      <c r="B628" s="8">
+        <v>1009</v>
+      </c>
+      <c r="C628" s="8">
+        <v>29476</v>
+      </c>
+      <c r="D628" s="8">
+        <v>56759</v>
+      </c>
+      <c r="E628" s="3"/>
+      <c r="F628" s="3"/>
+      <c r="G628" s="3"/>
+    </row>
+    <row r="629" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A629" s="7">
+        <v>44458</v>
+      </c>
+      <c r="B629" s="8">
+        <v>1012</v>
+      </c>
+      <c r="C629" s="8">
+        <v>29298</v>
+      </c>
+      <c r="D629" s="8">
+        <v>36333</v>
+      </c>
+      <c r="E629" s="3"/>
+      <c r="F629" s="3"/>
+      <c r="G629" s="3"/>
+    </row>
+    <row r="630" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A630" s="7">
+        <v>44459</v>
+      </c>
+      <c r="B630" s="8">
+        <v>917</v>
+      </c>
+      <c r="C630" s="8">
+        <v>35943</v>
+      </c>
+      <c r="D630" s="8">
+        <v>201777</v>
+      </c>
+      <c r="E630" s="3"/>
+      <c r="F630" s="3"/>
+      <c r="G630" s="3"/>
+    </row>
+    <row r="631" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A631" s="7">
+        <v>44460</v>
+      </c>
+      <c r="B631" s="8">
+        <v>1178</v>
+      </c>
+      <c r="C631" s="8">
+        <v>31188</v>
+      </c>
+      <c r="D631" s="8">
+        <v>121236</v>
+      </c>
+      <c r="E631" s="3"/>
+      <c r="F631" s="3"/>
+      <c r="G631" s="3"/>
+    </row>
+    <row r="632" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A632" s="7">
+        <v>44461</v>
+      </c>
+      <c r="B632" s="8">
+        <v>1457</v>
+      </c>
+      <c r="C632" s="8">
+        <v>33829</v>
+      </c>
+      <c r="D632" s="8">
+        <v>132420</v>
+      </c>
+      <c r="E632" s="3"/>
+      <c r="F632" s="3"/>
+      <c r="G632" s="3"/>
+    </row>
+    <row r="633" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A633" s="7">
+        <v>44462</v>
+      </c>
+      <c r="B633" s="8">
+        <v>1504</v>
+      </c>
+      <c r="C633" s="8">
+        <v>35847</v>
+      </c>
+      <c r="D633" s="8">
+        <v>125838</v>
+      </c>
+      <c r="E633" s="3"/>
+      <c r="F633" s="3"/>
+      <c r="G633" s="3"/>
+    </row>
+    <row r="634" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A634" s="7">
+        <v>44463</v>
+      </c>
+      <c r="B634" s="8">
+        <v>1650</v>
+      </c>
+      <c r="C634" s="8">
+        <v>35716</v>
+      </c>
+      <c r="D634" s="8">
+        <v>177452</v>
+      </c>
+      <c r="E634" s="3"/>
+      <c r="F634" s="3"/>
+      <c r="G634" s="3"/>
+    </row>
+    <row r="635" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A635" s="7">
+        <v>44464</v>
+      </c>
+      <c r="B635" s="8">
+        <v>1443</v>
+      </c>
+      <c r="C635" s="8">
+        <v>29976</v>
+      </c>
+      <c r="D635" s="8">
+        <v>47532</v>
+      </c>
+      <c r="E635" s="3"/>
+      <c r="F635" s="3"/>
+      <c r="G635" s="3"/>
+    </row>
+    <row r="636" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A636" s="7">
+        <v>44465</v>
+      </c>
+      <c r="B636" s="8">
+        <v>1939</v>
+      </c>
+      <c r="C636" s="8">
+        <v>33068</v>
+      </c>
+      <c r="D636" s="8">
+        <v>30958</v>
+      </c>
+      <c r="E636" s="3"/>
+      <c r="F636" s="3"/>
+      <c r="G636" s="3"/>
+    </row>
+    <row r="637" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A637" s="7">
+        <v>44466</v>
+      </c>
+      <c r="B637" s="8">
+        <v>1647</v>
+      </c>
+      <c r="C637" s="8">
+        <v>37583</v>
+      </c>
+      <c r="D637" s="8">
+        <v>185016</v>
+      </c>
+      <c r="E637" s="3"/>
+      <c r="F637" s="3"/>
+      <c r="G637" s="3"/>
+    </row>
+    <row r="638" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A638" s="7">
+        <v>44467</v>
+      </c>
+      <c r="B638" s="8">
+        <v>2236</v>
+      </c>
+      <c r="C638" s="8">
+        <v>34847</v>
+      </c>
+      <c r="D638" s="8">
+        <v>109605</v>
+      </c>
+      <c r="E638" s="3"/>
+      <c r="F638" s="3"/>
+      <c r="G638" s="3"/>
+    </row>
+    <row r="639" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A639" s="7">
+        <v>44468</v>
+      </c>
+      <c r="B639" s="8">
+        <v>2268</v>
+      </c>
+      <c r="C639" s="8">
+        <v>35266</v>
+      </c>
+      <c r="D639" s="8">
+        <v>123267</v>
+      </c>
+      <c r="E639" s="3"/>
+      <c r="F639" s="3"/>
+      <c r="G639" s="3"/>
+    </row>
+    <row r="640" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A640" s="7">
+        <v>44469</v>
+      </c>
+      <c r="B640" s="8">
+        <v>2478</v>
+      </c>
+      <c r="C640" s="8">
+        <v>35833</v>
+      </c>
+      <c r="D640" s="8">
+        <v>110594</v>
+      </c>
+      <c r="E640" s="3"/>
+      <c r="F640" s="3"/>
+      <c r="G640" s="3"/>
+    </row>
+    <row r="641" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A641" s="7">
+        <v>44470</v>
+      </c>
+      <c r="B641" s="8">
+        <v>2909</v>
+      </c>
+      <c r="C641" s="8">
+        <v>34684</v>
+      </c>
+      <c r="D641" s="8">
+        <v>158284</v>
+      </c>
+      <c r="E641" s="3"/>
+      <c r="F641" s="3"/>
+      <c r="G641" s="3"/>
+    </row>
+    <row r="642" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A642" s="7">
+        <v>44471</v>
+      </c>
+      <c r="B642" s="8">
+        <v>2356</v>
+      </c>
+      <c r="C642" s="8">
+        <v>29520</v>
+      </c>
+      <c r="D642" s="8">
+        <v>39206</v>
+      </c>
+      <c r="E642" s="3"/>
+      <c r="F642" s="3"/>
+      <c r="G642" s="3"/>
+    </row>
+    <row r="643" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A643" s="7">
+        <v>44472</v>
+      </c>
+      <c r="B643" s="8">
+        <v>2057</v>
+      </c>
+      <c r="C643" s="8">
+        <v>29719</v>
+      </c>
+      <c r="D643" s="8">
+        <v>25215</v>
+      </c>
+      <c r="E643" s="3"/>
+      <c r="F643" s="3"/>
+      <c r="G643" s="3"/>
+    </row>
+    <row r="644" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A644" s="7">
+        <v>44473</v>
+      </c>
+      <c r="B644" s="8">
+        <v>2475</v>
+      </c>
+      <c r="C644" s="8">
+        <v>34502</v>
+      </c>
+      <c r="D644" s="8">
+        <v>169207</v>
+      </c>
+      <c r="E644" s="3"/>
+      <c r="F644" s="3"/>
+      <c r="G644" s="3"/>
+    </row>
+    <row r="645" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A645" s="7">
+        <v>44474</v>
+      </c>
+      <c r="B645" s="8">
+        <v>3486</v>
+      </c>
+      <c r="C645" s="8">
+        <v>33190</v>
+      </c>
+      <c r="D645" s="8">
+        <v>95234</v>
+      </c>
+      <c r="E645" s="3"/>
+      <c r="F645" s="3"/>
+      <c r="G645" s="3"/>
+    </row>
+    <row r="646" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A646" s="7">
+        <v>44475</v>
+      </c>
+      <c r="B646" s="8">
+        <v>3577</v>
+      </c>
+      <c r="C646" s="8">
+        <v>38922</v>
+      </c>
+      <c r="D646" s="8">
+        <v>111338</v>
+      </c>
+      <c r="E646" s="3"/>
+      <c r="F646" s="3"/>
+      <c r="G646" s="3"/>
+    </row>
+    <row r="647" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A647" s="7">
+        <v>44476</v>
+      </c>
+      <c r="B647" s="8">
+        <v>3483</v>
+      </c>
+      <c r="C647" s="8">
+        <v>39898</v>
+      </c>
+      <c r="D647" s="8">
+        <v>100083</v>
+      </c>
+      <c r="E647" s="3"/>
+      <c r="F647" s="3"/>
+      <c r="G647" s="3"/>
+    </row>
+    <row r="648" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A648" s="7">
+        <v>44477</v>
+      </c>
+      <c r="B648" s="8">
+        <v>3590</v>
+      </c>
+      <c r="C648" s="8">
+        <v>35120</v>
+      </c>
+      <c r="D648" s="8">
+        <v>131142</v>
+      </c>
+      <c r="E648" s="3"/>
+      <c r="F648" s="3"/>
+      <c r="G648" s="3"/>
+    </row>
+    <row r="649" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A649" s="7">
+        <v>44478</v>
+      </c>
+      <c r="B649" s="8">
+        <v>3703</v>
+      </c>
+      <c r="C649" s="8">
+        <v>39493</v>
+      </c>
+      <c r="D649" s="8">
+        <v>27937</v>
+      </c>
+      <c r="E649" s="3"/>
+      <c r="F649" s="3"/>
+      <c r="G649" s="3"/>
+    </row>
+    <row r="650" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A650" s="7">
+        <v>44479</v>
+      </c>
+      <c r="B650" s="8">
+        <v>2809</v>
+      </c>
+      <c r="C650" s="8">
+        <v>33654</v>
+      </c>
+      <c r="D650" s="8">
+        <v>22194</v>
+      </c>
+      <c r="E650" s="3"/>
+      <c r="F650" s="3"/>
+      <c r="G650" s="3"/>
+    </row>
+    <row r="651" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A651" s="7">
+        <v>44480</v>
+      </c>
+      <c r="B651" s="8">
+        <v>2263</v>
+      </c>
+      <c r="C651" s="8">
+        <v>39738</v>
+      </c>
+      <c r="D651" s="8">
+        <v>116202</v>
+      </c>
+      <c r="E651" s="3"/>
+      <c r="F651" s="3"/>
+      <c r="G651" s="3"/>
+    </row>
+    <row r="652" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A652" s="7">
+        <v>44481</v>
+      </c>
+      <c r="B652" s="8">
+        <v>2976</v>
+      </c>
+      <c r="C652" s="8">
+        <v>37855</v>
+      </c>
+      <c r="D652" s="8">
+        <v>106308</v>
+      </c>
+      <c r="E652" s="3"/>
+      <c r="F652" s="3"/>
+      <c r="G652" s="3"/>
+    </row>
+    <row r="653" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A653" s="7">
+        <v>44482</v>
+      </c>
+      <c r="B653" s="8">
+        <v>3190</v>
+      </c>
+      <c r="C653" s="8">
+        <v>41669</v>
+      </c>
+      <c r="D653" s="8">
+        <v>121457</v>
+      </c>
+      <c r="E653" s="3"/>
+      <c r="F653" s="3"/>
+      <c r="G653" s="3"/>
+    </row>
+    <row r="654" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A654" s="7">
+        <v>44483</v>
+      </c>
+      <c r="B654" s="8">
+        <v>2932</v>
+      </c>
+      <c r="C654" s="8">
+        <v>44745</v>
+      </c>
+      <c r="D654" s="8">
+        <v>83756</v>
+      </c>
+      <c r="E654" s="3"/>
+      <c r="F654" s="3"/>
+      <c r="G654" s="3"/>
+    </row>
+    <row r="655" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A655" s="7">
+        <v>44484</v>
+      </c>
+      <c r="B655" s="8">
+        <v>3445</v>
+      </c>
+      <c r="C655" s="8">
+        <v>44387</v>
+      </c>
+      <c r="D655" s="8">
+        <v>116962</v>
+      </c>
+      <c r="E655" s="3"/>
+      <c r="F655" s="3"/>
+      <c r="G655" s="3"/>
+    </row>
+    <row r="656" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A656" s="7">
+        <v>44485</v>
+      </c>
+      <c r="B656" s="8">
+        <v>3348</v>
+      </c>
+      <c r="C656" s="8">
+        <v>42899</v>
+      </c>
+      <c r="D656" s="8">
+        <v>31555</v>
+      </c>
+      <c r="E656" s="3"/>
+      <c r="F656" s="3"/>
+      <c r="G656" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -10186,12 +12581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ED72FD-5494-C74F-AA35-2584EC98895A}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
@@ -10431,18 +12828,88 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="14.4" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="4">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C18" s="4">
         <v>6.5</v>
       </c>
       <c r="D18" s="4">
         <v>5.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A19" s="11">
+        <v>44348</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D19" s="10">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A20" s="11">
+        <v>44378</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="C20" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A21" s="11">
+        <v>44409</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="C21" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A22" s="11">
+        <v>44440</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="C22" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A23" s="11">
+        <v>44470</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -10451,12 +12918,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89567EC-2E77-E54F-9B33-AF5738A75E26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D518"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
@@ -17716,12 +20183,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E9B1AF-9D5C-074D-B7C0-DAE66B1E6ED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D518"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
@@ -24981,12 +27448,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC466C-DA76-0540-9EDB-47DA63A6E05E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D518"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
@@ -32246,12 +34713,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5DB8E-D02B-7B49-ADF6-5B14A148658C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">

--- a/formated_data.xlsx
+++ b/formated_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tong\Desktop\FE5209\covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penghaochen/Dropbox/Master/2021_22 SEM1/FE5209/Project/covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37BCF1E-FF44-684A-9A0E-BA6DF4803709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="38460" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily New Cases" sheetId="1" r:id="rId1"/>
@@ -20,13 +21,26 @@
     <sheet name="Containment Health Index" sheetId="4" r:id="rId6"/>
     <sheet name="Economic Support Index" sheetId="5" r:id="rId7"/>
     <sheet name="Stringency Index" sheetId="6" r:id="rId8"/>
+    <sheet name="GRI Monthly" sheetId="9" r:id="rId9"/>
+    <sheet name="CHI Monthly" sheetId="10" r:id="rId10"/>
+    <sheet name="ESI Monthly" sheetId="11" r:id="rId11"/>
+    <sheet name="SI Monthly" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="21">
   <si>
     <t>Singapore</t>
   </si>
@@ -94,11 +108,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -125,6 +139,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -204,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -235,6 +256,10 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,34 +1419,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G640"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="A641" sqref="A641:G649"/>
+    <sheetView showGridLines="0" topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="D658" sqref="D658"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="12" width="8.796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.296875" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
     <col min="14" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="19" width="8.796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.19921875" style="1" customWidth="1"/>
+    <col min="17" max="19" width="8.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1640625" style="1" customWidth="1"/>
     <col min="21" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="26" width="8.796875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.296875" style="1" customWidth="1"/>
+    <col min="24" max="26" width="8.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" style="1" customWidth="1"/>
     <col min="28" max="30" width="9" style="1" customWidth="1"/>
-    <col min="31" max="32" width="8.796875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.296875" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.83203125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" style="1" customWidth="1"/>
     <col min="34" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.796875" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.796875" style="1"/>
+    <col min="37" max="37" width="8.83203125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1">
+    <row r="1" spans="1:7" ht="16" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1463,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="16.05" customHeight="1">
+    <row r="2" spans="1:7" ht="16" customHeight="1">
       <c r="A2" s="5">
         <v>43831</v>
       </c>
@@ -1455,7 +1480,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="16.05" customHeight="1">
+    <row r="3" spans="1:7" ht="16" customHeight="1">
       <c r="A3" s="5">
         <v>43832</v>
       </c>
@@ -1472,7 +1497,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="16.05" customHeight="1">
+    <row r="4" spans="1:7" ht="16" customHeight="1">
       <c r="A4" s="5">
         <v>43833</v>
       </c>
@@ -1489,7 +1514,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="16.05" customHeight="1">
+    <row r="5" spans="1:7" ht="16" customHeight="1">
       <c r="A5" s="5">
         <v>43834</v>
       </c>
@@ -1506,7 +1531,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="16.05" customHeight="1">
+    <row r="6" spans="1:7" ht="16" customHeight="1">
       <c r="A6" s="5">
         <v>43835</v>
       </c>
@@ -1523,7 +1548,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="16.05" customHeight="1">
+    <row r="7" spans="1:7" ht="16" customHeight="1">
       <c r="A7" s="5">
         <v>43836</v>
       </c>
@@ -1540,7 +1565,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="16.05" customHeight="1">
+    <row r="8" spans="1:7" ht="16" customHeight="1">
       <c r="A8" s="5">
         <v>43837</v>
       </c>
@@ -1557,7 +1582,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="16.05" customHeight="1">
+    <row r="9" spans="1:7" ht="16" customHeight="1">
       <c r="A9" s="5">
         <v>43838</v>
       </c>
@@ -1574,7 +1599,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="16.05" customHeight="1">
+    <row r="10" spans="1:7" ht="16" customHeight="1">
       <c r="A10" s="5">
         <v>43839</v>
       </c>
@@ -1591,7 +1616,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="16.05" customHeight="1">
+    <row r="11" spans="1:7" ht="16" customHeight="1">
       <c r="A11" s="5">
         <v>43840</v>
       </c>
@@ -1608,7 +1633,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="16.05" customHeight="1">
+    <row r="12" spans="1:7" ht="16" customHeight="1">
       <c r="A12" s="5">
         <v>43841</v>
       </c>
@@ -1625,7 +1650,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="16.05" customHeight="1">
+    <row r="13" spans="1:7" ht="16" customHeight="1">
       <c r="A13" s="5">
         <v>43842</v>
       </c>
@@ -1642,7 +1667,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="16.05" customHeight="1">
+    <row r="14" spans="1:7" ht="16" customHeight="1">
       <c r="A14" s="5">
         <v>43843</v>
       </c>
@@ -1659,7 +1684,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="16.05" customHeight="1">
+    <row r="15" spans="1:7" ht="16" customHeight="1">
       <c r="A15" s="5">
         <v>43844</v>
       </c>
@@ -1676,7 +1701,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="16.05" customHeight="1">
+    <row r="16" spans="1:7" ht="16" customHeight="1">
       <c r="A16" s="5">
         <v>43845</v>
       </c>
@@ -1693,7 +1718,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="16.05" customHeight="1">
+    <row r="17" spans="1:7" ht="16" customHeight="1">
       <c r="A17" s="5">
         <v>43846</v>
       </c>
@@ -1710,7 +1735,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="16.05" customHeight="1">
+    <row r="18" spans="1:7" ht="16" customHeight="1">
       <c r="A18" s="5">
         <v>43847</v>
       </c>
@@ -1727,7 +1752,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="16.05" customHeight="1">
+    <row r="19" spans="1:7" ht="16" customHeight="1">
       <c r="A19" s="5">
         <v>43848</v>
       </c>
@@ -1744,7 +1769,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="16.05" customHeight="1">
+    <row r="20" spans="1:7" ht="16" customHeight="1">
       <c r="A20" s="5">
         <v>43849</v>
       </c>
@@ -1761,7 +1786,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="16.05" customHeight="1">
+    <row r="21" spans="1:7" ht="16" customHeight="1">
       <c r="A21" s="5">
         <v>43850</v>
       </c>
@@ -1778,7 +1803,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="16.05" customHeight="1">
+    <row r="22" spans="1:7" ht="16" customHeight="1">
       <c r="A22" s="5">
         <v>43851</v>
       </c>
@@ -1795,7 +1820,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="16.05" customHeight="1">
+    <row r="23" spans="1:7" ht="16" customHeight="1">
       <c r="A23" s="5">
         <v>43852</v>
       </c>
@@ -1812,7 +1837,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16.05" customHeight="1">
+    <row r="24" spans="1:7" ht="16" customHeight="1">
       <c r="A24" s="5">
         <v>43853</v>
       </c>
@@ -1829,7 +1854,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="16.05" customHeight="1">
+    <row r="25" spans="1:7" ht="16" customHeight="1">
       <c r="A25" s="5">
         <v>43854</v>
       </c>
@@ -1846,7 +1871,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="16.05" customHeight="1">
+    <row r="26" spans="1:7" ht="16" customHeight="1">
       <c r="A26" s="5">
         <v>43855</v>
       </c>
@@ -1863,7 +1888,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="16.05" customHeight="1">
+    <row r="27" spans="1:7" ht="16" customHeight="1">
       <c r="A27" s="5">
         <v>43856</v>
       </c>
@@ -1880,7 +1905,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="16.05" customHeight="1">
+    <row r="28" spans="1:7" ht="16" customHeight="1">
       <c r="A28" s="5">
         <v>43857</v>
       </c>
@@ -1897,7 +1922,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="16.05" customHeight="1">
+    <row r="29" spans="1:7" ht="16" customHeight="1">
       <c r="A29" s="5">
         <v>43858</v>
       </c>
@@ -1914,7 +1939,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="16.05" customHeight="1">
+    <row r="30" spans="1:7" ht="16" customHeight="1">
       <c r="A30" s="5">
         <v>43859</v>
       </c>
@@ -1931,7 +1956,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="16.05" customHeight="1">
+    <row r="31" spans="1:7" ht="16" customHeight="1">
       <c r="A31" s="5">
         <v>43860</v>
       </c>
@@ -1948,7 +1973,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="16.05" customHeight="1">
+    <row r="32" spans="1:7" ht="16" customHeight="1">
       <c r="A32" s="5">
         <v>43861</v>
       </c>
@@ -1965,7 +1990,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="16.05" customHeight="1">
+    <row r="33" spans="1:7" ht="16" customHeight="1">
       <c r="A33" s="5">
         <v>43862</v>
       </c>
@@ -1982,7 +2007,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="16.05" customHeight="1">
+    <row r="34" spans="1:7" ht="16" customHeight="1">
       <c r="A34" s="5">
         <v>43863</v>
       </c>
@@ -1999,7 +2024,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="16.05" customHeight="1">
+    <row r="35" spans="1:7" ht="16" customHeight="1">
       <c r="A35" s="5">
         <v>43864</v>
       </c>
@@ -2016,7 +2041,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.05" customHeight="1">
+    <row r="36" spans="1:7" ht="16" customHeight="1">
       <c r="A36" s="5">
         <v>43865</v>
       </c>
@@ -2033,7 +2058,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16.05" customHeight="1">
+    <row r="37" spans="1:7" ht="16" customHeight="1">
       <c r="A37" s="5">
         <v>43866</v>
       </c>
@@ -2050,7 +2075,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16.05" customHeight="1">
+    <row r="38" spans="1:7" ht="16" customHeight="1">
       <c r="A38" s="5">
         <v>43867</v>
       </c>
@@ -2067,7 +2092,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16.05" customHeight="1">
+    <row r="39" spans="1:7" ht="16" customHeight="1">
       <c r="A39" s="5">
         <v>43868</v>
       </c>
@@ -2084,7 +2109,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16.05" customHeight="1">
+    <row r="40" spans="1:7" ht="16" customHeight="1">
       <c r="A40" s="5">
         <v>43869</v>
       </c>
@@ -2101,7 +2126,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="16.05" customHeight="1">
+    <row r="41" spans="1:7" ht="16" customHeight="1">
       <c r="A41" s="5">
         <v>43870</v>
       </c>
@@ -2118,7 +2143,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="16.05" customHeight="1">
+    <row r="42" spans="1:7" ht="16" customHeight="1">
       <c r="A42" s="5">
         <v>43871</v>
       </c>
@@ -2135,7 +2160,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="16.05" customHeight="1">
+    <row r="43" spans="1:7" ht="16" customHeight="1">
       <c r="A43" s="5">
         <v>43872</v>
       </c>
@@ -2152,7 +2177,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="16.05" customHeight="1">
+    <row r="44" spans="1:7" ht="16" customHeight="1">
       <c r="A44" s="5">
         <v>43873</v>
       </c>
@@ -2169,7 +2194,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="16.05" customHeight="1">
+    <row r="45" spans="1:7" ht="16" customHeight="1">
       <c r="A45" s="5">
         <v>43874</v>
       </c>
@@ -2186,7 +2211,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="16.05" customHeight="1">
+    <row r="46" spans="1:7" ht="16" customHeight="1">
       <c r="A46" s="5">
         <v>43875</v>
       </c>
@@ -2203,7 +2228,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="16.05" customHeight="1">
+    <row r="47" spans="1:7" ht="16" customHeight="1">
       <c r="A47" s="5">
         <v>43876</v>
       </c>
@@ -2220,7 +2245,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="16.05" customHeight="1">
+    <row r="48" spans="1:7" ht="16" customHeight="1">
       <c r="A48" s="5">
         <v>43877</v>
       </c>
@@ -2237,7 +2262,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="16.05" customHeight="1">
+    <row r="49" spans="1:7" ht="16" customHeight="1">
       <c r="A49" s="5">
         <v>43878</v>
       </c>
@@ -2254,7 +2279,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="16.05" customHeight="1">
+    <row r="50" spans="1:7" ht="16" customHeight="1">
       <c r="A50" s="5">
         <v>43879</v>
       </c>
@@ -2271,7 +2296,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="16.05" customHeight="1">
+    <row r="51" spans="1:7" ht="16" customHeight="1">
       <c r="A51" s="5">
         <v>43880</v>
       </c>
@@ -2288,7 +2313,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="16.05" customHeight="1">
+    <row r="52" spans="1:7" ht="16" customHeight="1">
       <c r="A52" s="5">
         <v>43881</v>
       </c>
@@ -2305,7 +2330,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="16.05" customHeight="1">
+    <row r="53" spans="1:7" ht="16" customHeight="1">
       <c r="A53" s="5">
         <v>43882</v>
       </c>
@@ -2322,7 +2347,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="16.05" customHeight="1">
+    <row r="54" spans="1:7" ht="16" customHeight="1">
       <c r="A54" s="5">
         <v>43883</v>
       </c>
@@ -2339,7 +2364,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="16.05" customHeight="1">
+    <row r="55" spans="1:7" ht="16" customHeight="1">
       <c r="A55" s="5">
         <v>43884</v>
       </c>
@@ -2356,7 +2381,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="16.05" customHeight="1">
+    <row r="56" spans="1:7" ht="16" customHeight="1">
       <c r="A56" s="5">
         <v>43885</v>
       </c>
@@ -2373,7 +2398,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="16.05" customHeight="1">
+    <row r="57" spans="1:7" ht="16" customHeight="1">
       <c r="A57" s="5">
         <v>43886</v>
       </c>
@@ -2390,7 +2415,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="16.05" customHeight="1">
+    <row r="58" spans="1:7" ht="16" customHeight="1">
       <c r="A58" s="5">
         <v>43887</v>
       </c>
@@ -2407,7 +2432,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="16.05" customHeight="1">
+    <row r="59" spans="1:7" ht="16" customHeight="1">
       <c r="A59" s="5">
         <v>43888</v>
       </c>
@@ -2424,7 +2449,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="16.05" customHeight="1">
+    <row r="60" spans="1:7" ht="16" customHeight="1">
       <c r="A60" s="5">
         <v>43889</v>
       </c>
@@ -2441,7 +2466,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="16.05" customHeight="1">
+    <row r="61" spans="1:7" ht="16" customHeight="1">
       <c r="A61" s="5">
         <v>43890</v>
       </c>
@@ -2458,7 +2483,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" ht="16.05" customHeight="1">
+    <row r="62" spans="1:7" ht="16" customHeight="1">
       <c r="A62" s="5">
         <v>43891</v>
       </c>
@@ -2475,7 +2500,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" ht="16.05" customHeight="1">
+    <row r="63" spans="1:7" ht="16" customHeight="1">
       <c r="A63" s="5">
         <v>43892</v>
       </c>
@@ -2492,7 +2517,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" ht="16.05" customHeight="1">
+    <row r="64" spans="1:7" ht="16" customHeight="1">
       <c r="A64" s="5">
         <v>43893</v>
       </c>
@@ -2509,7 +2534,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="16.05" customHeight="1">
+    <row r="65" spans="1:7" ht="16" customHeight="1">
       <c r="A65" s="5">
         <v>43894</v>
       </c>
@@ -2526,7 +2551,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="16.05" customHeight="1">
+    <row r="66" spans="1:7" ht="16" customHeight="1">
       <c r="A66" s="5">
         <v>43895</v>
       </c>
@@ -2543,7 +2568,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" ht="16.05" customHeight="1">
+    <row r="67" spans="1:7" ht="16" customHeight="1">
       <c r="A67" s="5">
         <v>43896</v>
       </c>
@@ -2560,7 +2585,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="16.05" customHeight="1">
+    <row r="68" spans="1:7" ht="16" customHeight="1">
       <c r="A68" s="5">
         <v>43897</v>
       </c>
@@ -2577,7 +2602,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="16.05" customHeight="1">
+    <row r="69" spans="1:7" ht="16" customHeight="1">
       <c r="A69" s="5">
         <v>43898</v>
       </c>
@@ -2594,7 +2619,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="16.05" customHeight="1">
+    <row r="70" spans="1:7" ht="16" customHeight="1">
       <c r="A70" s="5">
         <v>43899</v>
       </c>
@@ -2611,7 +2636,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="16.05" customHeight="1">
+    <row r="71" spans="1:7" ht="16" customHeight="1">
       <c r="A71" s="5">
         <v>43900</v>
       </c>
@@ -2628,7 +2653,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="16.05" customHeight="1">
+    <row r="72" spans="1:7" ht="16" customHeight="1">
       <c r="A72" s="5">
         <v>43901</v>
       </c>
@@ -2645,7 +2670,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="16.05" customHeight="1">
+    <row r="73" spans="1:7" ht="16" customHeight="1">
       <c r="A73" s="5">
         <v>43902</v>
       </c>
@@ -2662,7 +2687,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="16.05" customHeight="1">
+    <row r="74" spans="1:7" ht="16" customHeight="1">
       <c r="A74" s="5">
         <v>43903</v>
       </c>
@@ -2679,7 +2704,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="16.05" customHeight="1">
+    <row r="75" spans="1:7" ht="16" customHeight="1">
       <c r="A75" s="5">
         <v>43904</v>
       </c>
@@ -2696,7 +2721,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="16.05" customHeight="1">
+    <row r="76" spans="1:7" ht="16" customHeight="1">
       <c r="A76" s="5">
         <v>43905</v>
       </c>
@@ -2713,7 +2738,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" ht="16.05" customHeight="1">
+    <row r="77" spans="1:7" ht="16" customHeight="1">
       <c r="A77" s="5">
         <v>43906</v>
       </c>
@@ -2730,7 +2755,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="16.05" customHeight="1">
+    <row r="78" spans="1:7" ht="16" customHeight="1">
       <c r="A78" s="5">
         <v>43907</v>
       </c>
@@ -2747,7 +2772,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="16.05" customHeight="1">
+    <row r="79" spans="1:7" ht="16" customHeight="1">
       <c r="A79" s="5">
         <v>43908</v>
       </c>
@@ -2764,7 +2789,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="16.05" customHeight="1">
+    <row r="80" spans="1:7" ht="16" customHeight="1">
       <c r="A80" s="5">
         <v>43909</v>
       </c>
@@ -2781,7 +2806,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="16.05" customHeight="1">
+    <row r="81" spans="1:7" ht="16" customHeight="1">
       <c r="A81" s="5">
         <v>43910</v>
       </c>
@@ -2798,7 +2823,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="16.05" customHeight="1">
+    <row r="82" spans="1:7" ht="16" customHeight="1">
       <c r="A82" s="5">
         <v>43911</v>
       </c>
@@ -2815,7 +2840,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="16.05" customHeight="1">
+    <row r="83" spans="1:7" ht="16" customHeight="1">
       <c r="A83" s="5">
         <v>43912</v>
       </c>
@@ -2832,7 +2857,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="16.05" customHeight="1">
+    <row r="84" spans="1:7" ht="16" customHeight="1">
       <c r="A84" s="5">
         <v>43913</v>
       </c>
@@ -2849,7 +2874,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="16.05" customHeight="1">
+    <row r="85" spans="1:7" ht="16" customHeight="1">
       <c r="A85" s="5">
         <v>43914</v>
       </c>
@@ -2866,7 +2891,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="16.05" customHeight="1">
+    <row r="86" spans="1:7" ht="16" customHeight="1">
       <c r="A86" s="5">
         <v>43915</v>
       </c>
@@ -2883,7 +2908,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="16.05" customHeight="1">
+    <row r="87" spans="1:7" ht="16" customHeight="1">
       <c r="A87" s="5">
         <v>43916</v>
       </c>
@@ -2900,7 +2925,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="16.05" customHeight="1">
+    <row r="88" spans="1:7" ht="16" customHeight="1">
       <c r="A88" s="5">
         <v>43917</v>
       </c>
@@ -2917,7 +2942,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="16.05" customHeight="1">
+    <row r="89" spans="1:7" ht="16" customHeight="1">
       <c r="A89" s="5">
         <v>43918</v>
       </c>
@@ -2934,7 +2959,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="16.05" customHeight="1">
+    <row r="90" spans="1:7" ht="16" customHeight="1">
       <c r="A90" s="5">
         <v>43919</v>
       </c>
@@ -2951,7 +2976,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="16.05" customHeight="1">
+    <row r="91" spans="1:7" ht="16" customHeight="1">
       <c r="A91" s="5">
         <v>43920</v>
       </c>
@@ -2968,7 +2993,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="16.05" customHeight="1">
+    <row r="92" spans="1:7" ht="16" customHeight="1">
       <c r="A92" s="5">
         <v>43921</v>
       </c>
@@ -2985,7 +3010,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="16.05" customHeight="1">
+    <row r="93" spans="1:7" ht="16" customHeight="1">
       <c r="A93" s="5">
         <v>43922</v>
       </c>
@@ -3002,7 +3027,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="16.05" customHeight="1">
+    <row r="94" spans="1:7" ht="16" customHeight="1">
       <c r="A94" s="5">
         <v>43923</v>
       </c>
@@ -3019,7 +3044,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="16.05" customHeight="1">
+    <row r="95" spans="1:7" ht="16" customHeight="1">
       <c r="A95" s="5">
         <v>43924</v>
       </c>
@@ -3036,7 +3061,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" ht="16.05" customHeight="1">
+    <row r="96" spans="1:7" ht="16" customHeight="1">
       <c r="A96" s="5">
         <v>43925</v>
       </c>
@@ -3053,7 +3078,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" ht="16.05" customHeight="1">
+    <row r="97" spans="1:7" ht="16" customHeight="1">
       <c r="A97" s="5">
         <v>43926</v>
       </c>
@@ -3070,7 +3095,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" ht="16.05" customHeight="1">
+    <row r="98" spans="1:7" ht="16" customHeight="1">
       <c r="A98" s="5">
         <v>43927</v>
       </c>
@@ -3087,7 +3112,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" ht="16.05" customHeight="1">
+    <row r="99" spans="1:7" ht="16" customHeight="1">
       <c r="A99" s="5">
         <v>43928</v>
       </c>
@@ -3104,7 +3129,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" ht="16.05" customHeight="1">
+    <row r="100" spans="1:7" ht="16" customHeight="1">
       <c r="A100" s="5">
         <v>43929</v>
       </c>
@@ -3121,7 +3146,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" ht="16.05" customHeight="1">
+    <row r="101" spans="1:7" ht="16" customHeight="1">
       <c r="A101" s="5">
         <v>43930</v>
       </c>
@@ -3138,7 +3163,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="16.05" customHeight="1">
+    <row r="102" spans="1:7" ht="16" customHeight="1">
       <c r="A102" s="5">
         <v>43931</v>
       </c>
@@ -3155,7 +3180,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" ht="16.05" customHeight="1">
+    <row r="103" spans="1:7" ht="16" customHeight="1">
       <c r="A103" s="5">
         <v>43932</v>
       </c>
@@ -3172,7 +3197,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" ht="16.05" customHeight="1">
+    <row r="104" spans="1:7" ht="16" customHeight="1">
       <c r="A104" s="5">
         <v>43933</v>
       </c>
@@ -3189,7 +3214,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" ht="16.05" customHeight="1">
+    <row r="105" spans="1:7" ht="16" customHeight="1">
       <c r="A105" s="5">
         <v>43934</v>
       </c>
@@ -3206,7 +3231,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" ht="16.05" customHeight="1">
+    <row r="106" spans="1:7" ht="16" customHeight="1">
       <c r="A106" s="5">
         <v>43935</v>
       </c>
@@ -3223,7 +3248,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" ht="16.05" customHeight="1">
+    <row r="107" spans="1:7" ht="16" customHeight="1">
       <c r="A107" s="5">
         <v>43936</v>
       </c>
@@ -3240,7 +3265,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" ht="16.05" customHeight="1">
+    <row r="108" spans="1:7" ht="16" customHeight="1">
       <c r="A108" s="5">
         <v>43937</v>
       </c>
@@ -3257,7 +3282,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" ht="16.05" customHeight="1">
+    <row r="109" spans="1:7" ht="16" customHeight="1">
       <c r="A109" s="5">
         <v>43938</v>
       </c>
@@ -3274,7 +3299,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" ht="16.05" customHeight="1">
+    <row r="110" spans="1:7" ht="16" customHeight="1">
       <c r="A110" s="5">
         <v>43939</v>
       </c>
@@ -3291,7 +3316,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" ht="16.05" customHeight="1">
+    <row r="111" spans="1:7" ht="16" customHeight="1">
       <c r="A111" s="5">
         <v>43940</v>
       </c>
@@ -3308,7 +3333,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" ht="16.05" customHeight="1">
+    <row r="112" spans="1:7" ht="16" customHeight="1">
       <c r="A112" s="5">
         <v>43941</v>
       </c>
@@ -3325,7 +3350,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" ht="16.05" customHeight="1">
+    <row r="113" spans="1:7" ht="16" customHeight="1">
       <c r="A113" s="5">
         <v>43942</v>
       </c>
@@ -3342,7 +3367,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" ht="16.05" customHeight="1">
+    <row r="114" spans="1:7" ht="16" customHeight="1">
       <c r="A114" s="5">
         <v>43943</v>
       </c>
@@ -3359,7 +3384,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" ht="16.05" customHeight="1">
+    <row r="115" spans="1:7" ht="16" customHeight="1">
       <c r="A115" s="5">
         <v>43944</v>
       </c>
@@ -3376,7 +3401,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" ht="16.05" customHeight="1">
+    <row r="116" spans="1:7" ht="16" customHeight="1">
       <c r="A116" s="5">
         <v>43945</v>
       </c>
@@ -3393,7 +3418,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" ht="16.05" customHeight="1">
+    <row r="117" spans="1:7" ht="16" customHeight="1">
       <c r="A117" s="5">
         <v>43946</v>
       </c>
@@ -3410,7 +3435,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" ht="16.05" customHeight="1">
+    <row r="118" spans="1:7" ht="16" customHeight="1">
       <c r="A118" s="5">
         <v>43947</v>
       </c>
@@ -3427,7 +3452,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" ht="16.05" customHeight="1">
+    <row r="119" spans="1:7" ht="16" customHeight="1">
       <c r="A119" s="5">
         <v>43948</v>
       </c>
@@ -3444,7 +3469,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" ht="16.05" customHeight="1">
+    <row r="120" spans="1:7" ht="16" customHeight="1">
       <c r="A120" s="5">
         <v>43949</v>
       </c>
@@ -3461,7 +3486,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" ht="16.05" customHeight="1">
+    <row r="121" spans="1:7" ht="16" customHeight="1">
       <c r="A121" s="5">
         <v>43950</v>
       </c>
@@ -3478,7 +3503,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" ht="16.05" customHeight="1">
+    <row r="122" spans="1:7" ht="16" customHeight="1">
       <c r="A122" s="5">
         <v>43951</v>
       </c>
@@ -3495,7 +3520,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" ht="16.05" customHeight="1">
+    <row r="123" spans="1:7" ht="16" customHeight="1">
       <c r="A123" s="5">
         <v>43952</v>
       </c>
@@ -3512,7 +3537,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" ht="16.05" customHeight="1">
+    <row r="124" spans="1:7" ht="16" customHeight="1">
       <c r="A124" s="5">
         <v>43953</v>
       </c>
@@ -3529,7 +3554,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" ht="16.05" customHeight="1">
+    <row r="125" spans="1:7" ht="16" customHeight="1">
       <c r="A125" s="5">
         <v>43954</v>
       </c>
@@ -3546,7 +3571,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" ht="16.05" customHeight="1">
+    <row r="126" spans="1:7" ht="16" customHeight="1">
       <c r="A126" s="5">
         <v>43955</v>
       </c>
@@ -3563,7 +3588,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" ht="16.05" customHeight="1">
+    <row r="127" spans="1:7" ht="16" customHeight="1">
       <c r="A127" s="5">
         <v>43956</v>
       </c>
@@ -3580,7 +3605,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" ht="16.05" customHeight="1">
+    <row r="128" spans="1:7" ht="16" customHeight="1">
       <c r="A128" s="5">
         <v>43957</v>
       </c>
@@ -3597,7 +3622,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" ht="16.05" customHeight="1">
+    <row r="129" spans="1:7" ht="16" customHeight="1">
       <c r="A129" s="5">
         <v>43958</v>
       </c>
@@ -3614,7 +3639,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" ht="16.05" customHeight="1">
+    <row r="130" spans="1:7" ht="16" customHeight="1">
       <c r="A130" s="5">
         <v>43959</v>
       </c>
@@ -3631,7 +3656,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" ht="16.05" customHeight="1">
+    <row r="131" spans="1:7" ht="16" customHeight="1">
       <c r="A131" s="5">
         <v>43960</v>
       </c>
@@ -3648,7 +3673,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" ht="16.05" customHeight="1">
+    <row r="132" spans="1:7" ht="16" customHeight="1">
       <c r="A132" s="5">
         <v>43961</v>
       </c>
@@ -3665,7 +3690,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" ht="16.05" customHeight="1">
+    <row r="133" spans="1:7" ht="16" customHeight="1">
       <c r="A133" s="5">
         <v>43962</v>
       </c>
@@ -3682,7 +3707,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" ht="16.05" customHeight="1">
+    <row r="134" spans="1:7" ht="16" customHeight="1">
       <c r="A134" s="5">
         <v>43963</v>
       </c>
@@ -3699,7 +3724,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" ht="16.05" customHeight="1">
+    <row r="135" spans="1:7" ht="16" customHeight="1">
       <c r="A135" s="5">
         <v>43964</v>
       </c>
@@ -3716,7 +3741,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" ht="16.05" customHeight="1">
+    <row r="136" spans="1:7" ht="16" customHeight="1">
       <c r="A136" s="5">
         <v>43965</v>
       </c>
@@ -3733,7 +3758,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" ht="16.05" customHeight="1">
+    <row r="137" spans="1:7" ht="16" customHeight="1">
       <c r="A137" s="5">
         <v>43966</v>
       </c>
@@ -3750,7 +3775,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" ht="16.05" customHeight="1">
+    <row r="138" spans="1:7" ht="16" customHeight="1">
       <c r="A138" s="5">
         <v>43967</v>
       </c>
@@ -3767,7 +3792,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" ht="16.05" customHeight="1">
+    <row r="139" spans="1:7" ht="16" customHeight="1">
       <c r="A139" s="5">
         <v>43968</v>
       </c>
@@ -3784,7 +3809,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" ht="16.05" customHeight="1">
+    <row r="140" spans="1:7" ht="16" customHeight="1">
       <c r="A140" s="5">
         <v>43969</v>
       </c>
@@ -3801,7 +3826,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" ht="16.05" customHeight="1">
+    <row r="141" spans="1:7" ht="16" customHeight="1">
       <c r="A141" s="5">
         <v>43970</v>
       </c>
@@ -3818,7 +3843,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" ht="16.05" customHeight="1">
+    <row r="142" spans="1:7" ht="16" customHeight="1">
       <c r="A142" s="5">
         <v>43971</v>
       </c>
@@ -3835,7 +3860,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" ht="16.05" customHeight="1">
+    <row r="143" spans="1:7" ht="16" customHeight="1">
       <c r="A143" s="5">
         <v>43972</v>
       </c>
@@ -3852,7 +3877,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" ht="16.05" customHeight="1">
+    <row r="144" spans="1:7" ht="16" customHeight="1">
       <c r="A144" s="5">
         <v>43973</v>
       </c>
@@ -3869,7 +3894,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" ht="16.05" customHeight="1">
+    <row r="145" spans="1:7" ht="16" customHeight="1">
       <c r="A145" s="5">
         <v>43974</v>
       </c>
@@ -3886,7 +3911,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" ht="16.05" customHeight="1">
+    <row r="146" spans="1:7" ht="16" customHeight="1">
       <c r="A146" s="5">
         <v>43975</v>
       </c>
@@ -3903,7 +3928,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" ht="16.05" customHeight="1">
+    <row r="147" spans="1:7" ht="16" customHeight="1">
       <c r="A147" s="5">
         <v>43976</v>
       </c>
@@ -3920,7 +3945,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" ht="16.05" customHeight="1">
+    <row r="148" spans="1:7" ht="16" customHeight="1">
       <c r="A148" s="5">
         <v>43977</v>
       </c>
@@ -3937,7 +3962,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" ht="16.05" customHeight="1">
+    <row r="149" spans="1:7" ht="16" customHeight="1">
       <c r="A149" s="5">
         <v>43978</v>
       </c>
@@ -3954,7 +3979,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" ht="16.05" customHeight="1">
+    <row r="150" spans="1:7" ht="16" customHeight="1">
       <c r="A150" s="5">
         <v>43979</v>
       </c>
@@ -3971,7 +3996,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" ht="16.05" customHeight="1">
+    <row r="151" spans="1:7" ht="16" customHeight="1">
       <c r="A151" s="5">
         <v>43980</v>
       </c>
@@ -3988,7 +4013,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" ht="16.05" customHeight="1">
+    <row r="152" spans="1:7" ht="16" customHeight="1">
       <c r="A152" s="5">
         <v>43981</v>
       </c>
@@ -4005,7 +4030,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" ht="16.05" customHeight="1">
+    <row r="153" spans="1:7" ht="16" customHeight="1">
       <c r="A153" s="5">
         <v>43982</v>
       </c>
@@ -4022,7 +4047,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" ht="16.05" customHeight="1">
+    <row r="154" spans="1:7" ht="16" customHeight="1">
       <c r="A154" s="5">
         <v>43983</v>
       </c>
@@ -4039,7 +4064,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" ht="16.05" customHeight="1">
+    <row r="155" spans="1:7" ht="16" customHeight="1">
       <c r="A155" s="5">
         <v>43984</v>
       </c>
@@ -4056,7 +4081,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" ht="16.05" customHeight="1">
+    <row r="156" spans="1:7" ht="16" customHeight="1">
       <c r="A156" s="5">
         <v>43985</v>
       </c>
@@ -4073,7 +4098,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" ht="16.05" customHeight="1">
+    <row r="157" spans="1:7" ht="16" customHeight="1">
       <c r="A157" s="5">
         <v>43986</v>
       </c>
@@ -4090,7 +4115,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" ht="16.05" customHeight="1">
+    <row r="158" spans="1:7" ht="16" customHeight="1">
       <c r="A158" s="5">
         <v>43987</v>
       </c>
@@ -4107,7 +4132,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" ht="16.05" customHeight="1">
+    <row r="159" spans="1:7" ht="16" customHeight="1">
       <c r="A159" s="5">
         <v>43988</v>
       </c>
@@ -4124,7 +4149,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" ht="16.05" customHeight="1">
+    <row r="160" spans="1:7" ht="16" customHeight="1">
       <c r="A160" s="5">
         <v>43989</v>
       </c>
@@ -4141,7 +4166,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" ht="16.05" customHeight="1">
+    <row r="161" spans="1:7" ht="16" customHeight="1">
       <c r="A161" s="5">
         <v>43990</v>
       </c>
@@ -4158,7 +4183,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" ht="16.05" customHeight="1">
+    <row r="162" spans="1:7" ht="16" customHeight="1">
       <c r="A162" s="5">
         <v>43991</v>
       </c>
@@ -4175,7 +4200,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" ht="16.05" customHeight="1">
+    <row r="163" spans="1:7" ht="16" customHeight="1">
       <c r="A163" s="5">
         <v>43992</v>
       </c>
@@ -4192,7 +4217,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" ht="16.05" customHeight="1">
+    <row r="164" spans="1:7" ht="16" customHeight="1">
       <c r="A164" s="5">
         <v>43993</v>
       </c>
@@ -4209,7 +4234,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" ht="16.05" customHeight="1">
+    <row r="165" spans="1:7" ht="16" customHeight="1">
       <c r="A165" s="5">
         <v>43994</v>
       </c>
@@ -4226,7 +4251,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" ht="16.05" customHeight="1">
+    <row r="166" spans="1:7" ht="16" customHeight="1">
       <c r="A166" s="5">
         <v>43995</v>
       </c>
@@ -4243,7 +4268,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" ht="16.05" customHeight="1">
+    <row r="167" spans="1:7" ht="16" customHeight="1">
       <c r="A167" s="5">
         <v>43996</v>
       </c>
@@ -4260,7 +4285,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" ht="16.05" customHeight="1">
+    <row r="168" spans="1:7" ht="16" customHeight="1">
       <c r="A168" s="5">
         <v>43997</v>
       </c>
@@ -4277,7 +4302,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" ht="16.05" customHeight="1">
+    <row r="169" spans="1:7" ht="16" customHeight="1">
       <c r="A169" s="5">
         <v>43998</v>
       </c>
@@ -4294,7 +4319,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" ht="16.05" customHeight="1">
+    <row r="170" spans="1:7" ht="16" customHeight="1">
       <c r="A170" s="5">
         <v>43999</v>
       </c>
@@ -4311,7 +4336,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" ht="16.05" customHeight="1">
+    <row r="171" spans="1:7" ht="16" customHeight="1">
       <c r="A171" s="5">
         <v>44000</v>
       </c>
@@ -4328,7 +4353,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" ht="16.05" customHeight="1">
+    <row r="172" spans="1:7" ht="16" customHeight="1">
       <c r="A172" s="5">
         <v>44001</v>
       </c>
@@ -4345,7 +4370,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" ht="16.05" customHeight="1">
+    <row r="173" spans="1:7" ht="16" customHeight="1">
       <c r="A173" s="5">
         <v>44002</v>
       </c>
@@ -4362,7 +4387,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" ht="16.05" customHeight="1">
+    <row r="174" spans="1:7" ht="16" customHeight="1">
       <c r="A174" s="5">
         <v>44003</v>
       </c>
@@ -4379,7 +4404,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" ht="16.05" customHeight="1">
+    <row r="175" spans="1:7" ht="16" customHeight="1">
       <c r="A175" s="5">
         <v>44004</v>
       </c>
@@ -4396,7 +4421,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" ht="16.05" customHeight="1">
+    <row r="176" spans="1:7" ht="16" customHeight="1">
       <c r="A176" s="5">
         <v>44005</v>
       </c>
@@ -4413,7 +4438,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" ht="16.05" customHeight="1">
+    <row r="177" spans="1:7" ht="16" customHeight="1">
       <c r="A177" s="5">
         <v>44006</v>
       </c>
@@ -4430,7 +4455,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" ht="16.05" customHeight="1">
+    <row r="178" spans="1:7" ht="16" customHeight="1">
       <c r="A178" s="5">
         <v>44007</v>
       </c>
@@ -4447,7 +4472,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" ht="16.05" customHeight="1">
+    <row r="179" spans="1:7" ht="16" customHeight="1">
       <c r="A179" s="5">
         <v>44008</v>
       </c>
@@ -4464,7 +4489,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" ht="16.05" customHeight="1">
+    <row r="180" spans="1:7" ht="16" customHeight="1">
       <c r="A180" s="5">
         <v>44009</v>
       </c>
@@ -4481,7 +4506,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" ht="16.05" customHeight="1">
+    <row r="181" spans="1:7" ht="16" customHeight="1">
       <c r="A181" s="5">
         <v>44010</v>
       </c>
@@ -4498,7 +4523,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" ht="16.05" customHeight="1">
+    <row r="182" spans="1:7" ht="16" customHeight="1">
       <c r="A182" s="5">
         <v>44011</v>
       </c>
@@ -4515,7 +4540,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" ht="16.05" customHeight="1">
+    <row r="183" spans="1:7" ht="16" customHeight="1">
       <c r="A183" s="5">
         <v>44012</v>
       </c>
@@ -4532,7 +4557,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" ht="16.05" customHeight="1">
+    <row r="184" spans="1:7" ht="16" customHeight="1">
       <c r="A184" s="5">
         <v>44013</v>
       </c>
@@ -4549,7 +4574,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" ht="16.05" customHeight="1">
+    <row r="185" spans="1:7" ht="16" customHeight="1">
       <c r="A185" s="5">
         <v>44014</v>
       </c>
@@ -4566,7 +4591,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" ht="16.05" customHeight="1">
+    <row r="186" spans="1:7" ht="16" customHeight="1">
       <c r="A186" s="5">
         <v>44015</v>
       </c>
@@ -4583,7 +4608,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" ht="16.05" customHeight="1">
+    <row r="187" spans="1:7" ht="16" customHeight="1">
       <c r="A187" s="5">
         <v>44016</v>
       </c>
@@ -4600,7 +4625,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" ht="16.05" customHeight="1">
+    <row r="188" spans="1:7" ht="16" customHeight="1">
       <c r="A188" s="5">
         <v>44017</v>
       </c>
@@ -4617,7 +4642,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" ht="16.05" customHeight="1">
+    <row r="189" spans="1:7" ht="16" customHeight="1">
       <c r="A189" s="5">
         <v>44018</v>
       </c>
@@ -4634,7 +4659,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" ht="16.05" customHeight="1">
+    <row r="190" spans="1:7" ht="16" customHeight="1">
       <c r="A190" s="5">
         <v>44019</v>
       </c>
@@ -4651,7 +4676,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" ht="16.05" customHeight="1">
+    <row r="191" spans="1:7" ht="16" customHeight="1">
       <c r="A191" s="5">
         <v>44020</v>
       </c>
@@ -4668,7 +4693,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" ht="16.05" customHeight="1">
+    <row r="192" spans="1:7" ht="16" customHeight="1">
       <c r="A192" s="5">
         <v>44021</v>
       </c>
@@ -4685,7 +4710,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" ht="16.05" customHeight="1">
+    <row r="193" spans="1:7" ht="16" customHeight="1">
       <c r="A193" s="5">
         <v>44022</v>
       </c>
@@ -4702,7 +4727,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" ht="16.05" customHeight="1">
+    <row r="194" spans="1:7" ht="16" customHeight="1">
       <c r="A194" s="5">
         <v>44023</v>
       </c>
@@ -4719,7 +4744,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" ht="16.05" customHeight="1">
+    <row r="195" spans="1:7" ht="16" customHeight="1">
       <c r="A195" s="5">
         <v>44024</v>
       </c>
@@ -4736,7 +4761,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" ht="16.05" customHeight="1">
+    <row r="196" spans="1:7" ht="16" customHeight="1">
       <c r="A196" s="5">
         <v>44025</v>
       </c>
@@ -4753,7 +4778,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" ht="16.05" customHeight="1">
+    <row r="197" spans="1:7" ht="16" customHeight="1">
       <c r="A197" s="5">
         <v>44026</v>
       </c>
@@ -4770,7 +4795,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" ht="16.05" customHeight="1">
+    <row r="198" spans="1:7" ht="16" customHeight="1">
       <c r="A198" s="5">
         <v>44027</v>
       </c>
@@ -4787,7 +4812,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" ht="16.05" customHeight="1">
+    <row r="199" spans="1:7" ht="16" customHeight="1">
       <c r="A199" s="5">
         <v>44028</v>
       </c>
@@ -4804,7 +4829,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" ht="16.05" customHeight="1">
+    <row r="200" spans="1:7" ht="16" customHeight="1">
       <c r="A200" s="5">
         <v>44029</v>
       </c>
@@ -4821,7 +4846,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" ht="16.05" customHeight="1">
+    <row r="201" spans="1:7" ht="16" customHeight="1">
       <c r="A201" s="5">
         <v>44030</v>
       </c>
@@ -4838,7 +4863,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" ht="16.05" customHeight="1">
+    <row r="202" spans="1:7" ht="16" customHeight="1">
       <c r="A202" s="5">
         <v>44031</v>
       </c>
@@ -4855,7 +4880,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" ht="16.05" customHeight="1">
+    <row r="203" spans="1:7" ht="16" customHeight="1">
       <c r="A203" s="5">
         <v>44032</v>
       </c>
@@ -4872,7 +4897,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" ht="16.05" customHeight="1">
+    <row r="204" spans="1:7" ht="16" customHeight="1">
       <c r="A204" s="5">
         <v>44033</v>
       </c>
@@ -4889,7 +4914,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" ht="16.05" customHeight="1">
+    <row r="205" spans="1:7" ht="16" customHeight="1">
       <c r="A205" s="5">
         <v>44034</v>
       </c>
@@ -4906,7 +4931,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7" ht="16.05" customHeight="1">
+    <row r="206" spans="1:7" ht="16" customHeight="1">
       <c r="A206" s="5">
         <v>44035</v>
       </c>
@@ -4923,7 +4948,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" ht="16.05" customHeight="1">
+    <row r="207" spans="1:7" ht="16" customHeight="1">
       <c r="A207" s="5">
         <v>44036</v>
       </c>
@@ -4940,7 +4965,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" ht="16.05" customHeight="1">
+    <row r="208" spans="1:7" ht="16" customHeight="1">
       <c r="A208" s="5">
         <v>44037</v>
       </c>
@@ -4957,7 +4982,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" ht="16.05" customHeight="1">
+    <row r="209" spans="1:7" ht="16" customHeight="1">
       <c r="A209" s="5">
         <v>44038</v>
       </c>
@@ -4974,7 +4999,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" ht="16.05" customHeight="1">
+    <row r="210" spans="1:7" ht="16" customHeight="1">
       <c r="A210" s="5">
         <v>44039</v>
       </c>
@@ -4991,7 +5016,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" ht="16.05" customHeight="1">
+    <row r="211" spans="1:7" ht="16" customHeight="1">
       <c r="A211" s="5">
         <v>44040</v>
       </c>
@@ -5008,7 +5033,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" ht="16.05" customHeight="1">
+    <row r="212" spans="1:7" ht="16" customHeight="1">
       <c r="A212" s="5">
         <v>44041</v>
       </c>
@@ -5025,7 +5050,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7" ht="16.05" customHeight="1">
+    <row r="213" spans="1:7" ht="16" customHeight="1">
       <c r="A213" s="5">
         <v>44042</v>
       </c>
@@ -5042,7 +5067,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" ht="16.05" customHeight="1">
+    <row r="214" spans="1:7" ht="16" customHeight="1">
       <c r="A214" s="5">
         <v>44043</v>
       </c>
@@ -5059,7 +5084,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" ht="16.05" customHeight="1">
+    <row r="215" spans="1:7" ht="16" customHeight="1">
       <c r="A215" s="5">
         <v>44044</v>
       </c>
@@ -5076,7 +5101,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" ht="16.05" customHeight="1">
+    <row r="216" spans="1:7" ht="16" customHeight="1">
       <c r="A216" s="5">
         <v>44045</v>
       </c>
@@ -5093,7 +5118,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" ht="16.05" customHeight="1">
+    <row r="217" spans="1:7" ht="16" customHeight="1">
       <c r="A217" s="5">
         <v>44046</v>
       </c>
@@ -5110,7 +5135,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" ht="16.05" customHeight="1">
+    <row r="218" spans="1:7" ht="16" customHeight="1">
       <c r="A218" s="5">
         <v>44047</v>
       </c>
@@ -5127,7 +5152,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" ht="16.05" customHeight="1">
+    <row r="219" spans="1:7" ht="16" customHeight="1">
       <c r="A219" s="5">
         <v>44048</v>
       </c>
@@ -5144,7 +5169,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" ht="16.05" customHeight="1">
+    <row r="220" spans="1:7" ht="16" customHeight="1">
       <c r="A220" s="5">
         <v>44049</v>
       </c>
@@ -5161,7 +5186,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7" ht="16.05" customHeight="1">
+    <row r="221" spans="1:7" ht="16" customHeight="1">
       <c r="A221" s="5">
         <v>44050</v>
       </c>
@@ -5178,7 +5203,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" ht="16.05" customHeight="1">
+    <row r="222" spans="1:7" ht="16" customHeight="1">
       <c r="A222" s="5">
         <v>44051</v>
       </c>
@@ -5195,7 +5220,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" ht="16.05" customHeight="1">
+    <row r="223" spans="1:7" ht="16" customHeight="1">
       <c r="A223" s="5">
         <v>44052</v>
       </c>
@@ -5212,7 +5237,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" ht="16.05" customHeight="1">
+    <row r="224" spans="1:7" ht="16" customHeight="1">
       <c r="A224" s="5">
         <v>44053</v>
       </c>
@@ -5229,7 +5254,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" ht="16.05" customHeight="1">
+    <row r="225" spans="1:7" ht="16" customHeight="1">
       <c r="A225" s="5">
         <v>44054</v>
       </c>
@@ -5246,7 +5271,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7" ht="16.05" customHeight="1">
+    <row r="226" spans="1:7" ht="16" customHeight="1">
       <c r="A226" s="5">
         <v>44055</v>
       </c>
@@ -5263,7 +5288,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" ht="16.05" customHeight="1">
+    <row r="227" spans="1:7" ht="16" customHeight="1">
       <c r="A227" s="5">
         <v>44056</v>
       </c>
@@ -5280,7 +5305,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7" ht="16.05" customHeight="1">
+    <row r="228" spans="1:7" ht="16" customHeight="1">
       <c r="A228" s="5">
         <v>44057</v>
       </c>
@@ -5297,7 +5322,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" ht="16.05" customHeight="1">
+    <row r="229" spans="1:7" ht="16" customHeight="1">
       <c r="A229" s="5">
         <v>44058</v>
       </c>
@@ -5314,7 +5339,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7" ht="16.05" customHeight="1">
+    <row r="230" spans="1:7" ht="16" customHeight="1">
       <c r="A230" s="5">
         <v>44059</v>
       </c>
@@ -5331,7 +5356,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" ht="16.05" customHeight="1">
+    <row r="231" spans="1:7" ht="16" customHeight="1">
       <c r="A231" s="5">
         <v>44060</v>
       </c>
@@ -5348,7 +5373,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7" ht="16.05" customHeight="1">
+    <row r="232" spans="1:7" ht="16" customHeight="1">
       <c r="A232" s="5">
         <v>44061</v>
       </c>
@@ -5365,7 +5390,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" ht="16.05" customHeight="1">
+    <row r="233" spans="1:7" ht="16" customHeight="1">
       <c r="A233" s="5">
         <v>44062</v>
       </c>
@@ -5382,7 +5407,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" ht="16.05" customHeight="1">
+    <row r="234" spans="1:7" ht="16" customHeight="1">
       <c r="A234" s="5">
         <v>44063</v>
       </c>
@@ -5399,7 +5424,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7" ht="16.05" customHeight="1">
+    <row r="235" spans="1:7" ht="16" customHeight="1">
       <c r="A235" s="5">
         <v>44064</v>
       </c>
@@ -5416,7 +5441,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7" ht="16.05" customHeight="1">
+    <row r="236" spans="1:7" ht="16" customHeight="1">
       <c r="A236" s="5">
         <v>44065</v>
       </c>
@@ -5433,7 +5458,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7" ht="16.05" customHeight="1">
+    <row r="237" spans="1:7" ht="16" customHeight="1">
       <c r="A237" s="5">
         <v>44066</v>
       </c>
@@ -5450,7 +5475,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" ht="16.05" customHeight="1">
+    <row r="238" spans="1:7" ht="16" customHeight="1">
       <c r="A238" s="5">
         <v>44067</v>
       </c>
@@ -5467,7 +5492,7 @@
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7" ht="16.05" customHeight="1">
+    <row r="239" spans="1:7" ht="16" customHeight="1">
       <c r="A239" s="5">
         <v>44068</v>
       </c>
@@ -5484,7 +5509,7 @@
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:7" ht="16.05" customHeight="1">
+    <row r="240" spans="1:7" ht="16" customHeight="1">
       <c r="A240" s="5">
         <v>44069</v>
       </c>
@@ -5501,7 +5526,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7" ht="16.05" customHeight="1">
+    <row r="241" spans="1:7" ht="16" customHeight="1">
       <c r="A241" s="5">
         <v>44070</v>
       </c>
@@ -5518,7 +5543,7 @@
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="1:7" ht="16.05" customHeight="1">
+    <row r="242" spans="1:7" ht="16" customHeight="1">
       <c r="A242" s="5">
         <v>44071</v>
       </c>
@@ -5535,7 +5560,7 @@
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="1:7" ht="16.05" customHeight="1">
+    <row r="243" spans="1:7" ht="16" customHeight="1">
       <c r="A243" s="5">
         <v>44072</v>
       </c>
@@ -5552,7 +5577,7 @@
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="1:7" ht="16.05" customHeight="1">
+    <row r="244" spans="1:7" ht="16" customHeight="1">
       <c r="A244" s="5">
         <v>44073</v>
       </c>
@@ -5569,7 +5594,7 @@
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="1:7" ht="16.05" customHeight="1">
+    <row r="245" spans="1:7" ht="16" customHeight="1">
       <c r="A245" s="5">
         <v>44074</v>
       </c>
@@ -5586,7 +5611,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7" ht="16.05" customHeight="1">
+    <row r="246" spans="1:7" ht="16" customHeight="1">
       <c r="A246" s="5">
         <v>44075</v>
       </c>
@@ -5603,7 +5628,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" ht="16.05" customHeight="1">
+    <row r="247" spans="1:7" ht="16" customHeight="1">
       <c r="A247" s="5">
         <v>44076</v>
       </c>
@@ -5620,7 +5645,7 @@
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7" ht="16.05" customHeight="1">
+    <row r="248" spans="1:7" ht="16" customHeight="1">
       <c r="A248" s="5">
         <v>44077</v>
       </c>
@@ -5637,7 +5662,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7" ht="16.05" customHeight="1">
+    <row r="249" spans="1:7" ht="16" customHeight="1">
       <c r="A249" s="5">
         <v>44078</v>
       </c>
@@ -5654,7 +5679,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7" ht="16.05" customHeight="1">
+    <row r="250" spans="1:7" ht="16" customHeight="1">
       <c r="A250" s="5">
         <v>44079</v>
       </c>
@@ -5671,7 +5696,7 @@
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="1:7" ht="16.05" customHeight="1">
+    <row r="251" spans="1:7" ht="16" customHeight="1">
       <c r="A251" s="5">
         <v>44080</v>
       </c>
@@ -5688,7 +5713,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="1:7" ht="16.05" customHeight="1">
+    <row r="252" spans="1:7" ht="16" customHeight="1">
       <c r="A252" s="5">
         <v>44081</v>
       </c>
@@ -5705,7 +5730,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="1:7" ht="16.05" customHeight="1">
+    <row r="253" spans="1:7" ht="16" customHeight="1">
       <c r="A253" s="5">
         <v>44082</v>
       </c>
@@ -5722,7 +5747,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="1:7" ht="16.05" customHeight="1">
+    <row r="254" spans="1:7" ht="16" customHeight="1">
       <c r="A254" s="5">
         <v>44083</v>
       </c>
@@ -5739,7 +5764,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="1:7" ht="16.05" customHeight="1">
+    <row r="255" spans="1:7" ht="16" customHeight="1">
       <c r="A255" s="5">
         <v>44084</v>
       </c>
@@ -5756,7 +5781,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7" ht="16.05" customHeight="1">
+    <row r="256" spans="1:7" ht="16" customHeight="1">
       <c r="A256" s="5">
         <v>44085</v>
       </c>
@@ -5773,7 +5798,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="16.05" customHeight="1">
+    <row r="257" spans="1:7" ht="16" customHeight="1">
       <c r="A257" s="5">
         <v>44086</v>
       </c>
@@ -5790,7 +5815,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" ht="16.05" customHeight="1">
+    <row r="258" spans="1:7" ht="16" customHeight="1">
       <c r="A258" s="5">
         <v>44087</v>
       </c>
@@ -5807,7 +5832,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7" ht="16.05" customHeight="1">
+    <row r="259" spans="1:7" ht="16" customHeight="1">
       <c r="A259" s="5">
         <v>44088</v>
       </c>
@@ -5824,7 +5849,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7" ht="16.05" customHeight="1">
+    <row r="260" spans="1:7" ht="16" customHeight="1">
       <c r="A260" s="5">
         <v>44089</v>
       </c>
@@ -5841,7 +5866,7 @@
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="1:7" ht="16.05" customHeight="1">
+    <row r="261" spans="1:7" ht="16" customHeight="1">
       <c r="A261" s="5">
         <v>44090</v>
       </c>
@@ -5858,7 +5883,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7" ht="16.05" customHeight="1">
+    <row r="262" spans="1:7" ht="16" customHeight="1">
       <c r="A262" s="5">
         <v>44091</v>
       </c>
@@ -5875,7 +5900,7 @@
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7" ht="16.05" customHeight="1">
+    <row r="263" spans="1:7" ht="16" customHeight="1">
       <c r="A263" s="5">
         <v>44092</v>
       </c>
@@ -5892,7 +5917,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7" ht="16.05" customHeight="1">
+    <row r="264" spans="1:7" ht="16" customHeight="1">
       <c r="A264" s="5">
         <v>44093</v>
       </c>
@@ -5909,7 +5934,7 @@
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7" ht="16.05" customHeight="1">
+    <row r="265" spans="1:7" ht="16" customHeight="1">
       <c r="A265" s="5">
         <v>44094</v>
       </c>
@@ -5926,7 +5951,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7" ht="16.05" customHeight="1">
+    <row r="266" spans="1:7" ht="16" customHeight="1">
       <c r="A266" s="5">
         <v>44095</v>
       </c>
@@ -5943,7 +5968,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7" ht="16.05" customHeight="1">
+    <row r="267" spans="1:7" ht="16" customHeight="1">
       <c r="A267" s="5">
         <v>44096</v>
       </c>
@@ -5960,7 +5985,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="1:7" ht="16.05" customHeight="1">
+    <row r="268" spans="1:7" ht="16" customHeight="1">
       <c r="A268" s="5">
         <v>44097</v>
       </c>
@@ -5977,7 +6002,7 @@
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
     </row>
-    <row r="269" spans="1:7" ht="16.05" customHeight="1">
+    <row r="269" spans="1:7" ht="16" customHeight="1">
       <c r="A269" s="5">
         <v>44098</v>
       </c>
@@ -5994,7 +6019,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" spans="1:7" ht="16.05" customHeight="1">
+    <row r="270" spans="1:7" ht="16" customHeight="1">
       <c r="A270" s="5">
         <v>44099</v>
       </c>
@@ -6011,7 +6036,7 @@
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7" ht="16.05" customHeight="1">
+    <row r="271" spans="1:7" ht="16" customHeight="1">
       <c r="A271" s="5">
         <v>44100</v>
       </c>
@@ -6028,7 +6053,7 @@
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" spans="1:7" ht="16.05" customHeight="1">
+    <row r="272" spans="1:7" ht="16" customHeight="1">
       <c r="A272" s="5">
         <v>44101</v>
       </c>
@@ -6045,7 +6070,7 @@
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7" ht="16.05" customHeight="1">
+    <row r="273" spans="1:7" ht="16" customHeight="1">
       <c r="A273" s="5">
         <v>44102</v>
       </c>
@@ -6062,7 +6087,7 @@
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" spans="1:7" ht="16.05" customHeight="1">
+    <row r="274" spans="1:7" ht="16" customHeight="1">
       <c r="A274" s="5">
         <v>44103</v>
       </c>
@@ -6079,7 +6104,7 @@
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" spans="1:7" ht="16.05" customHeight="1">
+    <row r="275" spans="1:7" ht="16" customHeight="1">
       <c r="A275" s="5">
         <v>44104</v>
       </c>
@@ -6096,7 +6121,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
     </row>
-    <row r="276" spans="1:7" ht="16.05" customHeight="1">
+    <row r="276" spans="1:7" ht="16" customHeight="1">
       <c r="A276" s="5">
         <v>44105</v>
       </c>
@@ -6113,7 +6138,7 @@
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" spans="1:7" ht="16.05" customHeight="1">
+    <row r="277" spans="1:7" ht="16" customHeight="1">
       <c r="A277" s="5">
         <v>44106</v>
       </c>
@@ -6130,7 +6155,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" spans="1:7" ht="16.05" customHeight="1">
+    <row r="278" spans="1:7" ht="16" customHeight="1">
       <c r="A278" s="5">
         <v>44107</v>
       </c>
@@ -6147,7 +6172,7 @@
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="1:7" ht="16.05" customHeight="1">
+    <row r="279" spans="1:7" ht="16" customHeight="1">
       <c r="A279" s="5">
         <v>44108</v>
       </c>
@@ -6164,7 +6189,7 @@
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" spans="1:7" ht="16.05" customHeight="1">
+    <row r="280" spans="1:7" ht="16" customHeight="1">
       <c r="A280" s="5">
         <v>44109</v>
       </c>
@@ -6181,7 +6206,7 @@
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" spans="1:7" ht="16.05" customHeight="1">
+    <row r="281" spans="1:7" ht="16" customHeight="1">
       <c r="A281" s="5">
         <v>44110</v>
       </c>
@@ -6198,7 +6223,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" spans="1:7" ht="16.05" customHeight="1">
+    <row r="282" spans="1:7" ht="16" customHeight="1">
       <c r="A282" s="5">
         <v>44111</v>
       </c>
@@ -6215,7 +6240,7 @@
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" spans="1:7" ht="16.05" customHeight="1">
+    <row r="283" spans="1:7" ht="16" customHeight="1">
       <c r="A283" s="5">
         <v>44112</v>
       </c>
@@ -6232,7 +6257,7 @@
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="1:7" ht="16.05" customHeight="1">
+    <row r="284" spans="1:7" ht="16" customHeight="1">
       <c r="A284" s="5">
         <v>44113</v>
       </c>
@@ -6249,7 +6274,7 @@
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" spans="1:7" ht="16.05" customHeight="1">
+    <row r="285" spans="1:7" ht="16" customHeight="1">
       <c r="A285" s="5">
         <v>44114</v>
       </c>
@@ -6266,7 +6291,7 @@
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" spans="1:7" ht="16.05" customHeight="1">
+    <row r="286" spans="1:7" ht="16" customHeight="1">
       <c r="A286" s="5">
         <v>44115</v>
       </c>
@@ -6283,7 +6308,7 @@
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" spans="1:7" ht="16.05" customHeight="1">
+    <row r="287" spans="1:7" ht="16" customHeight="1">
       <c r="A287" s="5">
         <v>44116</v>
       </c>
@@ -6300,7 +6325,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="1:7" ht="16.05" customHeight="1">
+    <row r="288" spans="1:7" ht="16" customHeight="1">
       <c r="A288" s="5">
         <v>44117</v>
       </c>
@@ -6317,7 +6342,7 @@
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7" ht="16.05" customHeight="1">
+    <row r="289" spans="1:7" ht="16" customHeight="1">
       <c r="A289" s="5">
         <v>44118</v>
       </c>
@@ -6334,7 +6359,7 @@
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" spans="1:7" ht="16.05" customHeight="1">
+    <row r="290" spans="1:7" ht="16" customHeight="1">
       <c r="A290" s="5">
         <v>44119</v>
       </c>
@@ -6351,7 +6376,7 @@
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
     </row>
-    <row r="291" spans="1:7" ht="16.05" customHeight="1">
+    <row r="291" spans="1:7" ht="16" customHeight="1">
       <c r="A291" s="5">
         <v>44120</v>
       </c>
@@ -6368,7 +6393,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
     </row>
-    <row r="292" spans="1:7" ht="16.05" customHeight="1">
+    <row r="292" spans="1:7" ht="16" customHeight="1">
       <c r="A292" s="5">
         <v>44121</v>
       </c>
@@ -6385,7 +6410,7 @@
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" spans="1:7" ht="16.05" customHeight="1">
+    <row r="293" spans="1:7" ht="16" customHeight="1">
       <c r="A293" s="5">
         <v>44122</v>
       </c>
@@ -6402,7 +6427,7 @@
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
     </row>
-    <row r="294" spans="1:7" ht="16.05" customHeight="1">
+    <row r="294" spans="1:7" ht="16" customHeight="1">
       <c r="A294" s="5">
         <v>44123</v>
       </c>
@@ -6419,7 +6444,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
     </row>
-    <row r="295" spans="1:7" ht="16.05" customHeight="1">
+    <row r="295" spans="1:7" ht="16" customHeight="1">
       <c r="A295" s="5">
         <v>44124</v>
       </c>
@@ -6436,7 +6461,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="1:7" ht="16.05" customHeight="1">
+    <row r="296" spans="1:7" ht="16" customHeight="1">
       <c r="A296" s="5">
         <v>44125</v>
       </c>
@@ -6453,7 +6478,7 @@
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
     </row>
-    <row r="297" spans="1:7" ht="16.05" customHeight="1">
+    <row r="297" spans="1:7" ht="16" customHeight="1">
       <c r="A297" s="5">
         <v>44126</v>
       </c>
@@ -6470,7 +6495,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
     </row>
-    <row r="298" spans="1:7" ht="16.05" customHeight="1">
+    <row r="298" spans="1:7" ht="16" customHeight="1">
       <c r="A298" s="5">
         <v>44127</v>
       </c>
@@ -6487,7 +6512,7 @@
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
     </row>
-    <row r="299" spans="1:7" ht="16.05" customHeight="1">
+    <row r="299" spans="1:7" ht="16" customHeight="1">
       <c r="A299" s="5">
         <v>44128</v>
       </c>
@@ -6504,7 +6529,7 @@
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
     </row>
-    <row r="300" spans="1:7" ht="16.05" customHeight="1">
+    <row r="300" spans="1:7" ht="16" customHeight="1">
       <c r="A300" s="5">
         <v>44129</v>
       </c>
@@ -6521,7 +6546,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
     </row>
-    <row r="301" spans="1:7" ht="16.05" customHeight="1">
+    <row r="301" spans="1:7" ht="16" customHeight="1">
       <c r="A301" s="5">
         <v>44130</v>
       </c>
@@ -6538,7 +6563,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
     </row>
-    <row r="302" spans="1:7" ht="16.05" customHeight="1">
+    <row r="302" spans="1:7" ht="16" customHeight="1">
       <c r="A302" s="5">
         <v>44131</v>
       </c>
@@ -6555,7 +6580,7 @@
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
     </row>
-    <row r="303" spans="1:7" ht="16.05" customHeight="1">
+    <row r="303" spans="1:7" ht="16" customHeight="1">
       <c r="A303" s="5">
         <v>44132</v>
       </c>
@@ -6572,7 +6597,7 @@
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7" ht="16.05" customHeight="1">
+    <row r="304" spans="1:7" ht="16" customHeight="1">
       <c r="A304" s="5">
         <v>44133</v>
       </c>
@@ -6589,7 +6614,7 @@
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
     </row>
-    <row r="305" spans="1:7" ht="16.05" customHeight="1">
+    <row r="305" spans="1:7" ht="16" customHeight="1">
       <c r="A305" s="5">
         <v>44134</v>
       </c>
@@ -6606,7 +6631,7 @@
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
     </row>
-    <row r="306" spans="1:7" ht="16.05" customHeight="1">
+    <row r="306" spans="1:7" ht="16" customHeight="1">
       <c r="A306" s="5">
         <v>44135</v>
       </c>
@@ -6623,7 +6648,7 @@
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
     </row>
-    <row r="307" spans="1:7" ht="16.05" customHeight="1">
+    <row r="307" spans="1:7" ht="16" customHeight="1">
       <c r="A307" s="5">
         <v>44136</v>
       </c>
@@ -6640,7 +6665,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="1:7" ht="16.05" customHeight="1">
+    <row r="308" spans="1:7" ht="16" customHeight="1">
       <c r="A308" s="5">
         <v>44137</v>
       </c>
@@ -6657,7 +6682,7 @@
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="1:7" ht="16.05" customHeight="1">
+    <row r="309" spans="1:7" ht="16" customHeight="1">
       <c r="A309" s="5">
         <v>44138</v>
       </c>
@@ -6674,7 +6699,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="1:7" ht="16.05" customHeight="1">
+    <row r="310" spans="1:7" ht="16" customHeight="1">
       <c r="A310" s="5">
         <v>44139</v>
       </c>
@@ -6691,7 +6716,7 @@
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7" ht="16.05" customHeight="1">
+    <row r="311" spans="1:7" ht="16" customHeight="1">
       <c r="A311" s="5">
         <v>44140</v>
       </c>
@@ -6708,7 +6733,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
     </row>
-    <row r="312" spans="1:7" ht="16.05" customHeight="1">
+    <row r="312" spans="1:7" ht="16" customHeight="1">
       <c r="A312" s="5">
         <v>44141</v>
       </c>
@@ -6725,7 +6750,7 @@
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7" ht="16.05" customHeight="1">
+    <row r="313" spans="1:7" ht="16" customHeight="1">
       <c r="A313" s="5">
         <v>44142</v>
       </c>
@@ -6742,7 +6767,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7" ht="16.05" customHeight="1">
+    <row r="314" spans="1:7" ht="16" customHeight="1">
       <c r="A314" s="5">
         <v>44143</v>
       </c>
@@ -6759,7 +6784,7 @@
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7" ht="16.05" customHeight="1">
+    <row r="315" spans="1:7" ht="16" customHeight="1">
       <c r="A315" s="5">
         <v>44144</v>
       </c>
@@ -6776,7 +6801,7 @@
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="1:7" ht="16.05" customHeight="1">
+    <row r="316" spans="1:7" ht="16" customHeight="1">
       <c r="A316" s="5">
         <v>44145</v>
       </c>
@@ -6793,7 +6818,7 @@
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
     </row>
-    <row r="317" spans="1:7" ht="16.05" customHeight="1">
+    <row r="317" spans="1:7" ht="16" customHeight="1">
       <c r="A317" s="5">
         <v>44146</v>
       </c>
@@ -6810,7 +6835,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
     </row>
-    <row r="318" spans="1:7" ht="16.05" customHeight="1">
+    <row r="318" spans="1:7" ht="16" customHeight="1">
       <c r="A318" s="5">
         <v>44147</v>
       </c>
@@ -6827,7 +6852,7 @@
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:7" ht="16.05" customHeight="1">
+    <row r="319" spans="1:7" ht="16" customHeight="1">
       <c r="A319" s="5">
         <v>44148</v>
       </c>
@@ -6844,7 +6869,7 @@
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7" ht="16.05" customHeight="1">
+    <row r="320" spans="1:7" ht="16" customHeight="1">
       <c r="A320" s="5">
         <v>44149</v>
       </c>
@@ -6861,7 +6886,7 @@
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7" ht="16.05" customHeight="1">
+    <row r="321" spans="1:7" ht="16" customHeight="1">
       <c r="A321" s="5">
         <v>44150</v>
       </c>
@@ -6878,7 +6903,7 @@
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="1:7" ht="16.05" customHeight="1">
+    <row r="322" spans="1:7" ht="16" customHeight="1">
       <c r="A322" s="5">
         <v>44151</v>
       </c>
@@ -6895,7 +6920,7 @@
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="1:7" ht="16.05" customHeight="1">
+    <row r="323" spans="1:7" ht="16" customHeight="1">
       <c r="A323" s="5">
         <v>44152</v>
       </c>
@@ -6912,7 +6937,7 @@
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="1:7" ht="16.05" customHeight="1">
+    <row r="324" spans="1:7" ht="16" customHeight="1">
       <c r="A324" s="5">
         <v>44153</v>
       </c>
@@ -6929,7 +6954,7 @@
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="1:7" ht="16.05" customHeight="1">
+    <row r="325" spans="1:7" ht="16" customHeight="1">
       <c r="A325" s="5">
         <v>44154</v>
       </c>
@@ -6946,7 +6971,7 @@
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="1:7" ht="16.05" customHeight="1">
+    <row r="326" spans="1:7" ht="16" customHeight="1">
       <c r="A326" s="5">
         <v>44155</v>
       </c>
@@ -6963,7 +6988,7 @@
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="1:7" ht="16.05" customHeight="1">
+    <row r="327" spans="1:7" ht="16" customHeight="1">
       <c r="A327" s="5">
         <v>44156</v>
       </c>
@@ -6980,7 +7005,7 @@
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="1:7" ht="16.05" customHeight="1">
+    <row r="328" spans="1:7" ht="16" customHeight="1">
       <c r="A328" s="5">
         <v>44157</v>
       </c>
@@ -6997,7 +7022,7 @@
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="1:7" ht="16.05" customHeight="1">
+    <row r="329" spans="1:7" ht="16" customHeight="1">
       <c r="A329" s="5">
         <v>44158</v>
       </c>
@@ -7014,7 +7039,7 @@
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="1:7" ht="16.05" customHeight="1">
+    <row r="330" spans="1:7" ht="16" customHeight="1">
       <c r="A330" s="5">
         <v>44159</v>
       </c>
@@ -7031,7 +7056,7 @@
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="1:7" ht="16.05" customHeight="1">
+    <row r="331" spans="1:7" ht="16" customHeight="1">
       <c r="A331" s="5">
         <v>44160</v>
       </c>
@@ -7048,7 +7073,7 @@
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="1:7" ht="16.05" customHeight="1">
+    <row r="332" spans="1:7" ht="16" customHeight="1">
       <c r="A332" s="5">
         <v>44161</v>
       </c>
@@ -7065,7 +7090,7 @@
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="1:7" ht="16.05" customHeight="1">
+    <row r="333" spans="1:7" ht="16" customHeight="1">
       <c r="A333" s="5">
         <v>44162</v>
       </c>
@@ -7082,7 +7107,7 @@
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="1:7" ht="16.05" customHeight="1">
+    <row r="334" spans="1:7" ht="16" customHeight="1">
       <c r="A334" s="5">
         <v>44163</v>
       </c>
@@ -7099,7 +7124,7 @@
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="1:7" ht="16.05" customHeight="1">
+    <row r="335" spans="1:7" ht="16" customHeight="1">
       <c r="A335" s="5">
         <v>44164</v>
       </c>
@@ -7116,7 +7141,7 @@
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="1:7" ht="16.05" customHeight="1">
+    <row r="336" spans="1:7" ht="16" customHeight="1">
       <c r="A336" s="5">
         <v>44165</v>
       </c>
@@ -7133,7 +7158,7 @@
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="1:7" ht="16.05" customHeight="1">
+    <row r="337" spans="1:7" ht="16" customHeight="1">
       <c r="A337" s="5">
         <v>44166</v>
       </c>
@@ -7150,7 +7175,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="1:7" ht="16.05" customHeight="1">
+    <row r="338" spans="1:7" ht="16" customHeight="1">
       <c r="A338" s="5">
         <v>44167</v>
       </c>
@@ -7167,7 +7192,7 @@
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="1:7" ht="16.05" customHeight="1">
+    <row r="339" spans="1:7" ht="16" customHeight="1">
       <c r="A339" s="5">
         <v>44168</v>
       </c>
@@ -7184,7 +7209,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="1:7" ht="16.05" customHeight="1">
+    <row r="340" spans="1:7" ht="16" customHeight="1">
       <c r="A340" s="5">
         <v>44169</v>
       </c>
@@ -7201,7 +7226,7 @@
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="1:7" ht="16.05" customHeight="1">
+    <row r="341" spans="1:7" ht="16" customHeight="1">
       <c r="A341" s="5">
         <v>44170</v>
       </c>
@@ -7218,7 +7243,7 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="1:7" ht="16.05" customHeight="1">
+    <row r="342" spans="1:7" ht="16" customHeight="1">
       <c r="A342" s="5">
         <v>44171</v>
       </c>
@@ -7235,7 +7260,7 @@
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="1:7" ht="16.05" customHeight="1">
+    <row r="343" spans="1:7" ht="16" customHeight="1">
       <c r="A343" s="5">
         <v>44172</v>
       </c>
@@ -7252,7 +7277,7 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="1:7" ht="16.05" customHeight="1">
+    <row r="344" spans="1:7" ht="16" customHeight="1">
       <c r="A344" s="5">
         <v>44173</v>
       </c>
@@ -7269,7 +7294,7 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="1:7" ht="16.05" customHeight="1">
+    <row r="345" spans="1:7" ht="16" customHeight="1">
       <c r="A345" s="5">
         <v>44174</v>
       </c>
@@ -7286,7 +7311,7 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="1:7" ht="16.05" customHeight="1">
+    <row r="346" spans="1:7" ht="16" customHeight="1">
       <c r="A346" s="5">
         <v>44175</v>
       </c>
@@ -7303,7 +7328,7 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="1:7" ht="16.05" customHeight="1">
+    <row r="347" spans="1:7" ht="16" customHeight="1">
       <c r="A347" s="5">
         <v>44176</v>
       </c>
@@ -7320,7 +7345,7 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="1:7" ht="16.05" customHeight="1">
+    <row r="348" spans="1:7" ht="16" customHeight="1">
       <c r="A348" s="5">
         <v>44177</v>
       </c>
@@ -7337,7 +7362,7 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="1:7" ht="16.05" customHeight="1">
+    <row r="349" spans="1:7" ht="16" customHeight="1">
       <c r="A349" s="5">
         <v>44178</v>
       </c>
@@ -7354,7 +7379,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="1:7" ht="16.05" customHeight="1">
+    <row r="350" spans="1:7" ht="16" customHeight="1">
       <c r="A350" s="5">
         <v>44179</v>
       </c>
@@ -7371,7 +7396,7 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="1:7" ht="16.05" customHeight="1">
+    <row r="351" spans="1:7" ht="16" customHeight="1">
       <c r="A351" s="5">
         <v>44180</v>
       </c>
@@ -7388,7 +7413,7 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="1:7" ht="16.05" customHeight="1">
+    <row r="352" spans="1:7" ht="16" customHeight="1">
       <c r="A352" s="5">
         <v>44181</v>
       </c>
@@ -7405,7 +7430,7 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="1:7" ht="16.05" customHeight="1">
+    <row r="353" spans="1:7" ht="16" customHeight="1">
       <c r="A353" s="5">
         <v>44182</v>
       </c>
@@ -7422,7 +7447,7 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="1:7" ht="16.05" customHeight="1">
+    <row r="354" spans="1:7" ht="16" customHeight="1">
       <c r="A354" s="5">
         <v>44183</v>
       </c>
@@ -7439,7 +7464,7 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="1:7" ht="16.05" customHeight="1">
+    <row r="355" spans="1:7" ht="16" customHeight="1">
       <c r="A355" s="5">
         <v>44184</v>
       </c>
@@ -7456,7 +7481,7 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="1:7" ht="16.05" customHeight="1">
+    <row r="356" spans="1:7" ht="16" customHeight="1">
       <c r="A356" s="5">
         <v>44185</v>
       </c>
@@ -7473,7 +7498,7 @@
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="1:7" ht="16.05" customHeight="1">
+    <row r="357" spans="1:7" ht="16" customHeight="1">
       <c r="A357" s="5">
         <v>44186</v>
       </c>
@@ -7490,7 +7515,7 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="1:7" ht="16.05" customHeight="1">
+    <row r="358" spans="1:7" ht="16" customHeight="1">
       <c r="A358" s="5">
         <v>44187</v>
       </c>
@@ -7507,7 +7532,7 @@
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="1:7" ht="16.05" customHeight="1">
+    <row r="359" spans="1:7" ht="16" customHeight="1">
       <c r="A359" s="5">
         <v>44188</v>
       </c>
@@ -7524,7 +7549,7 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="1:7" ht="16.05" customHeight="1">
+    <row r="360" spans="1:7" ht="16" customHeight="1">
       <c r="A360" s="5">
         <v>44189</v>
       </c>
@@ -7541,7 +7566,7 @@
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="1:7" ht="16.05" customHeight="1">
+    <row r="361" spans="1:7" ht="16" customHeight="1">
       <c r="A361" s="5">
         <v>44190</v>
       </c>
@@ -7558,7 +7583,7 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="1:7" ht="16.05" customHeight="1">
+    <row r="362" spans="1:7" ht="16" customHeight="1">
       <c r="A362" s="5">
         <v>44191</v>
       </c>
@@ -7575,7 +7600,7 @@
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="1:7" ht="16.05" customHeight="1">
+    <row r="363" spans="1:7" ht="16" customHeight="1">
       <c r="A363" s="5">
         <v>44192</v>
       </c>
@@ -7592,7 +7617,7 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="1:7" ht="16.05" customHeight="1">
+    <row r="364" spans="1:7" ht="16" customHeight="1">
       <c r="A364" s="5">
         <v>44193</v>
       </c>
@@ -7609,7 +7634,7 @@
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="1:7" ht="16.05" customHeight="1">
+    <row r="365" spans="1:7" ht="16" customHeight="1">
       <c r="A365" s="5">
         <v>44194</v>
       </c>
@@ -7626,7 +7651,7 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="1:7" ht="16.05" customHeight="1">
+    <row r="366" spans="1:7" ht="16" customHeight="1">
       <c r="A366" s="5">
         <v>44195</v>
       </c>
@@ -7643,7 +7668,7 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="1:7" ht="16.05" customHeight="1">
+    <row r="367" spans="1:7" ht="16" customHeight="1">
       <c r="A367" s="5">
         <v>44196</v>
       </c>
@@ -7660,7 +7685,7 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="1:7" ht="16.05" customHeight="1">
+    <row r="368" spans="1:7" ht="16" customHeight="1">
       <c r="A368" s="5">
         <v>44197</v>
       </c>
@@ -7677,7 +7702,7 @@
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="1:7" ht="16.05" customHeight="1">
+    <row r="369" spans="1:7" ht="16" customHeight="1">
       <c r="A369" s="5">
         <v>44198</v>
       </c>
@@ -7694,7 +7719,7 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="1:7" ht="16.05" customHeight="1">
+    <row r="370" spans="1:7" ht="16" customHeight="1">
       <c r="A370" s="5">
         <v>44199</v>
       </c>
@@ -7711,7 +7736,7 @@
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="1:7" ht="16.05" customHeight="1">
+    <row r="371" spans="1:7" ht="16" customHeight="1">
       <c r="A371" s="5">
         <v>44200</v>
       </c>
@@ -7728,7 +7753,7 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="1:7" ht="16.05" customHeight="1">
+    <row r="372" spans="1:7" ht="16" customHeight="1">
       <c r="A372" s="5">
         <v>44201</v>
       </c>
@@ -7745,7 +7770,7 @@
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
     </row>
-    <row r="373" spans="1:7" ht="16.05" customHeight="1">
+    <row r="373" spans="1:7" ht="16" customHeight="1">
       <c r="A373" s="5">
         <v>44202</v>
       </c>
@@ -7762,7 +7787,7 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="1:7" ht="16.05" customHeight="1">
+    <row r="374" spans="1:7" ht="16" customHeight="1">
       <c r="A374" s="5">
         <v>44203</v>
       </c>
@@ -7779,7 +7804,7 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="1:7" ht="16.05" customHeight="1">
+    <row r="375" spans="1:7" ht="16" customHeight="1">
       <c r="A375" s="5">
         <v>44204</v>
       </c>
@@ -7796,7 +7821,7 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="1:7" ht="16.05" customHeight="1">
+    <row r="376" spans="1:7" ht="16" customHeight="1">
       <c r="A376" s="5">
         <v>44205</v>
       </c>
@@ -7813,7 +7838,7 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="1:7" ht="16.05" customHeight="1">
+    <row r="377" spans="1:7" ht="16" customHeight="1">
       <c r="A377" s="5">
         <v>44206</v>
       </c>
@@ -7830,7 +7855,7 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="1:7" ht="16.05" customHeight="1">
+    <row r="378" spans="1:7" ht="16" customHeight="1">
       <c r="A378" s="5">
         <v>44207</v>
       </c>
@@ -7847,7 +7872,7 @@
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="1:7" ht="16.05" customHeight="1">
+    <row r="379" spans="1:7" ht="16" customHeight="1">
       <c r="A379" s="5">
         <v>44208</v>
       </c>
@@ -7864,7 +7889,7 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="1:7" ht="16.05" customHeight="1">
+    <row r="380" spans="1:7" ht="16" customHeight="1">
       <c r="A380" s="5">
         <v>44209</v>
       </c>
@@ -7881,7 +7906,7 @@
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="1:7" ht="16.05" customHeight="1">
+    <row r="381" spans="1:7" ht="16" customHeight="1">
       <c r="A381" s="5">
         <v>44210</v>
       </c>
@@ -7898,7 +7923,7 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="1:7" ht="16.05" customHeight="1">
+    <row r="382" spans="1:7" ht="16" customHeight="1">
       <c r="A382" s="5">
         <v>44211</v>
       </c>
@@ -7915,7 +7940,7 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="1:7" ht="16.05" customHeight="1">
+    <row r="383" spans="1:7" ht="16" customHeight="1">
       <c r="A383" s="5">
         <v>44212</v>
       </c>
@@ -7932,7 +7957,7 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="1:7" ht="16.05" customHeight="1">
+    <row r="384" spans="1:7" ht="16" customHeight="1">
       <c r="A384" s="5">
         <v>44213</v>
       </c>
@@ -7949,7 +7974,7 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="1:7" ht="16.05" customHeight="1">
+    <row r="385" spans="1:7" ht="16" customHeight="1">
       <c r="A385" s="5">
         <v>44214</v>
       </c>
@@ -7966,7 +7991,7 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="1:7" ht="16.05" customHeight="1">
+    <row r="386" spans="1:7" ht="16" customHeight="1">
       <c r="A386" s="5">
         <v>44215</v>
       </c>
@@ -7983,7 +8008,7 @@
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="1:7" ht="16.05" customHeight="1">
+    <row r="387" spans="1:7" ht="16" customHeight="1">
       <c r="A387" s="5">
         <v>44216</v>
       </c>
@@ -8000,7 +8025,7 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="1:7" ht="16.05" customHeight="1">
+    <row r="388" spans="1:7" ht="16" customHeight="1">
       <c r="A388" s="5">
         <v>44217</v>
       </c>
@@ -8017,7 +8042,7 @@
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="1:7" ht="16.05" customHeight="1">
+    <row r="389" spans="1:7" ht="16" customHeight="1">
       <c r="A389" s="5">
         <v>44218</v>
       </c>
@@ -8034,7 +8059,7 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="1:7" ht="16.05" customHeight="1">
+    <row r="390" spans="1:7" ht="16" customHeight="1">
       <c r="A390" s="5">
         <v>44219</v>
       </c>
@@ -8051,7 +8076,7 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="1:7" ht="16.05" customHeight="1">
+    <row r="391" spans="1:7" ht="16" customHeight="1">
       <c r="A391" s="5">
         <v>44220</v>
       </c>
@@ -8068,7 +8093,7 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="1:7" ht="16.05" customHeight="1">
+    <row r="392" spans="1:7" ht="16" customHeight="1">
       <c r="A392" s="5">
         <v>44221</v>
       </c>
@@ -8085,7 +8110,7 @@
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="1:7" ht="16.05" customHeight="1">
+    <row r="393" spans="1:7" ht="16" customHeight="1">
       <c r="A393" s="5">
         <v>44222</v>
       </c>
@@ -8102,7 +8127,7 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="1:7" ht="16.05" customHeight="1">
+    <row r="394" spans="1:7" ht="16" customHeight="1">
       <c r="A394" s="5">
         <v>44223</v>
       </c>
@@ -8119,7 +8144,7 @@
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="1:7" ht="16.05" customHeight="1">
+    <row r="395" spans="1:7" ht="16" customHeight="1">
       <c r="A395" s="5">
         <v>44224</v>
       </c>
@@ -8136,7 +8161,7 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="1:7" ht="16.05" customHeight="1">
+    <row r="396" spans="1:7" ht="16" customHeight="1">
       <c r="A396" s="5">
         <v>44225</v>
       </c>
@@ -8153,7 +8178,7 @@
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="1:7" ht="16.05" customHeight="1">
+    <row r="397" spans="1:7" ht="16" customHeight="1">
       <c r="A397" s="5">
         <v>44226</v>
       </c>
@@ -8170,7 +8195,7 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="1:7" ht="16.05" customHeight="1">
+    <row r="398" spans="1:7" ht="16" customHeight="1">
       <c r="A398" s="5">
         <v>44227</v>
       </c>
@@ -8187,7 +8212,7 @@
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="1:7" ht="16.05" customHeight="1">
+    <row r="399" spans="1:7" ht="16" customHeight="1">
       <c r="A399" s="5">
         <v>44228</v>
       </c>
@@ -8204,7 +8229,7 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="1:7" ht="16.05" customHeight="1">
+    <row r="400" spans="1:7" ht="16" customHeight="1">
       <c r="A400" s="5">
         <v>44229</v>
       </c>
@@ -8221,7 +8246,7 @@
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="1:7" ht="16.05" customHeight="1">
+    <row r="401" spans="1:7" ht="16" customHeight="1">
       <c r="A401" s="5">
         <v>44230</v>
       </c>
@@ -8238,7 +8263,7 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="1:7" ht="16.05" customHeight="1">
+    <row r="402" spans="1:7" ht="16" customHeight="1">
       <c r="A402" s="5">
         <v>44231</v>
       </c>
@@ -8255,7 +8280,7 @@
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="1:7" ht="16.05" customHeight="1">
+    <row r="403" spans="1:7" ht="16" customHeight="1">
       <c r="A403" s="5">
         <v>44232</v>
       </c>
@@ -8272,7 +8297,7 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="1:7" ht="16.05" customHeight="1">
+    <row r="404" spans="1:7" ht="16" customHeight="1">
       <c r="A404" s="5">
         <v>44233</v>
       </c>
@@ -8289,7 +8314,7 @@
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="1:7" ht="16.05" customHeight="1">
+    <row r="405" spans="1:7" ht="16" customHeight="1">
       <c r="A405" s="5">
         <v>44234</v>
       </c>
@@ -8306,7 +8331,7 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="1:7" ht="16.05" customHeight="1">
+    <row r="406" spans="1:7" ht="16" customHeight="1">
       <c r="A406" s="5">
         <v>44235</v>
       </c>
@@ -8323,7 +8348,7 @@
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="1:7" ht="16.05" customHeight="1">
+    <row r="407" spans="1:7" ht="16" customHeight="1">
       <c r="A407" s="5">
         <v>44236</v>
       </c>
@@ -8340,7 +8365,7 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="1:7" ht="16.05" customHeight="1">
+    <row r="408" spans="1:7" ht="16" customHeight="1">
       <c r="A408" s="5">
         <v>44237</v>
       </c>
@@ -8357,7 +8382,7 @@
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="1:7" ht="16.05" customHeight="1">
+    <row r="409" spans="1:7" ht="16" customHeight="1">
       <c r="A409" s="5">
         <v>44238</v>
       </c>
@@ -8374,7 +8399,7 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="1:7" ht="16.05" customHeight="1">
+    <row r="410" spans="1:7" ht="16" customHeight="1">
       <c r="A410" s="5">
         <v>44239</v>
       </c>
@@ -8391,7 +8416,7 @@
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="1:7" ht="16.05" customHeight="1">
+    <row r="411" spans="1:7" ht="16" customHeight="1">
       <c r="A411" s="5">
         <v>44240</v>
       </c>
@@ -8408,7 +8433,7 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="1:7" ht="16.05" customHeight="1">
+    <row r="412" spans="1:7" ht="16" customHeight="1">
       <c r="A412" s="5">
         <v>44241</v>
       </c>
@@ -8425,7 +8450,7 @@
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
     </row>
-    <row r="413" spans="1:7" ht="16.05" customHeight="1">
+    <row r="413" spans="1:7" ht="16" customHeight="1">
       <c r="A413" s="5">
         <v>44242</v>
       </c>
@@ -8442,7 +8467,7 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
     </row>
-    <row r="414" spans="1:7" ht="16.05" customHeight="1">
+    <row r="414" spans="1:7" ht="16" customHeight="1">
       <c r="A414" s="5">
         <v>44243</v>
       </c>
@@ -8459,7 +8484,7 @@
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
     </row>
-    <row r="415" spans="1:7" ht="16.05" customHeight="1">
+    <row r="415" spans="1:7" ht="16" customHeight="1">
       <c r="A415" s="5">
         <v>44244</v>
       </c>
@@ -8476,7 +8501,7 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="1:7" ht="16.05" customHeight="1">
+    <row r="416" spans="1:7" ht="16" customHeight="1">
       <c r="A416" s="5">
         <v>44245</v>
       </c>
@@ -8493,7 +8518,7 @@
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="1:7" ht="16.05" customHeight="1">
+    <row r="417" spans="1:7" ht="16" customHeight="1">
       <c r="A417" s="5">
         <v>44246</v>
       </c>
@@ -8510,7 +8535,7 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="1:7" ht="16.05" customHeight="1">
+    <row r="418" spans="1:7" ht="16" customHeight="1">
       <c r="A418" s="5">
         <v>44247</v>
       </c>
@@ -8527,7 +8552,7 @@
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="1:7" ht="16.05" customHeight="1">
+    <row r="419" spans="1:7" ht="16" customHeight="1">
       <c r="A419" s="5">
         <v>44248</v>
       </c>
@@ -8544,7 +8569,7 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="1:7" ht="16.05" customHeight="1">
+    <row r="420" spans="1:7" ht="16" customHeight="1">
       <c r="A420" s="5">
         <v>44249</v>
       </c>
@@ -8561,7 +8586,7 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="1:7" ht="16.05" customHeight="1">
+    <row r="421" spans="1:7" ht="16" customHeight="1">
       <c r="A421" s="5">
         <v>44250</v>
       </c>
@@ -8578,7 +8603,7 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="1:7" ht="16.05" customHeight="1">
+    <row r="422" spans="1:7" ht="16" customHeight="1">
       <c r="A422" s="5">
         <v>44251</v>
       </c>
@@ -8595,7 +8620,7 @@
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="1:7" ht="16.05" customHeight="1">
+    <row r="423" spans="1:7" ht="16" customHeight="1">
       <c r="A423" s="5">
         <v>44252</v>
       </c>
@@ -8612,7 +8637,7 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="1:7" ht="16.05" customHeight="1">
+    <row r="424" spans="1:7" ht="16" customHeight="1">
       <c r="A424" s="5">
         <v>44253</v>
       </c>
@@ -8629,7 +8654,7 @@
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="1:7" ht="16.05" customHeight="1">
+    <row r="425" spans="1:7" ht="16" customHeight="1">
       <c r="A425" s="5">
         <v>44254</v>
       </c>
@@ -8646,7 +8671,7 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="1:7" ht="16.05" customHeight="1">
+    <row r="426" spans="1:7" ht="16" customHeight="1">
       <c r="A426" s="5">
         <v>44255</v>
       </c>
@@ -8663,7 +8688,7 @@
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="1:7" ht="16.05" customHeight="1">
+    <row r="427" spans="1:7" ht="16" customHeight="1">
       <c r="A427" s="5">
         <v>44256</v>
       </c>
@@ -8680,7 +8705,7 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="1:7" ht="16.05" customHeight="1">
+    <row r="428" spans="1:7" ht="16" customHeight="1">
       <c r="A428" s="5">
         <v>44257</v>
       </c>
@@ -8697,7 +8722,7 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="1:7" ht="16.05" customHeight="1">
+    <row r="429" spans="1:7" ht="16" customHeight="1">
       <c r="A429" s="5">
         <v>44258</v>
       </c>
@@ -8714,7 +8739,7 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="1:7" ht="16.05" customHeight="1">
+    <row r="430" spans="1:7" ht="16" customHeight="1">
       <c r="A430" s="5">
         <v>44259</v>
       </c>
@@ -8731,7 +8756,7 @@
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="1:7" ht="16.05" customHeight="1">
+    <row r="431" spans="1:7" ht="16" customHeight="1">
       <c r="A431" s="5">
         <v>44260</v>
       </c>
@@ -8748,7 +8773,7 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="1:7" ht="16.05" customHeight="1">
+    <row r="432" spans="1:7" ht="16" customHeight="1">
       <c r="A432" s="5">
         <v>44261</v>
       </c>
@@ -8765,7 +8790,7 @@
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="1:7" ht="16.05" customHeight="1">
+    <row r="433" spans="1:7" ht="16" customHeight="1">
       <c r="A433" s="5">
         <v>44262</v>
       </c>
@@ -8782,7 +8807,7 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="1:7" ht="16.05" customHeight="1">
+    <row r="434" spans="1:7" ht="16" customHeight="1">
       <c r="A434" s="5">
         <v>44263</v>
       </c>
@@ -8799,7 +8824,7 @@
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="1:7" ht="16.05" customHeight="1">
+    <row r="435" spans="1:7" ht="16" customHeight="1">
       <c r="A435" s="5">
         <v>44264</v>
       </c>
@@ -8816,7 +8841,7 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="1:7" ht="16.05" customHeight="1">
+    <row r="436" spans="1:7" ht="16" customHeight="1">
       <c r="A436" s="5">
         <v>44265</v>
       </c>
@@ -8833,7 +8858,7 @@
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="1:7" ht="16.05" customHeight="1">
+    <row r="437" spans="1:7" ht="16" customHeight="1">
       <c r="A437" s="5">
         <v>44266</v>
       </c>
@@ -8850,7 +8875,7 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="1:7" ht="16.05" customHeight="1">
+    <row r="438" spans="1:7" ht="16" customHeight="1">
       <c r="A438" s="5">
         <v>44267</v>
       </c>
@@ -8867,7 +8892,7 @@
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="1:7" ht="16.05" customHeight="1">
+    <row r="439" spans="1:7" ht="16" customHeight="1">
       <c r="A439" s="5">
         <v>44268</v>
       </c>
@@ -8884,7 +8909,7 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="1:7" ht="16.05" customHeight="1">
+    <row r="440" spans="1:7" ht="16" customHeight="1">
       <c r="A440" s="5">
         <v>44269</v>
       </c>
@@ -8901,7 +8926,7 @@
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="1:7" ht="16.05" customHeight="1">
+    <row r="441" spans="1:7" ht="16" customHeight="1">
       <c r="A441" s="5">
         <v>44270</v>
       </c>
@@ -8918,7 +8943,7 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="1:7" ht="16.05" customHeight="1">
+    <row r="442" spans="1:7" ht="16" customHeight="1">
       <c r="A442" s="5">
         <v>44271</v>
       </c>
@@ -8935,7 +8960,7 @@
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="1:7" ht="16.05" customHeight="1">
+    <row r="443" spans="1:7" ht="16" customHeight="1">
       <c r="A443" s="5">
         <v>44272</v>
       </c>
@@ -8952,7 +8977,7 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="1:7" ht="16.05" customHeight="1">
+    <row r="444" spans="1:7" ht="16" customHeight="1">
       <c r="A444" s="5">
         <v>44273</v>
       </c>
@@ -8969,7 +8994,7 @@
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
     </row>
-    <row r="445" spans="1:7" ht="16.05" customHeight="1">
+    <row r="445" spans="1:7" ht="16" customHeight="1">
       <c r="A445" s="5">
         <v>44274</v>
       </c>
@@ -8986,7 +9011,7 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="1:7" ht="16.05" customHeight="1">
+    <row r="446" spans="1:7" ht="16" customHeight="1">
       <c r="A446" s="5">
         <v>44275</v>
       </c>
@@ -9003,7 +9028,7 @@
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="1:7" ht="16.05" customHeight="1">
+    <row r="447" spans="1:7" ht="16" customHeight="1">
       <c r="A447" s="5">
         <v>44276</v>
       </c>
@@ -9020,7 +9045,7 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="1:7" ht="16.05" customHeight="1">
+    <row r="448" spans="1:7" ht="16" customHeight="1">
       <c r="A448" s="5">
         <v>44277</v>
       </c>
@@ -9037,7 +9062,7 @@
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="1:7" ht="16.05" customHeight="1">
+    <row r="449" spans="1:7" ht="16" customHeight="1">
       <c r="A449" s="5">
         <v>44278</v>
       </c>
@@ -9054,7 +9079,7 @@
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="1:7" ht="16.05" customHeight="1">
+    <row r="450" spans="1:7" ht="16" customHeight="1">
       <c r="A450" s="5">
         <v>44279</v>
       </c>
@@ -9071,7 +9096,7 @@
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="1:7" ht="16.05" customHeight="1">
+    <row r="451" spans="1:7" ht="16" customHeight="1">
       <c r="A451" s="5">
         <v>44280</v>
       </c>
@@ -9088,7 +9113,7 @@
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="1:7" ht="16.05" customHeight="1">
+    <row r="452" spans="1:7" ht="16" customHeight="1">
       <c r="A452" s="5">
         <v>44281</v>
       </c>
@@ -9105,7 +9130,7 @@
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
     </row>
-    <row r="453" spans="1:7" ht="16.05" customHeight="1">
+    <row r="453" spans="1:7" ht="16" customHeight="1">
       <c r="A453" s="5">
         <v>44282</v>
       </c>
@@ -9122,7 +9147,7 @@
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="1:7" ht="16.05" customHeight="1">
+    <row r="454" spans="1:7" ht="16" customHeight="1">
       <c r="A454" s="5">
         <v>44283</v>
       </c>
@@ -9139,7 +9164,7 @@
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="1:7" ht="16.05" customHeight="1">
+    <row r="455" spans="1:7" ht="16" customHeight="1">
       <c r="A455" s="5">
         <v>44284</v>
       </c>
@@ -9156,7 +9181,7 @@
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="1:7" ht="16.05" customHeight="1">
+    <row r="456" spans="1:7" ht="16" customHeight="1">
       <c r="A456" s="5">
         <v>44285</v>
       </c>
@@ -9173,7 +9198,7 @@
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="1:7" ht="16.05" customHeight="1">
+    <row r="457" spans="1:7" ht="16" customHeight="1">
       <c r="A457" s="5">
         <v>44286</v>
       </c>
@@ -9190,7 +9215,7 @@
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="1:7" ht="16.05" customHeight="1">
+    <row r="458" spans="1:7" ht="16" customHeight="1">
       <c r="A458" s="5">
         <v>44287</v>
       </c>
@@ -9207,7 +9232,7 @@
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="1:7" ht="16.05" customHeight="1">
+    <row r="459" spans="1:7" ht="16" customHeight="1">
       <c r="A459" s="5">
         <v>44288</v>
       </c>
@@ -9224,7 +9249,7 @@
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="1:7" ht="16.05" customHeight="1">
+    <row r="460" spans="1:7" ht="16" customHeight="1">
       <c r="A460" s="5">
         <v>44289</v>
       </c>
@@ -9241,7 +9266,7 @@
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="1:7" ht="16.05" customHeight="1">
+    <row r="461" spans="1:7" ht="16" customHeight="1">
       <c r="A461" s="5">
         <v>44290</v>
       </c>
@@ -9258,7 +9283,7 @@
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="1:7" ht="16.05" customHeight="1">
+    <row r="462" spans="1:7" ht="16" customHeight="1">
       <c r="A462" s="5">
         <v>44291</v>
       </c>
@@ -9275,7 +9300,7 @@
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="1:7" ht="16.05" customHeight="1">
+    <row r="463" spans="1:7" ht="16" customHeight="1">
       <c r="A463" s="5">
         <v>44292</v>
       </c>
@@ -9292,7 +9317,7 @@
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="1:7" ht="16.05" customHeight="1">
+    <row r="464" spans="1:7" ht="16" customHeight="1">
       <c r="A464" s="5">
         <v>44293</v>
       </c>
@@ -9309,7 +9334,7 @@
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="1:7" ht="16.05" customHeight="1">
+    <row r="465" spans="1:7" ht="16" customHeight="1">
       <c r="A465" s="5">
         <v>44294</v>
       </c>
@@ -9326,7 +9351,7 @@
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="1:7" ht="16.05" customHeight="1">
+    <row r="466" spans="1:7" ht="16" customHeight="1">
       <c r="A466" s="5">
         <v>44295</v>
       </c>
@@ -9343,7 +9368,7 @@
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="1:7" ht="16.05" customHeight="1">
+    <row r="467" spans="1:7" ht="16" customHeight="1">
       <c r="A467" s="5">
         <v>44296</v>
       </c>
@@ -9360,7 +9385,7 @@
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="1:7" ht="16.05" customHeight="1">
+    <row r="468" spans="1:7" ht="16" customHeight="1">
       <c r="A468" s="5">
         <v>44297</v>
       </c>
@@ -9377,7 +9402,7 @@
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="1:7" ht="16.05" customHeight="1">
+    <row r="469" spans="1:7" ht="16" customHeight="1">
       <c r="A469" s="5">
         <v>44298</v>
       </c>
@@ -9394,7 +9419,7 @@
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="1:7" ht="16.05" customHeight="1">
+    <row r="470" spans="1:7" ht="16" customHeight="1">
       <c r="A470" s="5">
         <v>44299</v>
       </c>
@@ -9411,7 +9436,7 @@
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="1:7" ht="16.05" customHeight="1">
+    <row r="471" spans="1:7" ht="16" customHeight="1">
       <c r="A471" s="5">
         <v>44300</v>
       </c>
@@ -9428,7 +9453,7 @@
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="1:7" ht="16.05" customHeight="1">
+    <row r="472" spans="1:7" ht="16" customHeight="1">
       <c r="A472" s="5">
         <v>44301</v>
       </c>
@@ -9445,7 +9470,7 @@
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="1:7" ht="16.05" customHeight="1">
+    <row r="473" spans="1:7" ht="16" customHeight="1">
       <c r="A473" s="5">
         <v>44302</v>
       </c>
@@ -9462,7 +9487,7 @@
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="1:7" ht="16.05" customHeight="1">
+    <row r="474" spans="1:7" ht="16" customHeight="1">
       <c r="A474" s="5">
         <v>44303</v>
       </c>
@@ -9479,7 +9504,7 @@
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="1:7" ht="16.05" customHeight="1">
+    <row r="475" spans="1:7" ht="16" customHeight="1">
       <c r="A475" s="5">
         <v>44304</v>
       </c>
@@ -9496,7 +9521,7 @@
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="1:7" ht="16.05" customHeight="1">
+    <row r="476" spans="1:7" ht="16" customHeight="1">
       <c r="A476" s="5">
         <v>44305</v>
       </c>
@@ -9513,7 +9538,7 @@
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
     </row>
-    <row r="477" spans="1:7" ht="16.05" customHeight="1">
+    <row r="477" spans="1:7" ht="16" customHeight="1">
       <c r="A477" s="5">
         <v>44306</v>
       </c>
@@ -9530,7 +9555,7 @@
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
     </row>
-    <row r="478" spans="1:7" ht="16.05" customHeight="1">
+    <row r="478" spans="1:7" ht="16" customHeight="1">
       <c r="A478" s="5">
         <v>44307</v>
       </c>
@@ -9547,7 +9572,7 @@
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="1:7" ht="16.05" customHeight="1">
+    <row r="479" spans="1:7" ht="16" customHeight="1">
       <c r="A479" s="5">
         <v>44308</v>
       </c>
@@ -9564,7 +9589,7 @@
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="1:7" ht="16.05" customHeight="1">
+    <row r="480" spans="1:7" ht="16" customHeight="1">
       <c r="A480" s="5">
         <v>44309</v>
       </c>
@@ -9581,7 +9606,7 @@
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="1:7" ht="16.05" customHeight="1">
+    <row r="481" spans="1:7" ht="16" customHeight="1">
       <c r="A481" s="5">
         <v>44310</v>
       </c>
@@ -9598,7 +9623,7 @@
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="1:7" ht="16.05" customHeight="1">
+    <row r="482" spans="1:7" ht="16" customHeight="1">
       <c r="A482" s="5">
         <v>44311</v>
       </c>
@@ -9615,7 +9640,7 @@
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="1:7" ht="16.05" customHeight="1">
+    <row r="483" spans="1:7" ht="16" customHeight="1">
       <c r="A483" s="5">
         <v>44312</v>
       </c>
@@ -9632,7 +9657,7 @@
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="1:7" ht="16.05" customHeight="1">
+    <row r="484" spans="1:7" ht="16" customHeight="1">
       <c r="A484" s="5">
         <v>44313</v>
       </c>
@@ -9649,7 +9674,7 @@
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="1:7" ht="16.05" customHeight="1">
+    <row r="485" spans="1:7" ht="16" customHeight="1">
       <c r="A485" s="5">
         <v>44314</v>
       </c>
@@ -9666,7 +9691,7 @@
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="16.05" customHeight="1">
+    <row r="486" spans="1:7" ht="16" customHeight="1">
       <c r="A486" s="5">
         <v>44315</v>
       </c>
@@ -9683,7 +9708,7 @@
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="1:7" ht="16.05" customHeight="1">
+    <row r="487" spans="1:7" ht="16" customHeight="1">
       <c r="A487" s="5">
         <v>44316</v>
       </c>
@@ -9700,7 +9725,7 @@
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="1:7" ht="16.05" customHeight="1">
+    <row r="488" spans="1:7" ht="16" customHeight="1">
       <c r="A488" s="5">
         <v>44317</v>
       </c>
@@ -9717,7 +9742,7 @@
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="1:7" ht="16.05" customHeight="1">
+    <row r="489" spans="1:7" ht="16" customHeight="1">
       <c r="A489" s="5">
         <v>44318</v>
       </c>
@@ -9734,7 +9759,7 @@
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
     </row>
-    <row r="490" spans="1:7" ht="16.05" customHeight="1">
+    <row r="490" spans="1:7" ht="16" customHeight="1">
       <c r="A490" s="5">
         <v>44319</v>
       </c>
@@ -9751,7 +9776,7 @@
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="1:7" ht="16.05" customHeight="1">
+    <row r="491" spans="1:7" ht="16" customHeight="1">
       <c r="A491" s="5">
         <v>44320</v>
       </c>
@@ -9768,7 +9793,7 @@
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="1:7" ht="16.05" customHeight="1">
+    <row r="492" spans="1:7" ht="16" customHeight="1">
       <c r="A492" s="5">
         <v>44321</v>
       </c>
@@ -9785,7 +9810,7 @@
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="1:7" ht="16.05" customHeight="1">
+    <row r="493" spans="1:7" ht="16" customHeight="1">
       <c r="A493" s="5">
         <v>44322</v>
       </c>
@@ -9802,7 +9827,7 @@
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="1:7" ht="16.05" customHeight="1">
+    <row r="494" spans="1:7" ht="16" customHeight="1">
       <c r="A494" s="5">
         <v>44323</v>
       </c>
@@ -9819,7 +9844,7 @@
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="1:7" ht="16.05" customHeight="1">
+    <row r="495" spans="1:7" ht="16" customHeight="1">
       <c r="A495" s="5">
         <v>44324</v>
       </c>
@@ -9836,7 +9861,7 @@
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="1:7" ht="16.05" customHeight="1">
+    <row r="496" spans="1:7" ht="16" customHeight="1">
       <c r="A496" s="5">
         <v>44325</v>
       </c>
@@ -9853,7 +9878,7 @@
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="1:7" ht="16.05" customHeight="1">
+    <row r="497" spans="1:7" ht="16" customHeight="1">
       <c r="A497" s="5">
         <v>44326</v>
       </c>
@@ -9870,7 +9895,7 @@
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="1:7" ht="16.05" customHeight="1">
+    <row r="498" spans="1:7" ht="16" customHeight="1">
       <c r="A498" s="5">
         <v>44327</v>
       </c>
@@ -9887,7 +9912,7 @@
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="1:7" ht="16.05" customHeight="1">
+    <row r="499" spans="1:7" ht="16" customHeight="1">
       <c r="A499" s="5">
         <v>44328</v>
       </c>
@@ -9904,7 +9929,7 @@
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="1:7" ht="16.05" customHeight="1">
+    <row r="500" spans="1:7" ht="16" customHeight="1">
       <c r="A500" s="5">
         <v>44329</v>
       </c>
@@ -9921,7 +9946,7 @@
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="1:7" ht="16.05" customHeight="1">
+    <row r="501" spans="1:7" ht="16" customHeight="1">
       <c r="A501" s="5">
         <v>44330</v>
       </c>
@@ -9938,7 +9963,7 @@
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="1:7" ht="16.05" customHeight="1">
+    <row r="502" spans="1:7" ht="16" customHeight="1">
       <c r="A502" s="5">
         <v>44331</v>
       </c>
@@ -9955,7 +9980,7 @@
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="1:7" ht="16.05" customHeight="1">
+    <row r="503" spans="1:7" ht="16" customHeight="1">
       <c r="A503" s="5">
         <v>44332</v>
       </c>
@@ -9972,7 +9997,7 @@
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="1:7" ht="16.05" customHeight="1">
+    <row r="504" spans="1:7" ht="16" customHeight="1">
       <c r="A504" s="5">
         <v>44333</v>
       </c>
@@ -9989,7 +10014,7 @@
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="1:7" ht="16.05" customHeight="1">
+    <row r="505" spans="1:7" ht="16" customHeight="1">
       <c r="A505" s="5">
         <v>44334</v>
       </c>
@@ -10006,7 +10031,7 @@
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="1:7" ht="16.05" customHeight="1">
+    <row r="506" spans="1:7" ht="16" customHeight="1">
       <c r="A506" s="5">
         <v>44335</v>
       </c>
@@ -10023,7 +10048,7 @@
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="1:7" ht="16.05" customHeight="1">
+    <row r="507" spans="1:7" ht="16" customHeight="1">
       <c r="A507" s="5">
         <v>44336</v>
       </c>
@@ -10040,7 +10065,7 @@
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="1:7" ht="16.05" customHeight="1">
+    <row r="508" spans="1:7" ht="16" customHeight="1">
       <c r="A508" s="5">
         <v>44337</v>
       </c>
@@ -10057,7 +10082,7 @@
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="1:7" ht="16.05" customHeight="1">
+    <row r="509" spans="1:7" ht="16" customHeight="1">
       <c r="A509" s="5">
         <v>44338</v>
       </c>
@@ -10074,7 +10099,7 @@
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="1:7" ht="16.05" customHeight="1">
+    <row r="510" spans="1:7" ht="16" customHeight="1">
       <c r="A510" s="5">
         <v>44339</v>
       </c>
@@ -10091,7 +10116,7 @@
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="1:7" ht="16.05" customHeight="1">
+    <row r="511" spans="1:7" ht="16" customHeight="1">
       <c r="A511" s="5">
         <v>44340</v>
       </c>
@@ -10108,7 +10133,7 @@
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="1:7" ht="16.05" customHeight="1">
+    <row r="512" spans="1:7" ht="16" customHeight="1">
       <c r="A512" s="5">
         <v>44341</v>
       </c>
@@ -10125,7 +10150,7 @@
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="1:7" ht="16.05" customHeight="1">
+    <row r="513" spans="1:7" ht="16" customHeight="1">
       <c r="A513" s="5">
         <v>44342</v>
       </c>
@@ -10142,7 +10167,7 @@
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="1:7" ht="16.05" customHeight="1">
+    <row r="514" spans="1:7" ht="16" customHeight="1">
       <c r="A514" s="5">
         <v>44343</v>
       </c>
@@ -10159,7 +10184,7 @@
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="1:7" ht="16.05" customHeight="1">
+    <row r="515" spans="1:7" ht="16" customHeight="1">
       <c r="A515" s="5">
         <v>44344</v>
       </c>
@@ -10176,7 +10201,7 @@
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="1:7" ht="16.05" customHeight="1">
+    <row r="516" spans="1:7" ht="16" customHeight="1">
       <c r="A516" s="5">
         <v>44345</v>
       </c>
@@ -10193,7 +10218,7 @@
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="1:7" ht="16.05" customHeight="1">
+    <row r="517" spans="1:7" ht="16" customHeight="1">
       <c r="A517" s="5">
         <v>44346</v>
       </c>
@@ -10210,7 +10235,7 @@
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+    <row r="518" spans="1:7" ht="16" customHeight="1" thickBot="1">
       <c r="A518" s="5">
         <v>44347</v>
       </c>
@@ -10227,7 +10252,7 @@
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+    <row r="519" spans="1:7" ht="16" customHeight="1" thickBot="1">
       <c r="A519" s="9">
         <v>44348</v>
       </c>
@@ -10244,7 +10269,7 @@
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+    <row r="520" spans="1:7" ht="16" customHeight="1" thickBot="1">
       <c r="A520" s="9">
         <v>44349</v>
       </c>
@@ -12310,20 +12335,821 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8919E9B1-1BCF-1245-B925-EECD07FD7B45}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>19.00935483870968</v>
+      </c>
+      <c r="C2" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>35.078965517241357</v>
+      </c>
+      <c r="C3">
+        <v>16.608275862068975</v>
+      </c>
+      <c r="D3">
+        <v>9.1506896551724157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>38.498064516129048</v>
+      </c>
+      <c r="C4">
+        <v>30.539354838709688</v>
+      </c>
+      <c r="D4">
+        <v>43.387419354838691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>68.197333333333304</v>
+      </c>
+      <c r="C5">
+        <v>60.800000000000004</v>
+      </c>
+      <c r="D5">
+        <v>66.193666666666701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>74.058064516129051</v>
+      </c>
+      <c r="C6">
+        <v>59.783548387096801</v>
+      </c>
+      <c r="D6">
+        <v>66.67000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>63.848666666666659</v>
+      </c>
+      <c r="C7">
+        <v>66.029333333333327</v>
+      </c>
+      <c r="D7">
+        <v>65.400666666666638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>56.549999999999969</v>
+      </c>
+      <c r="C8">
+        <v>62.75548387096778</v>
+      </c>
+      <c r="D8">
+        <v>65.609354838709692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>56.549999999999969</v>
+      </c>
+      <c r="C9">
+        <v>64.652258064516161</v>
+      </c>
+      <c r="D9">
+        <v>64.880000000000052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>56.549999999999969</v>
+      </c>
+      <c r="C10">
+        <v>60.902000000000008</v>
+      </c>
+      <c r="D10">
+        <v>62.9926666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>52.980000000000011</v>
+      </c>
+      <c r="C11">
+        <v>62.911935483870955</v>
+      </c>
+      <c r="D11">
+        <v>62.902258064516133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>52.980000000000011</v>
+      </c>
+      <c r="C12">
+        <v>63.573666666666618</v>
+      </c>
+      <c r="D12">
+        <v>66.487666666666684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>55.45225806451613</v>
+      </c>
+      <c r="C13">
+        <v>69.704838709677404</v>
+      </c>
+      <c r="D13">
+        <v>68.767096774193547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>58.978387096774163</v>
+      </c>
+      <c r="C14">
+        <v>80.978387096774227</v>
+      </c>
+      <c r="D14">
+        <v>69.289999999999978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>61.789999999999978</v>
+      </c>
+      <c r="C15">
+        <v>81.075000000000017</v>
+      </c>
+      <c r="D15">
+        <v>67.172857142857168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>62.525483870967754</v>
+      </c>
+      <c r="C16">
+        <v>75.155806451612904</v>
+      </c>
+      <c r="D16">
+        <v>65.544193548387128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>64.640000000000043</v>
+      </c>
+      <c r="C17">
+        <v>65.631666666666689</v>
+      </c>
+      <c r="D17">
+        <v>63.191999999999979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>67.211935483871002</v>
+      </c>
+      <c r="C18">
+        <v>63.483548387096725</v>
+      </c>
+      <c r="D18">
+        <v>63.084516129032252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F896F5-D26C-F445-AF1D-87D94796BE8A}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+      <c r="D5" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12">
+        <v>79.838709677419359</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+      <c r="D6" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12">
+        <v>100</v>
+      </c>
+      <c r="C7" s="12">
+        <v>100</v>
+      </c>
+      <c r="D7" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12">
+        <v>100</v>
+      </c>
+      <c r="C8" s="12">
+        <v>100</v>
+      </c>
+      <c r="D8" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12">
+        <v>100</v>
+      </c>
+      <c r="C9" s="12">
+        <v>100</v>
+      </c>
+      <c r="D9" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12">
+        <v>100</v>
+      </c>
+      <c r="C10" s="12">
+        <v>100</v>
+      </c>
+      <c r="D10" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="12">
+        <v>100</v>
+      </c>
+      <c r="C11" s="12">
+        <v>100</v>
+      </c>
+      <c r="D11" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="12">
+        <v>100</v>
+      </c>
+      <c r="D12" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12">
+        <v>100</v>
+      </c>
+      <c r="C13" s="12">
+        <v>100</v>
+      </c>
+      <c r="D13" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="12">
+        <v>100</v>
+      </c>
+      <c r="C14" s="12">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="12">
+        <v>100</v>
+      </c>
+      <c r="C15" s="12">
+        <v>100</v>
+      </c>
+      <c r="D15" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="12">
+        <v>100</v>
+      </c>
+      <c r="C16" s="12">
+        <v>100</v>
+      </c>
+      <c r="D16" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="12">
+        <v>100</v>
+      </c>
+      <c r="C17" s="12">
+        <v>100</v>
+      </c>
+      <c r="D17" s="12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="12">
+        <v>100</v>
+      </c>
+      <c r="C18" s="12">
+        <v>100</v>
+      </c>
+      <c r="D18" s="12">
+        <v>53.225806451612904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E368002C-102F-6749-A5AE-75A53E849C9C}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>20.606451612903225</v>
+      </c>
+      <c r="C2">
+        <v>5.79</v>
+      </c>
+      <c r="D2" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>29.409655172413775</v>
+      </c>
+      <c r="C3">
+        <v>11.01413793103449</v>
+      </c>
+      <c r="D3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>33.961612903225813</v>
+      </c>
+      <c r="C4">
+        <v>36.63322580645162</v>
+      </c>
+      <c r="D4">
+        <v>45.774516129032278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>69.257666666666637</v>
+      </c>
+      <c r="C5">
+        <v>79.630000000000067</v>
+      </c>
+      <c r="D5">
+        <v>72.69000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>74.462903225806514</v>
+      </c>
+      <c r="C6">
+        <v>74.225161290322561</v>
+      </c>
+      <c r="D6">
+        <v>72.69000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>60.063000000000024</v>
+      </c>
+      <c r="C7">
+        <v>70.865999999999985</v>
+      </c>
+      <c r="D7">
+        <v>70.711333333333357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>50.930000000000007</v>
+      </c>
+      <c r="C8">
+        <v>65.381290322580611</v>
+      </c>
+      <c r="D8">
+        <v>68.26387096774198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>50.930000000000007</v>
+      </c>
+      <c r="C9">
+        <v>67.636129032258069</v>
+      </c>
+      <c r="D9">
+        <v>67.130000000000052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>50.93</v>
+      </c>
+      <c r="C10">
+        <v>65.569333333333319</v>
+      </c>
+      <c r="D10">
+        <v>64.197666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>45.369999999999969</v>
+      </c>
+      <c r="C11">
+        <v>67.891290322580659</v>
+      </c>
+      <c r="D11">
+        <v>64.051612903225831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>45.369999999999976</v>
+      </c>
+      <c r="C12">
+        <v>68.33066666666663</v>
+      </c>
+      <c r="D12">
+        <v>69.628666666666675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>47.880967741935464</v>
+      </c>
+      <c r="C13">
+        <v>72.356129032258082</v>
+      </c>
+      <c r="D13">
+        <v>71.879354838709688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>48.419032258064526</v>
+      </c>
+      <c r="C14">
+        <v>86.8851612903226</v>
+      </c>
+      <c r="D14">
+        <v>71.760000000000019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>50.93</v>
+      </c>
+      <c r="C15">
+        <v>87.497500000000031</v>
+      </c>
+      <c r="D15">
+        <v>68.324285714285679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>50.930000000000007</v>
+      </c>
+      <c r="C16">
+        <v>79.74806451612902</v>
+      </c>
+      <c r="D16">
+        <v>63.573548387096757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>50.93</v>
+      </c>
+      <c r="C17">
+        <v>64.505333333333297</v>
+      </c>
+      <c r="D17">
+        <v>56.94000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>54.928387096774159</v>
+      </c>
+      <c r="C18">
+        <v>61.154838709677428</v>
+      </c>
+      <c r="D18">
+        <v>51.89354838709675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -12340,7 +13166,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" thickBot="1">
+    <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="7">
         <v>44470</v>
       </c>
@@ -12357,7 +13183,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4" thickBot="1">
+    <row r="3" spans="1:7" ht="16" thickBot="1">
       <c r="A3" s="7">
         <v>44471</v>
       </c>
@@ -12374,7 +13200,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4" thickBot="1">
+    <row r="4" spans="1:7" ht="16" thickBot="1">
       <c r="A4" s="7">
         <v>44472</v>
       </c>
@@ -12391,7 +13217,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4" thickBot="1">
+    <row r="5" spans="1:7" ht="16" thickBot="1">
       <c r="A5" s="7">
         <v>44473</v>
       </c>
@@ -12408,7 +13234,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="14.4" thickBot="1">
+    <row r="6" spans="1:7" ht="16" thickBot="1">
       <c r="A6" s="7">
         <v>44474</v>
       </c>
@@ -12425,7 +13251,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="14.4" thickBot="1">
+    <row r="7" spans="1:7" ht="16" thickBot="1">
       <c r="A7" s="7">
         <v>44475</v>
       </c>
@@ -12442,7 +13268,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="14.4" thickBot="1">
+    <row r="8" spans="1:7" ht="16" thickBot="1">
       <c r="A8" s="7">
         <v>44476</v>
       </c>
@@ -12459,7 +13285,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="14.4" thickBot="1">
+    <row r="9" spans="1:7" ht="16" thickBot="1">
       <c r="A9" s="7">
         <v>44477</v>
       </c>
@@ -12476,7 +13302,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="14.4" thickBot="1">
+    <row r="10" spans="1:7" ht="16" thickBot="1">
       <c r="A10" s="7">
         <v>44478</v>
       </c>
@@ -12493,7 +13319,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="14.4" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1">
       <c r="A11" s="7">
         <v>44479</v>
       </c>
@@ -12510,7 +13336,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="14.4" thickBot="1">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="7">
         <v>44480</v>
       </c>
@@ -12527,7 +13353,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="14.4" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="7">
         <v>44481</v>
       </c>
@@ -12544,7 +13370,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="14.4" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="7">
         <v>44482</v>
       </c>
@@ -12561,7 +13387,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="14.4" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="7">
         <v>44483</v>
       </c>
@@ -12578,7 +13404,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="14.4" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="7">
         <v>44484</v>
       </c>
@@ -12595,7 +13421,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="14.4" thickBot="1">
+    <row r="17" spans="1:7" ht="16" thickBot="1">
       <c r="A17" s="7">
         <v>44485</v>
       </c>
@@ -12618,14 +13444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
@@ -12865,7 +13691,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1">
+    <row r="18" spans="1:4" ht="16" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -12879,7 +13705,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1">
+    <row r="19" spans="1:4" ht="16" thickBot="1">
       <c r="A19" s="11">
         <v>44348</v>
       </c>
@@ -12893,7 +13719,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1">
+    <row r="20" spans="1:4" ht="16" thickBot="1">
       <c r="A20" s="11">
         <v>44378</v>
       </c>
@@ -12907,7 +13733,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1">
+    <row r="21" spans="1:4" ht="16" thickBot="1">
       <c r="A21" s="11">
         <v>44409</v>
       </c>
@@ -12921,7 +13747,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1">
+    <row r="22" spans="1:4" ht="16" thickBot="1">
       <c r="A22" s="11">
         <v>44440</v>
       </c>
@@ -12941,16 +13767,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1">
+    <row r="1" spans="1:4" ht="16" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -12964,7 +13790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1">
+    <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="11">
         <v>44470</v>
       </c>
@@ -12984,12 +13810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D518"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A134" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
@@ -20249,12 +21077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D518"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D518"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
@@ -27514,12 +28344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D518"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D518"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
@@ -34779,12 +35611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D518"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
@@ -42041,4 +42875,283 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61722F26-B4A4-984F-9C48-9A0A0836E152}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>16.632580645161294</v>
+      </c>
+      <c r="C2" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>30.693103448275853</v>
+      </c>
+      <c r="C3">
+        <v>14.526206896551722</v>
+      </c>
+      <c r="D3">
+        <v>8.0075862068965549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>33.688387096774186</v>
+      </c>
+      <c r="C4">
+        <v>31.659677419354839</v>
+      </c>
+      <c r="D4">
+        <v>39.221290322580657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>65.086333333333329</v>
+      </c>
+      <c r="C5">
+        <v>65.69899999999997</v>
+      </c>
+      <c r="D5">
+        <v>65.732333333333372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>74.781935483870981</v>
+      </c>
+      <c r="C6">
+        <v>64.811290322580646</v>
+      </c>
+      <c r="D6">
+        <v>66.150000000000034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>68.370666666666679</v>
+      </c>
+      <c r="C7">
+        <v>70.275333333333307</v>
+      </c>
+      <c r="D7">
+        <v>65.035333333333298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>61.980000000000011</v>
+      </c>
+      <c r="C8">
+        <v>67.416451612903245</v>
+      </c>
+      <c r="D8">
+        <v>65.217419354838668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>61.980000000000011</v>
+      </c>
+      <c r="C9">
+        <v>69.068709677419349</v>
+      </c>
+      <c r="D9">
+        <v>64.57999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>61.980000000000011</v>
+      </c>
+      <c r="C10">
+        <v>65.790333333333379</v>
+      </c>
+      <c r="D10">
+        <v>62.933333333333351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>58.849999999999966</v>
+      </c>
+      <c r="C11">
+        <v>67.551290322580684</v>
+      </c>
+      <c r="D11">
+        <v>62.852258064516114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>58.849999999999973</v>
+      </c>
+      <c r="C12">
+        <v>68.127666666666684</v>
+      </c>
+      <c r="D12">
+        <v>65.98899999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>61.016451612903232</v>
+      </c>
+      <c r="C13">
+        <v>73.492580645161311</v>
+      </c>
+      <c r="D13">
+        <v>67.982903225806496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>64.102580645161268</v>
+      </c>
+      <c r="C14">
+        <v>83.354838709677438</v>
+      </c>
+      <c r="D14">
+        <v>68.44000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>66.55999999999996</v>
+      </c>
+      <c r="C15">
+        <v>83.44000000000004</v>
+      </c>
+      <c r="D15">
+        <v>66.588571428571399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>67.205161290322536</v>
+      </c>
+      <c r="C16">
+        <v>78.265161290322609</v>
+      </c>
+      <c r="D16">
+        <v>65.163870967741929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>69.05999999999996</v>
+      </c>
+      <c r="C17">
+        <v>69.930333333333323</v>
+      </c>
+      <c r="D17">
+        <v>63.099999999999973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>71.311935483870968</v>
+      </c>
+      <c r="C18">
+        <v>68.045161290322568</v>
+      </c>
+      <c r="D18">
+        <v>61.852258064516171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/formated_data.xlsx
+++ b/formated_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penghaochen/Dropbox/Master/2021_22 SEM1/FE5209/Project/covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634010C-6C4B-2745-82D3-649E4669CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBACDF6-719A-2544-B54F-3AD344D36E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily New Cases" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="75">
   <si>
     <t>Singapore</t>
   </si>
@@ -257,13 +257,26 @@
   <si>
     <t>MUR</t>
   </si>
+  <si>
+    <t>2021-06</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
+    <t>2021-08</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -378,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,6 +431,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32337,7 +32355,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
@@ -32353,7 +32371,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
@@ -32363,7 +32381,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
@@ -32373,7 +32391,7 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
@@ -32383,7 +32401,7 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4">
@@ -32393,7 +32411,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
@@ -32403,7 +32421,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4">
@@ -32413,7 +32431,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4">
@@ -32423,7 +32441,7 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4">
@@ -32433,7 +32451,7 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4">
@@ -32443,7 +32461,7 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4">
@@ -32453,7 +32471,7 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4">
@@ -32463,7 +32481,7 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4">
@@ -32473,7 +32491,7 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4">
@@ -32483,7 +32501,7 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4">
@@ -32493,7 +32511,7 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="4">
@@ -32503,7 +32521,7 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4">
@@ -32513,7 +32531,7 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="4">
@@ -32556,7 +32574,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B50"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32570,7 +32588,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="18">
@@ -32578,7 +32596,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="18">
@@ -32586,7 +32604,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="18">
@@ -32594,7 +32612,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="18">
@@ -32602,7 +32620,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="18">
@@ -32610,7 +32628,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="18">
@@ -32618,7 +32636,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="18">
@@ -32626,7 +32644,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="18">
@@ -32634,7 +32652,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="18">
@@ -32642,7 +32660,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="18">
@@ -32650,7 +32668,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="18">
@@ -32658,7 +32676,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="18">
@@ -32666,7 +32684,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="18">
@@ -32674,7 +32692,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="18">
@@ -32682,7 +32700,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="18">
@@ -32690,7 +32708,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="18">
@@ -32698,7 +32716,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="18">
@@ -32706,7 +32724,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="18">
@@ -32714,7 +32732,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="18">
@@ -32722,7 +32740,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="18">
@@ -32730,7 +32748,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="18">
@@ -32738,7 +32756,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="18">
@@ -32746,7 +32764,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="18">
@@ -32754,7 +32772,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="18">
@@ -32762,7 +32780,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="18">
@@ -32770,7 +32788,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="18">
@@ -32778,7 +32796,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="18">
@@ -32786,7 +32804,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="18">
@@ -32794,7 +32812,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="18">
@@ -32802,7 +32820,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="18">
@@ -32810,7 +32828,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="18">
@@ -32818,7 +32836,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="18">
@@ -32826,7 +32844,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="18">
@@ -32834,7 +32852,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="18">
@@ -32842,7 +32860,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="18">
@@ -32850,7 +32868,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="18">
@@ -32858,7 +32876,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="18">
@@ -32866,7 +32884,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="18">
@@ -32874,7 +32892,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="18">
@@ -32882,7 +32900,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="18">
@@ -32890,7 +32908,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="18">
@@ -32898,7 +32916,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="18">
@@ -32906,7 +32924,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="18">
@@ -32914,7 +32932,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="18">
@@ -32922,7 +32940,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="18">
@@ -32930,7 +32948,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B47" s="18">
@@ -32938,7 +32956,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="18">
@@ -32946,7 +32964,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="18">
@@ -32954,7 +32972,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="18">
@@ -32970,8 +32988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA443B4-1472-2D45-9244-C57EC4F8EB60}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A47:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32985,7 +33003,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="18">
@@ -32993,7 +33011,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="18">
@@ -33001,7 +33019,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="18">
@@ -33009,7 +33027,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="18">
@@ -33017,7 +33035,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="18">
@@ -33025,7 +33043,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="18">
@@ -33033,7 +33051,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="18">
@@ -33041,7 +33059,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="18">
@@ -33049,7 +33067,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="18">
@@ -33057,7 +33075,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="18">
@@ -33065,7 +33083,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="18">
@@ -33073,7 +33091,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="18">
@@ -33081,7 +33099,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="18">
@@ -33089,7 +33107,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="18">
@@ -33097,7 +33115,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="18">
@@ -33105,7 +33123,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="18">
@@ -33113,7 +33131,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="18">
@@ -33121,7 +33139,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="18">
@@ -33129,7 +33147,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="18">
@@ -33137,7 +33155,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="18">
@@ -33145,7 +33163,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="18">
@@ -33153,7 +33171,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="18">
@@ -33161,7 +33179,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="18">
@@ -33169,7 +33187,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="18">
@@ -33177,7 +33195,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="18">
@@ -33185,7 +33203,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="18">
@@ -33193,7 +33211,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="18">
@@ -33201,7 +33219,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="18">
@@ -33209,7 +33227,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="18">
@@ -33217,7 +33235,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="18">
@@ -33225,7 +33243,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="18">
@@ -33233,7 +33251,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="18">
@@ -33241,7 +33259,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="18">
@@ -33249,7 +33267,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="18">
@@ -33257,7 +33275,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="18">
@@ -33265,7 +33283,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="18">
@@ -33273,7 +33291,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="18">
@@ -33281,7 +33299,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="18">
@@ -33289,7 +33307,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="18">
@@ -33297,7 +33315,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="18">
@@ -33305,7 +33323,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="18">
@@ -33313,7 +33331,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="18">
@@ -33321,7 +33339,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="18">
@@ -33329,7 +33347,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="18">
@@ -33337,7 +33355,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="18">
@@ -33345,7 +33363,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B47" s="18">
@@ -33353,7 +33371,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="18">
@@ -33361,7 +33379,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="18">
@@ -33369,7 +33387,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" thickBot="1">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="18">
@@ -33401,8 +33419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D070761-CC06-BB48-B07B-7D97B3F06019}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -33422,8 +33440,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="11">
-        <v>44348</v>
+      <c r="A2" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="10">
         <v>2.7</v>
@@ -33436,8 +33454,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
-      <c r="A3" s="11">
-        <v>44378</v>
+      <c r="A3" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="10">
         <v>2.8</v>
@@ -33450,8 +33468,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
-      <c r="A4" s="11">
-        <v>44409</v>
+      <c r="A4" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="10">
         <v>2.7</v>
@@ -33464,8 +33482,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="11">
-        <v>44440</v>
+      <c r="A5" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="10">
         <v>2.6</v>

--- a/formated_data.xlsx
+++ b/formated_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penghaochen/Dropbox/Master/2021_22 SEM1/FE5209/Project/covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBACDF6-719A-2544-B54F-3AD344D36E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE8DDF4-B645-BF47-A014-D2A729CD4782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily New Cases" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -312,6 +312,12 @@
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF494444"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -391,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,6 +442,7 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32571,10 +32578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54AE73C-BF2E-6F47-A614-7EC13866BAA4}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32591,392 +32598,445 @@
       <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="18">
-        <v>4.4254020000000001</v>
+      <c r="B2">
+        <v>4.43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="18">
-        <v>4.3376950000000001</v>
+      <c r="B3">
+        <v>4.34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18">
-        <v>4.3280399999999997</v>
+      <c r="B4">
+        <v>4.33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18">
-        <v>4.2668150000000002</v>
+      <c r="B5">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18">
-        <v>4.2433370000000004</v>
+      <c r="B6">
+        <v>4.24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18">
-        <v>4.2718559999999997</v>
+      <c r="B7">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18">
-        <v>4.3522169999999996</v>
+      <c r="B8">
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18">
-        <v>4.3060479999999997</v>
+      <c r="B9">
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="18">
-        <v>4.2130970000000003</v>
+      <c r="B10">
+        <v>4.21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="18">
-        <v>4.198035</v>
+      <c r="B11">
+        <v>4.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="18">
-        <v>4.1889440000000002</v>
+      <c r="B12">
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="18">
-        <v>4.1653599999999997</v>
+      <c r="B13">
+        <v>4.17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="18">
-        <v>4.036543</v>
+      <c r="B14">
+        <v>4.04</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="18">
-        <v>4.0211969999999999</v>
+      <c r="B15">
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="18">
-        <v>4.0346690000000001</v>
+      <c r="B16">
+        <v>4.03</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="18">
-        <v>4.0733689999999996</v>
+      <c r="B17">
+        <v>4.07</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="18">
-        <v>4.0553179999999998</v>
+      <c r="B18">
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="18">
-        <v>4.0390870000000003</v>
+      <c r="B19">
+        <v>4.04</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="18">
-        <v>4.0135420000000002</v>
+      <c r="B20">
+        <v>4.01</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="18">
-        <v>3.9305620000000001</v>
+      <c r="B21">
+        <v>3.93</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="18">
-        <v>3.9415309999999999</v>
+      <c r="B22">
+        <v>3.94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="18">
-        <v>3.8178010000000002</v>
+      <c r="B23">
+        <v>3.82</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="18">
-        <v>3.8302740000000002</v>
+      <c r="B24">
+        <v>3.83</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="18">
-        <v>3.7956110000000001</v>
+      <c r="B25">
+        <v>3.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="18">
-        <v>3.8928379999999998</v>
+      <c r="B26">
+        <v>3.89</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="18">
-        <v>3.7970489999999999</v>
+      <c r="B27">
+        <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="18">
-        <v>3.8627410000000002</v>
+      <c r="B28">
+        <v>3.86</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="18">
-        <v>3.8331979999999999</v>
+      <c r="B29">
+        <v>3.83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="18">
-        <v>3.7571340000000002</v>
+      <c r="B30">
+        <v>3.76</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="18">
-        <v>3.8185630000000002</v>
+      <c r="B31">
+        <v>3.82</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="18">
-        <v>3.768513</v>
+      <c r="B32">
+        <v>3.77</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="18">
-        <v>3.912849</v>
+      <c r="B33">
+        <v>3.91</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="18">
-        <v>3.9612129999999999</v>
+      <c r="B34">
+        <v>3.96</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="18">
-        <v>3.996721</v>
+      <c r="B35">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="18">
-        <v>4.0413800000000002</v>
+      <c r="B36">
+        <v>4.04</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="18">
-        <v>4.1469899999999997</v>
+      <c r="B37">
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="18">
-        <v>4.1371890000000002</v>
+      <c r="B38">
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="18">
-        <v>4.3189039999999999</v>
+      <c r="B39">
+        <v>4.32</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="18">
-        <v>4.5383909999999998</v>
+      <c r="B40">
+        <v>4.54</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="18">
-        <v>4.8480699999999999</v>
+      <c r="B41">
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="18">
-        <v>5.0499239999999999</v>
+      <c r="B42">
+        <v>5.05</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="18">
-        <v>5.1072100000000002</v>
+      <c r="B43">
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="18">
-        <v>5.2198320000000002</v>
+      <c r="B44">
+        <v>5.22</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="18">
-        <v>5.1340260000000004</v>
+      <c r="B45">
+        <v>5.13</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="18">
-        <v>5.034872</v>
+      <c r="B46">
+        <v>5.03</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="18">
-        <v>4.8856159999999997</v>
+      <c r="B47">
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="18">
-        <v>4.8407559999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="B48">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58" ht="18">
       <c r="A49" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="18">
-        <v>4.8394430000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="B49">
+        <v>4.84</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="22"/>
+      <c r="AQ49" s="22"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="22"/>
+      <c r="AT49" s="22"/>
+      <c r="AU49" s="22"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="22"/>
+      <c r="AX49" s="22"/>
+      <c r="AY49" s="22"/>
+      <c r="AZ49" s="22"/>
+      <c r="BA49" s="22"/>
+      <c r="BB49" s="22"/>
+      <c r="BC49" s="22"/>
+      <c r="BD49" s="22"/>
+      <c r="BE49" s="22"/>
+      <c r="BF49" s="22"/>
+    </row>
+    <row r="50" spans="1:58">
       <c r="A50" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="18">
-        <v>4.7239149999999999</v>
+      <c r="B50">
+        <v>4.72</v>
       </c>
     </row>
   </sheetData>
@@ -33419,8 +33479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D070761-CC06-BB48-B07B-7D97B3F06019}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
